--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,14 +1284,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 37700-2025</t>
+          <t>A 15321-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45880</v>
+        <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,45 +1338,45 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Vätteros</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 30406-2025</t>
+          <t>A 26662-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45827</v>
+        <v>45810</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,11 +1388,16 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,35 +1428,31 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skogsklocka</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
         <v/>
       </c>
     </row>
@@ -1465,7 +1466,7 @@
         <v>45896</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1550,7 +1551,7 @@
         <v>45078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1640,7 @@
         <v>45929</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1726,14 +1727,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 66053-2021</t>
+          <t>A 37700-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44517.63174768518</v>
+        <v>45880</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1746,13 +1747,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1780,568 +1781,567 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 66053-2021</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44517.63174768518</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Björksplintborre</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 30406-2025</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45827</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 54042-2021</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 62973-2025</t>
         </is>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>46009</v>
       </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
+      <c r="C19" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>7.8</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 15321-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45019</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 8363-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45708</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Vätteros</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 8363-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45708</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Mandelriska</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 8363-2025 artfynd.xlsx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 8363-2025 karta.png", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 8363-2025 FSC-klagomål.docx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 8363-2025 FSC-klagomål mail.docx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 8363-2025 tillsynsbegäran.docx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 8363-2025 tillsynsbegäran mail.docx", "A 8363-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 35077-2024</t>
         </is>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>45527</v>
       </c>
-      <c r="C19" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
+      <c r="C21" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>2.1</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 35077-2024 artfynd.xlsx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 35077-2024 karta.png", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/knärot/A 35077-2024 karta knärot.png", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 35077-2024 FSC-klagomål.docx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 35077-2024 FSC-klagomål mail.docx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 35077-2024 tillsynsbegäran.docx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 35077-2024 tillsynsbegäran mail.docx", "A 35077-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 54042-2021</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 26662-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 45960-2021</t>
+          <t>A 43244-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44441</v>
+        <v>44432</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>13.6</v>
+        <v>4.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 43244-2021</t>
+          <t>A 7589-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44432</v>
+        <v>44607.63090277778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 7589-2022</t>
+          <t>A 45960-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44607.63090277778</v>
+        <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.9</v>
+        <v>13.6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44795</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2852,14 +2852,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 32443-2022</t>
+          <t>A 71903-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44782</v>
+        <v>44543</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2909,14 +2909,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 71903-2021</t>
+          <t>A 32443-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44543</v>
+        <v>44782</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3251,14 +3251,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15701-2021</t>
+          <t>A 23332-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44286</v>
+        <v>44328</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3308,14 +3308,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23332-2021</t>
+          <t>A 45384-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44328</v>
+        <v>44844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3365,14 +3365,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 45384-2022</t>
+          <t>A 15701-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44844</v>
+        <v>44286</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3593,14 +3593,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 18791-2022</t>
+          <t>A 25970-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44690</v>
+        <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3612,13 +3612,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3655,14 +3650,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 25970-2022</t>
+          <t>A 18791-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44734</v>
+        <v>44690</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3674,8 +3669,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44694.44246527777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44369</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44292</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44467.47119212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4168,14 +4168,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61306-2021</t>
+          <t>A 59760-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44498</v>
+        <v>44494.45789351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4225,14 +4225,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59760-2021</t>
+          <t>A 61306-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44494.45789351852</v>
+        <v>44498</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44267</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44762.46194444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>44620</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4572,14 +4572,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 10894-2022</t>
+          <t>A 4178-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44627</v>
+        <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4629,14 +4629,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10803-2021</t>
+          <t>A 10894-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44258</v>
+        <v>44627</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4686,14 +4686,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34937-2021</t>
+          <t>A 10803-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44383</v>
+        <v>44258</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4705,13 +4705,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>6.6</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4748,14 +4743,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 4178-2022</t>
+          <t>A 34937-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44588</v>
+        <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4767,8 +4762,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>6.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4805,14 +4805,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11103-2022</t>
+          <t>A 43960-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44628</v>
+        <v>44434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4862,14 +4862,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43960-2021</t>
+          <t>A 11103-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44434</v>
+        <v>44628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>44735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44882.59195601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44649.65836805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44806</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5152,14 +5152,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29515-2022</t>
+          <t>A 59746-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44753</v>
+        <v>44494.44803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5171,13 +5171,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5214,14 +5209,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7312-2021</t>
+          <t>A 29515-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44238</v>
+        <v>44753</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5233,8 +5228,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5271,14 +5271,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 59746-2021</t>
+          <t>A 7312-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44494.44803240741</v>
+        <v>44238</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5335,7 +5335,7 @@
         <v>44467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44732</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44577.00778935185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>44460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44498.66922453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44292</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5732,14 +5732,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41810-2021</t>
+          <t>A 19508-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44425</v>
+        <v>44312.36194444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5789,14 +5789,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19508-2021</t>
+          <t>A 30334-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44312.36194444444</v>
+        <v>44760.46356481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5846,14 +5846,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30334-2022</t>
+          <t>A 41810-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44760.46356481482</v>
+        <v>44425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>44547</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5960,14 +5960,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13121-2023</t>
+          <t>A 5841-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45002</v>
+        <v>44596.6127662037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6017,14 +6017,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 37696-2025</t>
+          <t>A 5126-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45880</v>
+        <v>44958</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>14.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37517-2025</t>
+          <t>A 5025-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45877</v>
+        <v>44958.56039351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6131,14 +6131,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 37515-2025</t>
+          <t>A 73901-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45877</v>
+        <v>44552</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6188,14 +6188,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 37495-2025</t>
+          <t>A 28228-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45877</v>
+        <v>45477</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6245,14 +6245,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 6713-2025</t>
+          <t>A 73033-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45700</v>
+        <v>44550</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6264,13 +6264,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6307,14 +6302,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 37339-2022</t>
+          <t>A 13382-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44806</v>
+        <v>45387</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6322,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6364,14 +6359,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39334-2025</t>
+          <t>A 17437-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45889.49049768518</v>
+        <v>45757</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6421,14 +6416,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 33948-2023</t>
+          <t>A 17443-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45124</v>
+        <v>45757.43275462963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6441,7 +6436,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6478,14 +6473,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27222-2023</t>
+          <t>A 57236-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45096.58590277778</v>
+        <v>45245.54427083334</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6498,7 +6493,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6535,14 +6530,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 38002-2025</t>
+          <t>A 57237-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45881.89586805556</v>
+        <v>45245</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6555,7 +6550,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>18.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6592,14 +6587,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17972-2025</t>
+          <t>A 5810-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45761.36483796296</v>
+        <v>44963.48369212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6612,7 +6607,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6649,14 +6644,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 62896-2023</t>
+          <t>A 47152-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45272.42737268518</v>
+        <v>45201</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6669,7 +6664,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>13.8</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6706,14 +6701,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6938-2024</t>
+          <t>A 26840-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45343</v>
+        <v>45093.5540625</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6726,7 +6721,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6763,14 +6758,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26829-2023</t>
+          <t>A 18341-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45093.54527777778</v>
+        <v>45762.51554398148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6783,7 +6778,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6820,14 +6815,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13895-2024</t>
+          <t>A 29582-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45391</v>
+        <v>45484</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6840,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6882,14 +6877,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 26815-2023</t>
+          <t>A 31561-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45093.531875</v>
+        <v>45117.39696759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6902,7 +6897,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6939,14 +6934,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 15545-2024</t>
+          <t>A 13121-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45401</v>
+        <v>45002</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6958,13 +6953,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7001,14 +6991,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 17565-2025</t>
+          <t>A 58514-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45757.64024305555</v>
+        <v>44902.40304398148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7021,7 +7011,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7058,14 +7048,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25443-2023</t>
+          <t>A 53209-2021</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45089</v>
+        <v>44468</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7068,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.8</v>
+        <v>11.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7115,14 +7105,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12311-2024</t>
+          <t>A 17910-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45378.63476851852</v>
+        <v>45419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7135,7 +7125,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>6.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7172,14 +7162,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37486-2022</t>
+          <t>A 37119-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44809.55424768518</v>
+        <v>45539.53746527778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7192,7 +7182,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7229,14 +7219,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40027-2025</t>
+          <t>A 2253-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45894.36900462963</v>
+        <v>45310.30798611111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7249,7 +7239,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7286,14 +7276,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 40029-2025</t>
+          <t>A 6721-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45894</v>
+        <v>45700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7305,8 +7295,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7343,14 +7338,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 14306-2023</t>
+          <t>A 49300-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45011</v>
+        <v>44861.47716435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7363,7 +7358,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.3</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7400,14 +7395,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 10647-2024</t>
+          <t>A 5957-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45368.47725694445</v>
+        <v>45336</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7420,7 +7415,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7457,14 +7452,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 20238-2024</t>
+          <t>A 13289-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45434</v>
+        <v>45735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7477,7 +7472,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7514,14 +7509,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21528-2024</t>
+          <t>A 20238-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45441.59262731481</v>
+        <v>45434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7534,7 +7529,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7571,14 +7566,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 17239-2025</t>
+          <t>A 56219-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45756.47972222222</v>
+        <v>45240.77920138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7591,7 +7586,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7628,14 +7623,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 5025-2023</t>
+          <t>A 680-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44958.56039351852</v>
+        <v>45300</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7648,7 +7643,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7685,14 +7680,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 19053-2024</t>
+          <t>A 30339-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45427</v>
+        <v>44760.47674768518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7705,7 +7700,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7742,14 +7737,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 31974-2023</t>
+          <t>A 12350-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45107</v>
+        <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7761,8 +7756,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7799,14 +7799,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 42557-2022</t>
+          <t>A 27218-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44831</v>
+        <v>45096.58238425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>13.7</v>
+        <v>1.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7856,14 +7856,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 23189-2024</t>
+          <t>A 24543-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45450</v>
+        <v>45460</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7881,7 +7881,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7918,14 +7918,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 41113-2025</t>
+          <t>A 39334-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45898.46057870371</v>
+        <v>45889.49049768518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7938,7 +7938,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7975,14 +7975,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 24543-2024</t>
+          <t>A 36420-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45460</v>
+        <v>45152</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7994,13 +7994,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8037,14 +8032,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 5957-2024</t>
+          <t>A 40029-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45336</v>
+        <v>45894</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8052,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8094,14 +8089,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 58747-2025</t>
+          <t>A 40027-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45986.63916666667</v>
+        <v>45894.36900462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8109,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8151,14 +8146,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 13382-2024</t>
+          <t>A 975-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45387</v>
+        <v>45665</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8166,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8208,14 +8203,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 21311-2024</t>
+          <t>A 17399-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45440</v>
+        <v>45757</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8227,13 +8222,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8270,14 +8260,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 58751-2025</t>
+          <t>A 62557-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45986.64163194445</v>
+        <v>44924.77230324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8290,7 +8280,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8327,14 +8317,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42143-2025</t>
+          <t>A 21402-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45904.36905092592</v>
+        <v>45441</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8347,7 +8337,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8384,14 +8374,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 32302-2024</t>
+          <t>A 41113-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45512</v>
+        <v>45898.46057870371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8403,13 +8393,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8446,14 +8431,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 25840-2024</t>
+          <t>A 17239-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45467</v>
+        <v>45756.47972222222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8503,14 +8488,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 22289-2021</t>
+          <t>A 29736-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44326</v>
+        <v>45107.45405092592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8560,14 +8545,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28228-2024</t>
+          <t>A 53138-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45477</v>
+        <v>45229.34055555556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8580,7 +8565,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8617,14 +8602,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 567-2026</t>
+          <t>A 42143-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>46029.46965277778</v>
+        <v>45904.36905092592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8637,7 +8622,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8674,14 +8659,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 614-2026</t>
+          <t>A 19566-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46024</v>
+        <v>45049</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8694,7 +8679,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.3</v>
+        <v>3.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8731,14 +8716,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 59617-2025</t>
+          <t>A 29762-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45992.37861111111</v>
+        <v>45107.47733796296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8751,7 +8736,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8788,14 +8773,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44497-2025</t>
+          <t>A 29256-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45916.67107638889</v>
+        <v>45824.38387731482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8808,7 +8793,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8845,14 +8830,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 40522-2025</t>
+          <t>A 29260-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45896</v>
+        <v>45824</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8865,7 +8850,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8902,14 +8887,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 40524-2025</t>
+          <t>A 29645-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45896</v>
+        <v>45825.46574074074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8922,7 +8907,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8959,14 +8944,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 25014-2024</t>
+          <t>A 16092-2021</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45461</v>
+        <v>44289</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8979,7 +8964,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>12.8</v>
+        <v>0.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9016,14 +9001,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 17081-2024</t>
+          <t>A 44160-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45412</v>
+        <v>45915.59703703703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9035,8 +9020,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9073,14 +9063,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62682-2023</t>
+          <t>A 30411-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45271</v>
+        <v>45827</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9093,7 +9083,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9130,14 +9120,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 44160-2025</t>
+          <t>A 8364-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45915.59703703703</v>
+        <v>45708</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9149,13 +9139,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>9.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9192,14 +9177,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 53209-2021</t>
+          <t>A 30563-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44468</v>
+        <v>45831.40098379629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9212,7 +9197,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>11.6</v>
+        <v>1.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9249,14 +9234,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 73310-2021</t>
+          <t>A 62896-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44547</v>
+        <v>45272.42737268518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9269,7 +9254,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.2</v>
+        <v>13.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9306,14 +9291,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45868-2025</t>
+          <t>A 44497-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45923.65232638889</v>
+        <v>45916.67107638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9326,7 +9311,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9363,14 +9348,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45812-2025</t>
+          <t>A 69847-2021</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45923.58844907407</v>
+        <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9383,7 +9368,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9420,14 +9405,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 43243-2025</t>
+          <t>A 31190-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45910</v>
+        <v>45831</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9425,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9477,14 +9462,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 45784-2025</t>
+          <t>A 45728-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45923.55923611111</v>
+        <v>45923.45925925926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9482,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9534,14 +9519,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45728-2025</t>
+          <t>A 45784-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45923.45925925926</v>
+        <v>45923.55923611111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9539,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9591,14 +9576,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45898-2025</t>
+          <t>A 45868-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45923.67954861111</v>
+        <v>45923.65232638889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9596,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9648,14 +9633,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45750-2025</t>
+          <t>A 45898-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45923.48400462963</v>
+        <v>45923.67954861111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9668,7 +9653,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9712,7 +9697,7 @@
         <v>45923.47619212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9762,14 +9747,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 45467-2022</t>
+          <t>A 58705-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44845</v>
+        <v>45635</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,8 +9766,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9819,14 +9809,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 60656-2025</t>
+          <t>A 45750-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45996.47914351852</v>
+        <v>45923.48400462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9839,7 +9829,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9876,14 +9866,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 2581-2026</t>
+          <t>A 45812-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>46037.53079861111</v>
+        <v>45923.58844907407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9933,14 +9923,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 58705-2024</t>
+          <t>A 43243-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45635</v>
+        <v>45910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9952,13 +9942,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G154" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9995,14 +9980,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12416-2023</t>
+          <t>A 22347-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44998</v>
+        <v>45070.57208333333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,13 +9999,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10057,14 +10037,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 60752-2025</t>
+          <t>A 47507-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45999.38148148148</v>
+        <v>45930.86842592592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10077,7 +10057,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10114,14 +10094,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56552-2022</t>
+          <t>A 32327-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44887</v>
+        <v>45836.44756944444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10133,13 +10113,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10176,14 +10151,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 2253-2024</t>
+          <t>A 33081-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45310.30798611111</v>
+        <v>44785</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10196,7 +10171,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10233,14 +10208,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 4870-2024</t>
+          <t>A 25840-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45329</v>
+        <v>45467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10253,7 +10228,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>8.4</v>
+        <v>2.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10290,14 +10265,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 3054-2026</t>
+          <t>A 49422-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46039.37369212963</v>
+        <v>45938</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10310,7 +10285,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10347,14 +10322,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 36644-2023</t>
+          <t>A 49425-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45153.55092592593</v>
+        <v>45938</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10367,7 +10342,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10404,14 +10379,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 7922-2022</t>
+          <t>A 37676-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44608.72004629629</v>
+        <v>45159</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10424,7 +10399,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10461,14 +10436,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47507-2025</t>
+          <t>A 49507-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45930.86842592592</v>
+        <v>45939.37804398148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10481,7 +10456,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.9</v>
+        <v>5.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10518,14 +10493,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 62905-2023</t>
+          <t>A 6751-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45272</v>
+        <v>45700.6130787037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10538,7 +10513,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>13.8</v>
+        <v>0.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10575,14 +10550,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 5126-2023</t>
+          <t>A 50640-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44958</v>
+        <v>45217.46871527778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10595,7 +10570,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>14.3</v>
+        <v>1.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10632,14 +10607,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 69847-2021</t>
+          <t>A 34580-2022</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44532</v>
+        <v>44795</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10652,7 +10627,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10689,14 +10664,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58514-2022</t>
+          <t>A 12000-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44902.40304398148</v>
+        <v>44635</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10709,7 +10684,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10746,14 +10721,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49425-2025</t>
+          <t>A 42557-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45938</v>
+        <v>44831</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10766,7 +10741,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.2</v>
+        <v>13.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10803,14 +10778,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 10892-2022</t>
+          <t>A 35253-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44627.77988425926</v>
+        <v>44797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10823,7 +10798,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10860,14 +10835,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 49422-2025</t>
+          <t>A 10647-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45938</v>
+        <v>45368.47725694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10880,7 +10855,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10917,14 +10892,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 41878-2024</t>
+          <t>A 15545-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45561</v>
+        <v>45401</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10942,7 +10917,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>15.9</v>
+        <v>3.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10979,14 +10954,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 71706-2021</t>
+          <t>A 8359-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44543.44349537037</v>
+        <v>45708</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10999,7 +10974,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.1</v>
+        <v>4.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11036,14 +11011,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 49507-2025</t>
+          <t>A 35426-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45939.37804398148</v>
+        <v>45855</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11056,7 +11031,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11093,14 +11068,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 31362-2024</t>
+          <t>A 35425-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45505</v>
+        <v>45855</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11113,7 +11088,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11150,14 +11125,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 17122-2024</t>
+          <t>A 5280-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45412</v>
+        <v>44593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11169,8 +11144,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.7</v>
+        <v>37.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11207,14 +11187,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62557-2022</t>
+          <t>A 51509-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44924.77230324074</v>
+        <v>45950</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11227,7 +11207,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11264,14 +11244,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 7991-2024</t>
+          <t>A 38582-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45350</v>
+        <v>45546</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11283,8 +11263,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>5.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11321,14 +11306,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51509-2025</t>
+          <t>A 13820-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45950</v>
+        <v>45390</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11341,7 +11326,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>7.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11378,14 +11363,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 63063-2025</t>
+          <t>A 17565-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>46009</v>
+        <v>45757.64024305555</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11398,7 +11383,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11435,14 +11420,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 62967-2025</t>
+          <t>A 31362-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46009</v>
+        <v>45505</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11455,7 +11440,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11492,14 +11477,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 5810-2023</t>
+          <t>A 52699-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44963.48369212963</v>
+        <v>45956.7752662037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11512,7 +11497,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11549,14 +11534,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 62941-2025</t>
+          <t>A 52700-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46009</v>
+        <v>45956.78072916667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11554,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11606,14 +11591,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 39145-2021</t>
+          <t>A 32302-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44412</v>
+        <v>45512</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11625,8 +11610,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11663,14 +11653,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 62955-2025</t>
+          <t>A 37515-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46009</v>
+        <v>45877</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11683,7 +11673,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11720,14 +11710,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 52700-2025</t>
+          <t>A 3065-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45956.78072916667</v>
+        <v>45316.40590277778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11740,7 +11730,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11777,14 +11767,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 43242-2021</t>
+          <t>A 37495-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44432</v>
+        <v>45877</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11797,7 +11787,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11834,14 +11824,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 52699-2025</t>
+          <t>A 37517-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45956.7752662037</v>
+        <v>45877</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11854,7 +11844,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11891,14 +11881,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 5236-2023</t>
+          <t>A 17081-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44956</v>
+        <v>45412</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11911,7 +11901,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11948,14 +11938,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 19524-2024</t>
+          <t>A 53863-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45429.6306712963</v>
+        <v>45961.38152777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11968,7 +11958,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12005,14 +11995,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59391-2025</t>
+          <t>A 53866-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45989</v>
+        <v>45961.385625</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12025,7 +12015,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12062,14 +12052,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 62947-2023</t>
+          <t>A 37696-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45272.54398148148</v>
+        <v>45880</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12082,7 +12072,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12119,14 +12109,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 12350-2023</t>
+          <t>A 7993-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44998</v>
+        <v>45350.63241898148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12138,13 +12128,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12181,14 +12166,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 47152-2023</t>
+          <t>A 45467-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45201</v>
+        <v>44845</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12201,7 +12186,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12238,14 +12223,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 53866-2025</t>
+          <t>A 5011-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45961.385625</v>
+        <v>45329</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12258,7 +12243,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.2</v>
+        <v>22</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12295,14 +12280,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53863-2025</t>
+          <t>A 53137-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45961.38152777778</v>
+        <v>45229.33768518519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12315,7 +12300,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12352,14 +12337,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 7993-2024</t>
+          <t>A 38002-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45350.63241898148</v>
+        <v>45881.89586805556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12372,7 +12357,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12409,14 +12394,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 33081-2022</t>
+          <t>A 57233-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44785</v>
+        <v>45245.54103009259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12429,7 +12414,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12466,14 +12451,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 53755-2024</t>
+          <t>A 9144-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45615.49748842593</v>
+        <v>45358.37327546296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12486,7 +12471,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>6.1</v>
+        <v>0.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12523,14 +12508,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 29762-2023</t>
+          <t>A 62675-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45107.47733796296</v>
+        <v>45271</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12543,7 +12528,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12580,14 +12565,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 29736-2023</t>
+          <t>A 62682-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45107.45405092592</v>
+        <v>45271</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12600,7 +12585,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12637,14 +12622,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 53138-2023</t>
+          <t>A 5214-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45229.34055555556</v>
+        <v>45691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12657,7 +12642,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12694,14 +12679,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 16772-2024</t>
+          <t>A 4982-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45411</v>
+        <v>45329</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12714,7 +12699,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12751,14 +12736,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 19052-2024</t>
+          <t>A 62947-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45427.76670138889</v>
+        <v>45272.54398148148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12771,7 +12756,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12808,14 +12793,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50640-2023</t>
+          <t>A 31930-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45217.46871527778</v>
+        <v>45510</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12828,7 +12813,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12865,14 +12850,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 17910-2024</t>
+          <t>A 71706-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45419</v>
+        <v>44543.44349537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12885,7 +12870,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12922,14 +12907,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 39635-2023</t>
+          <t>A 11597-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45167.52609953703</v>
+        <v>45727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12942,7 +12927,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12979,14 +12964,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 22319-2021</t>
+          <t>A 40935-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44326.48232638889</v>
+        <v>44823</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12998,8 +12983,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G207" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13036,14 +13026,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 66056-2021</t>
+          <t>A 58751-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44517.6359837963</v>
+        <v>45986.64163194445</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13056,7 +13046,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13093,14 +13083,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 8361-2025</t>
+          <t>A 567-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45708</v>
+        <v>46029.46965277778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13113,7 +13103,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13150,14 +13140,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 11597-2025</t>
+          <t>A 58747-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45727</v>
+        <v>45986.63916666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13170,7 +13160,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13207,14 +13197,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 31964-2023</t>
+          <t>A 614-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45107</v>
+        <v>46024</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13227,7 +13217,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13264,14 +13254,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 35253-2022</t>
+          <t>A 6938-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44797</v>
+        <v>45343</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13284,7 +13274,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13321,14 +13311,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 16574-2025</t>
+          <t>A 40522-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45752.50203703704</v>
+        <v>45896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13341,7 +13331,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13378,14 +13368,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 3065-2024</t>
+          <t>A 40524-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45316.40590277778</v>
+        <v>45896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13398,7 +13388,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13435,14 +13425,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 12082-2024</t>
+          <t>A 14306-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45377.54760416667</v>
+        <v>45011</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13455,7 +13445,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13492,14 +13482,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 12084-2024</t>
+          <t>A 18321-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45377.55229166667</v>
+        <v>45762</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13512,7 +13502,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13549,14 +13539,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 29426-2022</t>
+          <t>A 59617-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44753</v>
+        <v>45992.37861111111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13568,13 +13558,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>14.4</v>
+        <v>1.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13611,14 +13596,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 20954-2023</t>
+          <t>A 17972-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45061</v>
+        <v>45761.36483796296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13631,7 +13616,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13668,14 +13653,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 30339-2022</t>
+          <t>A 27222-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44760.47674768518</v>
+        <v>45096.58590277778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13688,7 +13673,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13725,14 +13710,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 17443-2025</t>
+          <t>A 2581-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45757.43275462963</v>
+        <v>46037.53079861111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13745,7 +13730,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13782,14 +13767,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 6751-2025</t>
+          <t>A 36644-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45700.6130787037</v>
+        <v>45153.55092592593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13802,7 +13787,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13839,14 +13824,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 975-2025</t>
+          <t>A 60752-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45665</v>
+        <v>45999.38148148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13859,7 +13844,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13896,14 +13881,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 63919-2021</t>
+          <t>A 8788-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44509</v>
+        <v>45356</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13916,7 +13901,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.2</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13953,14 +13938,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 20369-2024</t>
+          <t>A 7931-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45435</v>
+        <v>45706</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13972,8 +13957,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G224" t="n">
-        <v>1.4</v>
+        <v>13.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14010,14 +14000,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 11601-2025</t>
+          <t>A 62554-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45727</v>
+        <v>44924</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14030,7 +14020,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14067,14 +14057,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 4976-2024</t>
+          <t>A 21528-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45329</v>
+        <v>45441.59262731481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14087,7 +14077,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14124,14 +14114,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 12175-2024</t>
+          <t>A 20954-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45377</v>
+        <v>45061</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14144,7 +14134,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14181,14 +14171,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 9144-2024</t>
+          <t>A 3054-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45358.37327546296</v>
+        <v>46039.37369212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14201,7 +14191,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14238,14 +14228,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 30527-2022</t>
+          <t>A 60656-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44762.44436342592</v>
+        <v>45996.47914351852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14258,7 +14248,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14295,14 +14285,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 22347-2023</t>
+          <t>A 19052-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45070.57208333333</v>
+        <v>45427.76670138889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14315,7 +14305,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.7</v>
+        <v>7.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14352,14 +14342,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 4603-2025</t>
+          <t>A 10892-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45687</v>
+        <v>44627.77988425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14371,13 +14361,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14414,14 +14399,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 4273-2025</t>
+          <t>A 29426-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45685</v>
+        <v>44753</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,8 +14418,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G232" t="n">
-        <v>1.7</v>
+        <v>14.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14471,14 +14461,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 56220-2023</t>
+          <t>A 12416-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45240.78313657407</v>
+        <v>44998</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,8 +14480,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14528,14 +14523,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 56219-2023</t>
+          <t>A 44048-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45240.77920138889</v>
+        <v>45188.38348379629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14548,7 +14543,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14585,14 +14580,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 6721-2025</t>
+          <t>A 43242-2021</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45700</v>
+        <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,13 +14599,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>5.7</v>
+        <v>2.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14647,14 +14637,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 17437-2025</t>
+          <t>A 62905-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45757</v>
+        <v>45272</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14667,7 +14657,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>13.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14704,14 +14694,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 5841-2022</t>
+          <t>A 21311-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44596.6127662037</v>
+        <v>45440</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14723,8 +14713,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14761,14 +14756,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 12000-2022</t>
+          <t>A 37486-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44635</v>
+        <v>44809.55424768518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14781,7 +14776,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>8.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14818,14 +14813,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 40935-2022</t>
+          <t>A 62967-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44823</v>
+        <v>46009</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14837,13 +14832,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14880,14 +14870,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 36646-2023</t>
+          <t>A 46299-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45153.55540509259</v>
+        <v>44847.75081018519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14900,7 +14890,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14937,14 +14927,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 3779-2025</t>
+          <t>A 62941-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45681</v>
+        <v>46009</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14956,13 +14946,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>BillerudKorsnäs AB</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14999,14 +14984,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 29724-2023</t>
+          <t>A 59391-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45107</v>
+        <v>45989</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15019,7 +15004,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15056,14 +15041,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 8362-2025</t>
+          <t>A 5236-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45708</v>
+        <v>44956</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15076,7 +15061,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>7.7</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15113,14 +15098,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 972-2025</t>
+          <t>A 62955-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45665</v>
+        <v>46009</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15133,7 +15118,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15170,14 +15155,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 49300-2022</t>
+          <t>A 63063-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44861.47716435185</v>
+        <v>46009</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15190,7 +15175,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15227,14 +15212,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 16635-2024</t>
+          <t>A 56220-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45408.59462962963</v>
+        <v>45240.78313657407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15284,14 +15269,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 37676-2023</t>
+          <t>A 53755-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45159</v>
+        <v>45615.49748842593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15304,7 +15289,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>6.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15341,14 +15326,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 53137-2023</t>
+          <t>A 972-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45229.33768518519</v>
+        <v>45665</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15361,7 +15346,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15398,14 +15383,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 8788-2024</t>
+          <t>A 909-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45356</v>
+        <v>45664</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15418,7 +15403,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15455,14 +15440,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 680-2024</t>
+          <t>A 13895-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45300</v>
+        <v>45391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,8 +15459,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15512,14 +15502,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 46299-2022</t>
+          <t>A 29724-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44847.75081018519</v>
+        <v>45107</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15532,7 +15522,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15569,14 +15559,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 62554-2022</t>
+          <t>A 56552-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44924</v>
+        <v>44887</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,8 +15578,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15626,14 +15621,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 57236-2023</t>
+          <t>A 31974-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45245.54427083334</v>
+        <v>45107</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15646,7 +15641,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15683,14 +15678,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 57237-2023</t>
+          <t>A 19802-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45245</v>
+        <v>45432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,8 +15697,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>18.2</v>
+        <v>2.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15740,14 +15740,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 5280-2022</t>
+          <t>A 16635-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44593</v>
+        <v>45408.59462962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,13 +15759,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G255" t="n">
-        <v>37.1</v>
+        <v>0.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15802,14 +15797,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 29577-2024</t>
+          <t>A 22319-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45484</v>
+        <v>44326.48232638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15821,13 +15816,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>10.1</v>
+        <v>0.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15864,14 +15854,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 27443-2024</t>
+          <t>A 4273-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45474</v>
+        <v>45685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15884,7 +15874,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15921,14 +15911,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 32959-2022</t>
+          <t>A 7922-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44784</v>
+        <v>44608.72004629629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15941,7 +15931,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15978,14 +15968,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 13320-2024</t>
+          <t>A 1556-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45386.77172453704</v>
+        <v>45670</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15998,7 +15988,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16035,14 +16025,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 38517-2024</t>
+          <t>A 12311-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45546.56068287037</v>
+        <v>45378.63476851852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16055,7 +16045,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16092,14 +16082,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 19155-2025</t>
+          <t>A 33948-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45769</v>
+        <v>45124</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16112,7 +16102,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.9</v>
+        <v>5.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16149,14 +16139,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 37119-2024</t>
+          <t>A 13320-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45539.53746527778</v>
+        <v>45386.77172453704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16169,7 +16159,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16206,14 +16196,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 56386-2022</t>
+          <t>A 55227-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44890</v>
+        <v>45231</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16226,7 +16216,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16263,14 +16253,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 19802-2024</t>
+          <t>A 25014-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45432</v>
+        <v>45461</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,13 +16272,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G264" t="n">
-        <v>2.5</v>
+        <v>12.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16325,14 +16310,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 34580-2022</t>
+          <t>A 31964-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44795</v>
+        <v>45107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16345,7 +16330,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16382,14 +16367,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 19566-2023</t>
+          <t>A 12082-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45049</v>
+        <v>45377.54760416667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16402,7 +16387,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16439,14 +16424,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 7272-2022</t>
+          <t>A 12084-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44606.4540625</v>
+        <v>45377.55229166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16459,7 +16444,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16496,14 +16481,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 22822-2024</t>
+          <t>A 4976-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45448</v>
+        <v>45329</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16516,7 +16501,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16553,14 +16538,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 59542-2022</t>
+          <t>A 64304-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44907</v>
+        <v>45280</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16573,7 +16558,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16610,14 +16595,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 21402-2024</t>
+          <t>A 48553-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45441</v>
+        <v>45208.40232638889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16630,7 +16615,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16667,14 +16652,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 16092-2021</t>
+          <t>A 26815-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44289</v>
+        <v>45093.531875</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16687,7 +16672,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16724,14 +16709,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 57233-2023</t>
+          <t>A 16772-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45245.54103009259</v>
+        <v>45411</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16744,7 +16729,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16781,14 +16766,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 71781-2021</t>
+          <t>A 25443-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44539</v>
+        <v>45089</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16800,13 +16785,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G273" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16843,14 +16823,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 31930-2024</t>
+          <t>A 66056-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45510</v>
+        <v>44517.6359837963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16863,7 +16843,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16900,14 +16880,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 73901-2021</t>
+          <t>A 23189-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44552</v>
+        <v>45450</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16917,6 +16897,11 @@
       <c r="E275" t="inlineStr">
         <is>
           <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G275" t="n">
@@ -16957,14 +16942,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 5214-2025</t>
+          <t>A 7991-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45691</v>
+        <v>45350</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16977,7 +16962,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17014,14 +16999,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 26840-2023</t>
+          <t>A 22289-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45093.5540625</v>
+        <v>44326</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17034,7 +17019,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17071,14 +17056,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 13820-2024</t>
+          <t>A 59542-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45390</v>
+        <v>44907</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17091,7 +17076,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>7.2</v>
+        <v>0.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17128,14 +17113,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 5011-2024</t>
+          <t>A 19155-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45329</v>
+        <v>45769</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17148,7 +17133,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>22</v>
+        <v>1.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17185,14 +17170,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 18341-2025</t>
+          <t>A 52848-2021</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45762.51554398148</v>
+        <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17205,7 +17190,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17242,14 +17227,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 52848-2021</t>
+          <t>A 8361-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44467</v>
+        <v>45708</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17262,7 +17247,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17299,14 +17284,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 19753-2024</t>
+          <t>A 73310-2021</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45432</v>
+        <v>44547</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17319,7 +17304,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17356,14 +17341,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 4982-2024</t>
+          <t>A 39635-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45329</v>
+        <v>45167.52609953703</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17376,7 +17361,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17413,14 +17398,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 18321-2025</t>
+          <t>A 37339-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45762</v>
+        <v>44806</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17433,7 +17418,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17470,14 +17455,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 18184-2024</t>
+          <t>A 56386-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45420</v>
+        <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17489,13 +17474,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G285" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17532,14 +17512,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 55227-2023</t>
+          <t>A 71781-2021</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45231</v>
+        <v>44539</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,8 +17531,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G286" t="n">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17589,14 +17574,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 9837-2023</t>
+          <t>A 6713-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44984.85623842593</v>
+        <v>45700</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,8 +17593,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G287" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17646,14 +17636,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 7931-2025</t>
+          <t>A 8362-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45706</v>
+        <v>45708</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,13 +17655,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G288" t="n">
-        <v>13.8</v>
+        <v>7.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17708,14 +17693,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 1556-2025</t>
+          <t>A 30527-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45670</v>
+        <v>44762.44436342592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17728,7 +17713,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17765,14 +17750,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 73033-2021</t>
+          <t>A 17573-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44550</v>
+        <v>45757.65053240741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17785,7 +17770,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17822,14 +17807,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 909-2025</t>
+          <t>A 17122-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45664</v>
+        <v>45412</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17842,7 +17827,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17879,14 +17864,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 64304-2023</t>
+          <t>A 9837-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45280</v>
+        <v>44984.85623842593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17899,7 +17884,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17936,14 +17921,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 29582-2024</t>
+          <t>A 41878-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45484</v>
+        <v>45561</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17961,7 +17946,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>3.1</v>
+        <v>15.9</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17998,14 +17983,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 8364-2025</t>
+          <t>A 19753-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45708</v>
+        <v>45432</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18018,7 +18003,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18055,14 +18040,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 62675-2023</t>
+          <t>A 27443-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45271</v>
+        <v>45474</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18075,7 +18060,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18112,14 +18097,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 48553-2023</t>
+          <t>A 32959-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45208.40232638889</v>
+        <v>44784</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18132,7 +18117,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18169,14 +18154,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 17573-2025</t>
+          <t>A 30914-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45757.65053240741</v>
+        <v>45113</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18189,7 +18174,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18226,14 +18211,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 31561-2023</t>
+          <t>A 20369-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45117.39696759259</v>
+        <v>45435</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18246,7 +18231,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18283,14 +18268,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 44048-2023</t>
+          <t>A 7272-2022</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45188.38348379629</v>
+        <v>44606.4540625</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18303,7 +18288,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18340,14 +18325,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 30914-2023</t>
+          <t>A 26829-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45113</v>
+        <v>45093.54527777778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18360,7 +18345,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18397,14 +18382,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 20784-2025</t>
+          <t>A 38517-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45776.61640046296</v>
+        <v>45546.56068287037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18417,7 +18402,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>9.5</v>
+        <v>1.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18454,14 +18439,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 8370-2023</t>
+          <t>A 16574-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44977.38424768519</v>
+        <v>45752.50203703704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18474,7 +18459,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18511,14 +18496,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 12217-2025</t>
+          <t>A 18184-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45729.5358912037</v>
+        <v>45420</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18530,8 +18515,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G303" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18568,14 +18558,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 22133-2025</t>
+          <t>A 19524-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45785</v>
+        <v>45429.6306712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18588,7 +18578,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18625,14 +18615,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 22537-2025</t>
+          <t>A 3779-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45787</v>
+        <v>45681</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18644,8 +18634,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>BillerudKorsnäs AB</t>
+        </is>
+      </c>
       <c r="G305" t="n">
-        <v>0.8</v>
+        <v>7.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18682,14 +18677,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 13289-2025</t>
+          <t>A 63919-2021</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45735</v>
+        <v>44509</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18702,7 +18697,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>5.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18739,14 +18734,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 27218-2023</t>
+          <t>A 4870-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45096.58238425926</v>
+        <v>45329</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18759,7 +18754,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18796,14 +18791,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 36420-2023</t>
+          <t>A 36646-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45152</v>
+        <v>45153.55540509259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18816,7 +18811,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18853,14 +18848,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 17399-2025</t>
+          <t>A 22822-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45757</v>
+        <v>45448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18873,7 +18868,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18910,14 +18905,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 29260-2025</t>
+          <t>A 19053-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45824</v>
+        <v>45427</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18930,7 +18925,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18967,14 +18962,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 29256-2025</t>
+          <t>A 4603-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45824.38387731482</v>
+        <v>45687</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18986,8 +18981,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G311" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19024,14 +19024,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 29645-2025</t>
+          <t>A 11601-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45825.46574074074</v>
+        <v>45727</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19081,14 +19081,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 30411-2025</t>
+          <t>A 12175-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45827</v>
+        <v>45377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.5</v>
+        <v>5.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19138,14 +19138,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 30563-2025</t>
+          <t>A 39145-2021</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45831.40098379629</v>
+        <v>44412</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19195,14 +19195,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 31190-2025</t>
+          <t>A 29577-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45831</v>
+        <v>45484</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19214,8 +19214,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G315" t="n">
-        <v>5</v>
+        <v>10.1</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19252,14 +19257,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 32327-2025</t>
+          <t>A 20784-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45836.44756944444</v>
+        <v>45776.61640046296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19272,7 +19277,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.1</v>
+        <v>9.5</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19309,14 +19314,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 8359-2025</t>
+          <t>A 8370-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45708</v>
+        <v>44977.38424768519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19329,7 +19334,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19366,14 +19371,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 35425-2025</t>
+          <t>A 12217-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45855</v>
+        <v>45729.5358912037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19386,7 +19391,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19423,14 +19428,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 35426-2025</t>
+          <t>A 22133-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45855</v>
+        <v>45785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19443,7 +19448,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2</v>
+        <v>4.7</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19480,14 +19485,14 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 38582-2024</t>
+          <t>A 22537-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45546</v>
+        <v>45787</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19499,13 +19504,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F320" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G320" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45810</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45896</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45929</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45880</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44517.63174768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44470</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>46009</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>45708</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>45527</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44432</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44607.63090277778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44795</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44543</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44782</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44328</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44286</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44690</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44694.44246527777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44369</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44292</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44467.47119212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44494.45789351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>44498</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44267</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44762.46194444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>44620</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44627</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44258</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44882.59195601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44649.65836805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44806</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44494.44803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44753</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44238</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44732</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44577.00778935185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>44460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44498.66922453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44292</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44312.36194444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44760.46356481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44547</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>44596.6127662037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44958</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44958.56039351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44552</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45477</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>44550</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>45387</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45757</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45757.43275462963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45245.54427083334</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45245</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44963.48369212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>45201</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45093.5540625</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45762.51554398148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45484</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45117.39696759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45002</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>44902.40304398148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>44468</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45539.53746527778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45310.30798611111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>45700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>44861.47716435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45336</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>45735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>45434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>45240.77920138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>45300</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>44760.47674768518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>45096.58238425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45460</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>45889.49049768518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>45152</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>45894</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>45894.36900462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45665</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>45757</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>44924.77230324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>45441</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>45898.46057870371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>45756.47972222222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>45107.45405092592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>45229.34055555556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>45904.36905092592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45049</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>45107.47733796296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45824.38387731482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>45824</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>45825.46574074074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44289</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>45915.59703703703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>45827</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>45708</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>45831.40098379629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>45272.42737268518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>45916.67107638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>45831</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>45923.45925925926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>45923.55923611111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>45923.65232638889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45923.67954861111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>45923.47619212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45635</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>45923.48400462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45923.58844907407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>45910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45070.57208333333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>45930.86842592592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>45836.44756944444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>44785</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>45467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>45938</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>45938</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>45159</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>45939.37804398148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>45700.6130787037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>45217.46871527778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>44795</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>44635</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44831</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>45368.47725694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>45401</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>45708</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>45855</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>45855</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45950</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45546</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>45390</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>45757.64024305555</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>45505</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45956.7752662037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>45956.78072916667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45512</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>45877</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>45316.40590277778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45877</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45877</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45412</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45961.38152777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45961.385625</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45880</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45350.63241898148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44845</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45329</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45229.33768518519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45881.89586805556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>45245.54103009259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45358.37327546296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>45271</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>45271</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>45691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>45329</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45272.54398148148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45510</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44543.44349537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>45727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44823</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45986.64163194445</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>46029.46965277778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>45986.63916666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>46024</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>45343</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>45896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>45011</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>45762</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45992.37861111111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45761.36483796296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>45096.58590277778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>46037.53079861111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45153.55092592593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45999.38148148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45356</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45706</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44924</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45441.59262731481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45061</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>46039.37369212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45996.47914351852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45427.76670138889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44627.77988425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>44753</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44998</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45188.38348379629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45272</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>45440</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44809.55424768518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>46009</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44847.75081018519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>46009</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45989</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44956</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>46009</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>46009</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45240.78313657407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>45615.49748842593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>45665</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>45664</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>45107</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>44887</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>45107</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45408.59462962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44326.48232638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44608.72004629629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45670</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45378.63476851852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>45124</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>45386.77172453704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45231</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>45461</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>45377.54760416667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45377.55229166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45329</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>45280</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45208.40232638889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>45093.531875</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45411</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>45089</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>44517.6359837963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>45450</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>45350</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>44326</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>44907</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45769</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>45708</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>44547</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>45167.52609953703</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>44806</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>44539</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45700</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45708</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44762.44436342592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45757.65053240741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45412</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44984.85623842593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45561</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45432</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45474</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44784</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45113</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>45435</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>44606.4540625</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45093.54527777778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45546.56068287037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45752.50203703704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45420</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>45429.6306712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45681</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>44509</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>45329</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45153.55540509259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>45427</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45687</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45727</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44412</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45484</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45776.61640046296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44977.38424768519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45729.5358912037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>45785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>45787</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         <v>45810</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45896</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         <v>45078</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1640,7 +1640,7 @@
         <v>45929</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1734,7 +1734,7 @@
         <v>45880</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1819,7 +1819,7 @@
         <v>44517.63174768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1993,7 +1993,7 @@
         <v>44470</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         <v>46009</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>45708</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>45527</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44432</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44607.63090277778</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44441</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44795</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44543</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44782</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44328</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44844</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44286</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44734</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>44690</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44694.44246527777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44369</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44292</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44467.47119212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44494.45789351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>44498</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44267</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44762.46194444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>44620</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44627</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44258</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44882.59195601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44649.65836805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44806</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44494.44803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44753</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44238</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44732</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44577.00778935185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>44460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44498.66922453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44292</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44312.36194444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44760.46356481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44547</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>44596.6127662037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44958</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>44958.56039351852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44552</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45477</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>44550</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>45387</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45757</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45757.43275462963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45245.54427083334</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>45245</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>44963.48369212963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>45201</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45093.5540625</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45762.51554398148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6822,7 +6822,7 @@
         <v>45484</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45117.39696759259</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>45002</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6998,7 +6998,7 @@
         <v>44902.40304398148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7055,7 +7055,7 @@
         <v>44468</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7112,7 +7112,7 @@
         <v>45419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45539.53746527778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45310.30798611111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7283,7 +7283,7 @@
         <v>45700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7345,7 +7345,7 @@
         <v>44861.47716435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7402,7 +7402,7 @@
         <v>45336</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7459,7 +7459,7 @@
         <v>45735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
         <v>45434</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7573,7 +7573,7 @@
         <v>45240.77920138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7630,7 +7630,7 @@
         <v>45300</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7687,7 +7687,7 @@
         <v>44760.47674768518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7744,7 +7744,7 @@
         <v>44998</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7806,7 +7806,7 @@
         <v>45096.58238425926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7863,7 +7863,7 @@
         <v>45460</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>45889.49049768518</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7982,7 +7982,7 @@
         <v>45152</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>45894</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>45894.36900462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>45665</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>45757</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>44924.77230324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>45441</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>45898.46057870371</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>45756.47972222222</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>45107.45405092592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>45229.34055555556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8609,7 +8609,7 @@
         <v>45904.36905092592</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8666,7 +8666,7 @@
         <v>45049</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8723,7 +8723,7 @@
         <v>45107.47733796296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8780,7 +8780,7 @@
         <v>45824.38387731482</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8837,7 +8837,7 @@
         <v>45824</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8894,7 +8894,7 @@
         <v>45825.46574074074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8951,7 +8951,7 @@
         <v>44289</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9008,7 +9008,7 @@
         <v>45915.59703703703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>45827</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>45708</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>45831.40098379629</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>45272.42737268518</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>45916.67107638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>44532</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>45831</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>45923.45925925926</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>45923.55923611111</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>45923.65232638889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>45923.67954861111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>45923.47619212963</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45635</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9816,7 +9816,7 @@
         <v>45923.48400462963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9873,7 +9873,7 @@
         <v>45923.58844907407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9930,7 +9930,7 @@
         <v>45910</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9987,7 +9987,7 @@
         <v>45070.57208333333</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10044,7 +10044,7 @@
         <v>45930.86842592592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10101,7 +10101,7 @@
         <v>45836.44756944444</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>44785</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10215,7 +10215,7 @@
         <v>45467</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10272,7 +10272,7 @@
         <v>45938</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>45938</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>45159</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10443,7 +10443,7 @@
         <v>45939.37804398148</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10500,7 +10500,7 @@
         <v>45700.6130787037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10557,7 +10557,7 @@
         <v>45217.46871527778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10614,7 +10614,7 @@
         <v>44795</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10671,7 +10671,7 @@
         <v>44635</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44831</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44797</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>45368.47725694445</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>45401</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10961,7 +10961,7 @@
         <v>45708</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11018,7 +11018,7 @@
         <v>45855</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11075,7 +11075,7 @@
         <v>45855</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11132,7 +11132,7 @@
         <v>44593</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11194,7 +11194,7 @@
         <v>45950</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11251,7 +11251,7 @@
         <v>45546</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11313,7 +11313,7 @@
         <v>45390</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11370,7 +11370,7 @@
         <v>45757.64024305555</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>45505</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>45956.7752662037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
         <v>45956.78072916667</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11598,7 +11598,7 @@
         <v>45512</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>45877</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11717,7 +11717,7 @@
         <v>45316.40590277778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11774,7 +11774,7 @@
         <v>45877</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11831,7 +11831,7 @@
         <v>45877</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11888,7 +11888,7 @@
         <v>45412</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11945,7 +11945,7 @@
         <v>45961.38152777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12002,7 +12002,7 @@
         <v>45961.385625</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12059,7 +12059,7 @@
         <v>45880</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>45350.63241898148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12173,7 +12173,7 @@
         <v>44845</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45329</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45229.33768518519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45881.89586805556</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>45245.54103009259</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45358.37327546296</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>45271</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>45271</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>45691</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>45329</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45272.54398148148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45510</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>44543.44349537037</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>45727</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>44823</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45986.64163194445</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13090,7 +13090,7 @@
         <v>46029.46965277778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13147,7 +13147,7 @@
         <v>45986.63916666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13204,7 +13204,7 @@
         <v>46024</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13261,7 +13261,7 @@
         <v>45343</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13318,7 +13318,7 @@
         <v>45896</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13375,7 +13375,7 @@
         <v>45896</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13432,7 +13432,7 @@
         <v>45011</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13489,7 +13489,7 @@
         <v>45762</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13546,7 +13546,7 @@
         <v>45992.37861111111</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13603,7 +13603,7 @@
         <v>45761.36483796296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13660,7 +13660,7 @@
         <v>45096.58590277778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>46037.53079861111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13774,7 +13774,7 @@
         <v>45153.55092592593</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>45999.38148148148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13888,7 +13888,7 @@
         <v>45356</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13945,7 +13945,7 @@
         <v>45706</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14007,7 +14007,7 @@
         <v>44924</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14064,7 +14064,7 @@
         <v>45441.59262731481</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14121,7 +14121,7 @@
         <v>45061</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14178,7 +14178,7 @@
         <v>46039.37369212963</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14235,7 +14235,7 @@
         <v>45996.47914351852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14292,7 +14292,7 @@
         <v>45427.76670138889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
         <v>44627.77988425926</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14406,7 +14406,7 @@
         <v>44753</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14468,7 +14468,7 @@
         <v>44998</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>45188.38348379629</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44432</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45272</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>45440</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14763,7 +14763,7 @@
         <v>44809.55424768518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14820,7 +14820,7 @@
         <v>46009</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14877,7 +14877,7 @@
         <v>44847.75081018519</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14934,7 +14934,7 @@
         <v>46009</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14991,7 +14991,7 @@
         <v>45989</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15048,7 +15048,7 @@
         <v>44956</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         <v>46009</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15162,7 +15162,7 @@
         <v>46009</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15219,7 +15219,7 @@
         <v>45240.78313657407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15276,7 +15276,7 @@
         <v>45615.49748842593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15333,7 +15333,7 @@
         <v>45665</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15390,7 +15390,7 @@
         <v>45664</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15447,7 +15447,7 @@
         <v>45391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15509,7 +15509,7 @@
         <v>45107</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15566,7 +15566,7 @@
         <v>44887</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15628,7 +15628,7 @@
         <v>45107</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15685,7 +15685,7 @@
         <v>45432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15747,7 +15747,7 @@
         <v>45408.59462962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15804,7 +15804,7 @@
         <v>44326.48232638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15861,7 +15861,7 @@
         <v>45685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15918,7 +15918,7 @@
         <v>44608.72004629629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         <v>45670</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>45378.63476851852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>45124</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16146,7 +16146,7 @@
         <v>45386.77172453704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16203,7 +16203,7 @@
         <v>45231</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16260,7 +16260,7 @@
         <v>45461</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16317,7 +16317,7 @@
         <v>45107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16374,7 +16374,7 @@
         <v>45377.54760416667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16431,7 +16431,7 @@
         <v>45377.55229166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16488,7 +16488,7 @@
         <v>45329</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16545,7 +16545,7 @@
         <v>45280</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16602,7 +16602,7 @@
         <v>45208.40232638889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16659,7 +16659,7 @@
         <v>45093.531875</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16716,7 +16716,7 @@
         <v>45411</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16773,7 +16773,7 @@
         <v>45089</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16830,7 +16830,7 @@
         <v>44517.6359837963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16887,7 +16887,7 @@
         <v>45450</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16949,7 +16949,7 @@
         <v>45350</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17006,7 +17006,7 @@
         <v>44326</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17063,7 +17063,7 @@
         <v>44907</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17120,7 +17120,7 @@
         <v>45769</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17177,7 +17177,7 @@
         <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17234,7 +17234,7 @@
         <v>45708</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17291,7 +17291,7 @@
         <v>44547</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17348,7 +17348,7 @@
         <v>45167.52609953703</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17405,7 +17405,7 @@
         <v>44806</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17462,7 +17462,7 @@
         <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17519,7 +17519,7 @@
         <v>44539</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17581,7 +17581,7 @@
         <v>45700</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17643,7 +17643,7 @@
         <v>45708</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17700,7 +17700,7 @@
         <v>44762.44436342592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17757,7 +17757,7 @@
         <v>45757.65053240741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17814,7 +17814,7 @@
         <v>45412</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17871,7 +17871,7 @@
         <v>44984.85623842593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17928,7 +17928,7 @@
         <v>45561</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17990,7 +17990,7 @@
         <v>45432</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18047,7 +18047,7 @@
         <v>45474</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18104,7 +18104,7 @@
         <v>44784</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18161,7 +18161,7 @@
         <v>45113</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18218,7 +18218,7 @@
         <v>45435</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18275,7 +18275,7 @@
         <v>44606.4540625</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18332,7 +18332,7 @@
         <v>45093.54527777778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45546.56068287037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45752.50203703704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18503,7 +18503,7 @@
         <v>45420</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18565,7 +18565,7 @@
         <v>45429.6306712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18622,7 +18622,7 @@
         <v>45681</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18684,7 +18684,7 @@
         <v>44509</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18741,7 +18741,7 @@
         <v>45329</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18798,7 +18798,7 @@
         <v>45153.55540509259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18855,7 +18855,7 @@
         <v>45448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18912,7 +18912,7 @@
         <v>45427</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45687</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45727</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>44412</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45484</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45776.61640046296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19321,7 +19321,7 @@
         <v>44977.38424768519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19378,7 +19378,7 @@
         <v>45729.5358912037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19435,7 +19435,7 @@
         <v>45785</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19492,7 +19492,7 @@
         <v>45787</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,14 +1284,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 15321-2023</t>
+          <t>A 30406-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45019</v>
+        <v>45827</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,17 +1304,17 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1338,220 +1338,219 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 40521-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45896</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 15321-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45019</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Vätteros</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 26662-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 40521-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45896</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23860-2023</t>
+          <t>A 37700-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45078</v>
+        <v>45880</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1564,7 +1563,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1573,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1588,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1598,35 +1597,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
         <v/>
       </c>
     </row>
@@ -1640,7 +1635,7 @@
         <v>45929</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,14 +1722,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 37700-2025</t>
+          <t>A 23860-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45880</v>
+        <v>45078</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1747,7 +1742,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1756,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1771,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1781,31 +1776,35 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
         <v/>
       </c>
     </row>
@@ -1819,7 +1818,7 @@
         <v>44517.63174768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1897,14 +1896,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 30406-2025</t>
+          <t>A 8363-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45827</v>
+        <v>45708</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1917,16 +1916,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1941,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1951,49 +1950,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mandelriska</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 8363-2025 artfynd.xlsx", "A 8363-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 8363-2025 karta.png", "A 8363-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 8363-2025 FSC-klagomål.docx", "A 8363-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 8363-2025 FSC-klagomål mail.docx", "A 8363-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 8363-2025 tillsynsbegäran.docx", "A 8363-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 8363-2025 tillsynsbegäran mail.docx", "A 8363-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 54042-2021</t>
+          <t>A 62973-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44470</v>
+        <v>46009</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2009,7 +2004,7 @@
         <v>7.8</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2040,219 +2035,223 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 35077-2024</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 35077-2024 artfynd.xlsx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 35077-2024 karta.png", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="U19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/knärot/A 35077-2024 karta knärot.png", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 35077-2024 FSC-klagomål.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 35077-2024 FSC-klagomål mail.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 35077-2024 tillsynsbegäran.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 35077-2024 tillsynsbegäran mail.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 54042-2021</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 62973-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>46009</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 8363-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45708</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Mandelriska</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 8363-2025 artfynd.xlsx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 8363-2025 karta.png", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 8363-2025 FSC-klagomål.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 8363-2025 FSC-klagomål mail.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 8363-2025 tillsynsbegäran.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 8363-2025 tillsynsbegäran mail.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 35077-2024</t>
+          <t>A 26662-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45527</v>
+        <v>45810</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2264,20 +2263,25 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2292,56 +2296,52 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>1</v>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsklocka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 35077-2024 artfynd.xlsx", "A 35077-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 35077-2024 karta.png", "A 35077-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/knärot/A 35077-2024 karta knärot.png", "A 35077-2024")</f>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 35077-2024 FSC-klagomål.docx", "A 35077-2024")</f>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 35077-2024 FSC-klagomål mail.docx", "A 35077-2024")</f>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 35077-2024 tillsynsbegäran.docx", "A 35077-2024")</f>
-        <v/>
-      </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 35077-2024 tillsynsbegäran mail.docx", "A 35077-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
         <v/>
       </c>
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 43244-2021</t>
+          <t>A 45960-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44432</v>
+        <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.1</v>
+        <v>13.6</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2391,14 +2391,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 7589-2022</t>
+          <t>A 43244-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44607.63090277778</v>
+        <v>44432</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2448,14 +2448,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 45960-2021</t>
+          <t>A 7589-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44441</v>
+        <v>44607.63090277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>13.6</v>
+        <v>4.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44795</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2852,14 +2852,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 71903-2021</t>
+          <t>A 32443-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44543</v>
+        <v>44782</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6.3</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2909,14 +2909,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 32443-2022</t>
+          <t>A 71903-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44782</v>
+        <v>44543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3080,14 +3080,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 45052-2021</t>
+          <t>A 59863-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44439</v>
+        <v>44494</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3137,14 +3137,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 59863-2021</t>
+          <t>A 30478-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44494</v>
+        <v>44364</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3194,14 +3194,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 30478-2021</t>
+          <t>A 45052-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44364</v>
+        <v>44439</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3251,14 +3251,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 23332-2021</t>
+          <t>A 15701-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44328</v>
+        <v>44286</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3308,14 +3308,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 45384-2022</t>
+          <t>A 23332-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44844</v>
+        <v>44328</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3365,14 +3365,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 15701-2021</t>
+          <t>A 45384-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44286</v>
+        <v>44844</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3593,14 +3593,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 25970-2022</t>
+          <t>A 18791-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44734</v>
+        <v>44690</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3612,8 +3612,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3650,14 +3655,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 18791-2022</t>
+          <t>A 13140-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44690</v>
+        <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3669,13 +3674,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13140-2021</t>
+          <t>A 25970-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44271</v>
+        <v>44734</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>44694.44246527777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3940,14 +3940,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 31488-2021</t>
+          <t>A 16467-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3997,14 +3997,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 16467-2021</t>
+          <t>A 31488-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44292</v>
+        <v>44369</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>44467.47119212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4168,14 +4168,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59760-2021</t>
+          <t>A 61306-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44494.45789351852</v>
+        <v>44498</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4225,14 +4225,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 61306-2021</t>
+          <t>A 59760-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44498</v>
+        <v>44494.45789351852</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44267</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44762.46194444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>44620</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44627</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44258</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4805,14 +4805,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43960-2021</t>
+          <t>A 11103-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44434</v>
+        <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4862,14 +4862,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11103-2022</t>
+          <t>A 43960-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44628</v>
+        <v>44434</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>44735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44882.59195601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44649.65836805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44806</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44494.44803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44753</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44238</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44732</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44577.00778935185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5506,7 +5506,7 @@
         <v>44460</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44498.66922453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44292</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5732,14 +5732,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19508-2021</t>
+          <t>A 41810-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44312.36194444444</v>
+        <v>44425</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5789,14 +5789,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30334-2022</t>
+          <t>A 73306-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44760.46356481482</v>
+        <v>44547</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5846,14 +5846,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41810-2021</t>
+          <t>A 19508-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44425</v>
+        <v>44312.36194444444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5903,14 +5903,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 73306-2021</t>
+          <t>A 30334-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44547</v>
+        <v>44760.46356481482</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5841-2022</t>
+          <t>A 37339-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44596.6127662037</v>
+        <v>44806</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6017,14 +6017,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5126-2023</t>
+          <t>A 12311-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44958</v>
+        <v>45378.63476851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>14.3</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5025-2023</t>
+          <t>A 15545-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44958.56039351852</v>
+        <v>45401</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6093,8 +6093,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6131,14 +6136,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 73901-2021</t>
+          <t>A 37486-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44552</v>
+        <v>44809.55424768518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6156,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6188,14 +6193,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28228-2024</t>
+          <t>A 10647-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45477</v>
+        <v>45368.47725694445</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6213,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6245,14 +6250,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 73033-2021</t>
+          <t>A 20238-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44550</v>
+        <v>45434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6270,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6302,14 +6307,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 13382-2024</t>
+          <t>A 21528-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45387</v>
+        <v>45441.59262731481</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6322,7 +6327,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6359,14 +6364,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17437-2025</t>
+          <t>A 42557-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45757</v>
+        <v>44831</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6379,7 +6384,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>13.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6416,14 +6421,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 17443-2025</t>
+          <t>A 23189-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45757.43275462963</v>
+        <v>45450</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6435,8 +6440,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6473,14 +6483,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 57236-2023</t>
+          <t>A 19053-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45245.54427083334</v>
+        <v>45427</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6493,7 +6503,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6530,14 +6540,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 57237-2023</t>
+          <t>A 24543-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45245</v>
+        <v>45460</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6549,8 +6559,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>18.2</v>
+        <v>5.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6587,14 +6602,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 5810-2023</t>
+          <t>A 13382-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44963.48369212963</v>
+        <v>45387</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6607,7 +6622,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6644,14 +6659,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 47152-2023</t>
+          <t>A 21311-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45201</v>
+        <v>45440</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6663,8 +6678,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6701,14 +6721,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26840-2023</t>
+          <t>A 32302-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45093.5540625</v>
+        <v>45512</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6720,8 +6740,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6758,14 +6783,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18341-2025</t>
+          <t>A 28228-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45762.51554398148</v>
+        <v>45477</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6778,7 +6803,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6815,14 +6840,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29582-2024</t>
+          <t>A 22289-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45484</v>
+        <v>44326</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6834,13 +6859,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6877,14 +6897,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 31561-2023</t>
+          <t>A 25840-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45117.39696759259</v>
+        <v>45467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6897,7 +6917,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6934,14 +6954,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13121-2023</t>
+          <t>A 25014-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45002</v>
+        <v>45461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6954,7 +6974,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.6</v>
+        <v>12.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6991,14 +7011,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58514-2022</t>
+          <t>A 17081-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44902.40304398148</v>
+        <v>45412</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7011,7 +7031,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7048,14 +7068,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 53209-2021</t>
+          <t>A 62682-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44468</v>
+        <v>45271</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7088,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>11.6</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7105,14 +7125,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 17910-2024</t>
+          <t>A 53209-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45419</v>
+        <v>44468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7125,7 +7145,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.8</v>
+        <v>11.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7162,14 +7182,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37119-2024</t>
+          <t>A 73310-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45539.53746527778</v>
+        <v>44547</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7182,7 +7202,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7219,14 +7239,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 2253-2024</t>
+          <t>A 45467-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45310.30798611111</v>
+        <v>44845</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7239,7 +7259,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7276,14 +7296,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 6721-2025</t>
+          <t>A 58705-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45700</v>
+        <v>45635</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7301,7 +7321,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7338,14 +7358,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 49300-2022</t>
+          <t>A 12416-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44861.47716435185</v>
+        <v>44998</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,8 +7377,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7395,14 +7420,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5957-2024</t>
+          <t>A 56552-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45336</v>
+        <v>44887</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,8 +7439,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7452,14 +7482,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13289-2025</t>
+          <t>A 36644-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45735</v>
+        <v>45153.55092592593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7472,7 +7502,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7509,14 +7539,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20238-2024</t>
+          <t>A 7922-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45434</v>
+        <v>44608.72004629629</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7529,7 +7559,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7566,14 +7596,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 56219-2023</t>
+          <t>A 62905-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45240.77920138889</v>
+        <v>45272</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7586,7 +7616,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>13.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7623,14 +7653,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 680-2024</t>
+          <t>A 5126-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45300</v>
+        <v>44958</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7673,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>14.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7680,14 +7710,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 30339-2022</t>
+          <t>A 41878-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44760.47674768518</v>
+        <v>45561</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7699,8 +7729,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>5.3</v>
+        <v>15.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7737,14 +7772,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 12350-2023</t>
+          <t>A 10892-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44998</v>
+        <v>44627.77988425926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7754,11 +7789,6 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -7799,14 +7829,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 27218-2023</t>
+          <t>A 31362-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45096.58238425926</v>
+        <v>45505</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7819,7 +7849,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7856,14 +7886,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 24543-2024</t>
+          <t>A 17122-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45460</v>
+        <v>45412</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7875,13 +7905,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7918,14 +7943,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39334-2025</t>
+          <t>A 29260-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45889.49049768518</v>
+        <v>45824</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7938,7 +7963,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7975,14 +8000,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36420-2023</t>
+          <t>A 29256-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45152</v>
+        <v>45824.38387731482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7995,7 +8020,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8032,14 +8057,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 40029-2025</t>
+          <t>A 62557-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45894</v>
+        <v>44924.77230324074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8077,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8089,14 +8114,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 40027-2025</t>
+          <t>A 7991-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45894.36900462963</v>
+        <v>45350</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8109,7 +8134,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8146,14 +8171,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 975-2025</t>
+          <t>A 29645-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45665</v>
+        <v>45825.46574074074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8166,7 +8191,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8203,14 +8228,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 17399-2025</t>
+          <t>A 30411-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45757</v>
+        <v>45827</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8223,7 +8248,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8260,14 +8285,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62557-2022</t>
+          <t>A 30563-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44924.77230324074</v>
+        <v>45831.40098379629</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8280,7 +8305,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8317,14 +8342,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 21402-2024</t>
+          <t>A 5810-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45441</v>
+        <v>44963.48369212963</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8337,7 +8362,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8374,14 +8399,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 41113-2025</t>
+          <t>A 31190-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45898.46057870371</v>
+        <v>45831</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8394,7 +8419,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8431,14 +8456,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 17239-2025</t>
+          <t>A 43242-2021</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45756.47972222222</v>
+        <v>44432</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8451,7 +8476,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8488,14 +8513,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29736-2023</t>
+          <t>A 5236-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45107.45405092592</v>
+        <v>44956</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8508,7 +8533,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8545,14 +8570,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 53138-2023</t>
+          <t>A 19524-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45229.34055555556</v>
+        <v>45429.6306712963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8565,7 +8590,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8602,14 +8627,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 42143-2025</t>
+          <t>A 39334-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45904.36905092592</v>
+        <v>45889.49049768518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8622,7 +8647,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8659,14 +8684,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 19566-2023</t>
+          <t>A 32327-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45049</v>
+        <v>45836.44756944444</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8679,7 +8704,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8716,14 +8741,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 29762-2023</t>
+          <t>A 62947-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45107.47733796296</v>
+        <v>45272.54398148148</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8736,7 +8761,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8773,14 +8798,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29256-2025</t>
+          <t>A 12350-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45824.38387731482</v>
+        <v>44998</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8792,8 +8817,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8830,14 +8860,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29260-2025</t>
+          <t>A 40027-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45824</v>
+        <v>45894.36900462963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8850,7 +8880,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8887,14 +8917,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 29645-2025</t>
+          <t>A 40029-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45825.46574074074</v>
+        <v>45894</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8907,7 +8937,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8944,14 +8974,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 16092-2021</t>
+          <t>A 7993-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44289</v>
+        <v>45350.63241898148</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8964,7 +8994,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9001,14 +9031,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44160-2025</t>
+          <t>A 33081-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45915.59703703703</v>
+        <v>44785</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9020,13 +9050,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>9.699999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9063,14 +9088,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 30411-2025</t>
+          <t>A 17239-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45827</v>
+        <v>45756.47972222222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9108,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9120,14 +9145,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 8364-2025</t>
+          <t>A 8359-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
         <v>45708</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9165,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9177,14 +9202,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 30563-2025</t>
+          <t>A 41113-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45831.40098379629</v>
+        <v>45898.46057870371</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9222,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9234,14 +9259,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 62896-2023</t>
+          <t>A 29762-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45272.42737268518</v>
+        <v>45107.47733796296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9279,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>13.8</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9291,14 +9316,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 44497-2025</t>
+          <t>A 35425-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45916.67107638889</v>
+        <v>45855</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9336,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9348,14 +9373,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 69847-2021</t>
+          <t>A 35426-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44532</v>
+        <v>45855</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9393,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9405,14 +9430,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 31190-2025</t>
+          <t>A 42143-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45831</v>
+        <v>45904.36905092592</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9450,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9462,14 +9487,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 45728-2025</t>
+          <t>A 38582-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45923.45925925926</v>
+        <v>45546</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9481,8 +9506,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9519,14 +9549,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 45784-2025</t>
+          <t>A 29736-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45923.55923611111</v>
+        <v>45107.45405092592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9569,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9576,14 +9606,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45868-2025</t>
+          <t>A 19052-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45923.65232638889</v>
+        <v>45427.76670138889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9626,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>7.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9633,14 +9663,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 45898-2025</t>
+          <t>A 50640-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45923.67954861111</v>
+        <v>45217.46871527778</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9690,14 +9720,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 45744-2025</t>
+          <t>A 17910-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45923.47619212963</v>
+        <v>45419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9740,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.8</v>
+        <v>6.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9747,14 +9777,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58705-2024</t>
+          <t>A 22319-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45635</v>
+        <v>44326.48232638889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9766,13 +9796,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9809,14 +9834,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 45750-2025</t>
+          <t>A 44497-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45923.48400462963</v>
+        <v>45916.67107638889</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9829,7 +9854,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9866,14 +9891,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 45812-2025</t>
+          <t>A 8361-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45923.58844907407</v>
+        <v>45708</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9886,7 +9911,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9923,14 +9948,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 43243-2025</t>
+          <t>A 11597-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45910</v>
+        <v>45727</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9943,7 +9968,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9980,14 +10005,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 22347-2023</t>
+          <t>A 44160-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45070.57208333333</v>
+        <v>45915.59703703703</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9999,8 +10024,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10037,14 +10067,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 47507-2025</t>
+          <t>A 31964-2023</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45930.86842592592</v>
+        <v>45107</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10057,7 +10087,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10094,14 +10124,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 32327-2025</t>
+          <t>A 35253-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45836.44756944444</v>
+        <v>44797</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10114,7 +10144,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10151,14 +10181,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33081-2022</t>
+          <t>A 37696-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44785</v>
+        <v>45880</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10171,7 +10201,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10208,14 +10238,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 25840-2024</t>
+          <t>A 37517-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45467</v>
+        <v>45877</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10228,7 +10258,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10265,14 +10295,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 49422-2025</t>
+          <t>A 37515-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45938</v>
+        <v>45877</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10285,7 +10315,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10322,14 +10352,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49425-2025</t>
+          <t>A 37495-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45938</v>
+        <v>45877</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10342,7 +10372,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10379,14 +10409,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 37676-2023</t>
+          <t>A 29426-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45159</v>
+        <v>44753</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10398,8 +10428,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>0.5</v>
+        <v>14.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10436,14 +10471,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 49507-2025</t>
+          <t>A 38002-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45939.37804398148</v>
+        <v>45881.89586805556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10456,7 +10491,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10493,14 +10528,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 6751-2025</t>
+          <t>A 45868-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45700.6130787037</v>
+        <v>45923.65232638889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10513,7 +10548,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10550,14 +10585,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50640-2023</t>
+          <t>A 45812-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45217.46871527778</v>
+        <v>45923.58844907407</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10570,7 +10605,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10607,14 +10642,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 34580-2022</t>
+          <t>A 43243-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44795</v>
+        <v>45910</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10664,14 +10699,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 12000-2022</t>
+          <t>A 30339-2022</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44635</v>
+        <v>44760.47674768518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10684,7 +10719,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10721,14 +10756,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 42557-2022</t>
+          <t>A 45784-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44831</v>
+        <v>45923.55923611111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10741,7 +10776,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>13.7</v>
+        <v>4.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10778,14 +10813,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35253-2022</t>
+          <t>A 45728-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44797</v>
+        <v>45923.45925925926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10798,7 +10833,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10835,14 +10870,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 10647-2024</t>
+          <t>A 45898-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45368.47725694445</v>
+        <v>45923.67954861111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10855,7 +10890,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10892,14 +10927,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 15545-2024</t>
+          <t>A 45750-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45401</v>
+        <v>45923.48400462963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10911,13 +10946,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10954,14 +10984,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8359-2025</t>
+          <t>A 45744-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45708</v>
+        <v>45923.47619212963</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10974,7 +11004,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11011,14 +11041,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35426-2025</t>
+          <t>A 6751-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45855</v>
+        <v>45700.6130787037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11031,7 +11061,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11068,14 +11098,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 35425-2025</t>
+          <t>A 975-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45855</v>
+        <v>45665</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11088,7 +11118,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11125,14 +11155,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 5280-2022</t>
+          <t>A 63919-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44593</v>
+        <v>44509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11144,13 +11174,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>37.1</v>
+        <v>5.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11187,14 +11212,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 51509-2025</t>
+          <t>A 9144-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45950</v>
+        <v>45358.37327546296</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11207,7 +11232,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11244,14 +11269,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 38582-2024</t>
+          <t>A 47507-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45546</v>
+        <v>45930.86842592592</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11263,13 +11288,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>5.7</v>
+        <v>2.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11306,14 +11326,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 13820-2024</t>
+          <t>A 13121-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45390</v>
+        <v>45002</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11326,7 +11346,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11363,14 +11383,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 17565-2025</t>
+          <t>A 49425-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45757.64024305555</v>
+        <v>45938</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11403,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11420,14 +11440,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 31362-2024</t>
+          <t>A 6713-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45505</v>
+        <v>45700</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11439,8 +11459,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11477,14 +11502,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 52699-2025</t>
+          <t>A 49422-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45956.7752662037</v>
+        <v>45938</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11497,7 +11522,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11534,14 +11559,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 52700-2025</t>
+          <t>A 49507-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45956.78072916667</v>
+        <v>45939.37804398148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11554,7 +11579,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>5.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11591,14 +11616,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 32302-2024</t>
+          <t>A 33948-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45512</v>
+        <v>45124</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11610,13 +11635,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11653,14 +11673,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 37515-2025</t>
+          <t>A 27222-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45877</v>
+        <v>45096.58590277778</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11673,7 +11693,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11710,14 +11730,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 3065-2024</t>
+          <t>A 17972-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45316.40590277778</v>
+        <v>45761.36483796296</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11730,7 +11750,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11767,14 +11787,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 37495-2025</t>
+          <t>A 62896-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45877</v>
+        <v>45272.42737268518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11787,7 +11807,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.9</v>
+        <v>13.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11824,14 +11844,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 37517-2025</t>
+          <t>A 6938-2024</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45877</v>
+        <v>45343</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11844,7 +11864,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11881,14 +11901,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 17081-2024</t>
+          <t>A 51509-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45412</v>
+        <v>45950</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11901,7 +11921,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11938,14 +11958,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 53863-2025</t>
+          <t>A 26829-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45961.38152777778</v>
+        <v>45093.54527777778</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11958,7 +11978,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11995,14 +12015,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 53866-2025</t>
+          <t>A 13895-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45961.385625</v>
+        <v>45391</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12014,8 +12034,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>2.2</v>
+        <v>3.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12052,14 +12077,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 37696-2025</t>
+          <t>A 26815-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45880</v>
+        <v>45093.531875</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12072,7 +12097,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12109,14 +12134,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 7993-2024</t>
+          <t>A 17565-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45350.63241898148</v>
+        <v>45757.64024305555</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12129,7 +12154,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12166,14 +12191,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 45467-2022</t>
+          <t>A 25443-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44845</v>
+        <v>45089</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12186,7 +12211,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12223,14 +12248,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 5011-2024</t>
+          <t>A 14306-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45329</v>
+        <v>45011</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12243,7 +12268,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>22</v>
+        <v>4.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12280,14 +12305,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 53137-2023</t>
+          <t>A 52700-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45229.33768518519</v>
+        <v>45956.78072916667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12300,7 +12325,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12337,14 +12362,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 38002-2025</t>
+          <t>A 52699-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45881.89586805556</v>
+        <v>45956.7752662037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12357,7 +12382,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12394,14 +12419,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 57233-2023</t>
+          <t>A 5025-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45245.54103009259</v>
+        <v>44958.56039351852</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12414,7 +12439,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12451,14 +12476,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 9144-2024</t>
+          <t>A 31974-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45358.37327546296</v>
+        <v>45107</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12471,7 +12496,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12508,14 +12533,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 62675-2023</t>
+          <t>A 5957-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45271</v>
+        <v>45336</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12528,7 +12553,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12565,14 +12590,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62682-2023</t>
+          <t>A 53866-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45271</v>
+        <v>45961.385625</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12585,7 +12610,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12622,14 +12647,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 5214-2025</t>
+          <t>A 53863-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45691</v>
+        <v>45961.38152777778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12642,7 +12667,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12679,14 +12704,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 4982-2024</t>
+          <t>A 2253-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45329</v>
+        <v>45310.30798611111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12699,7 +12724,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12736,14 +12761,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 62947-2023</t>
+          <t>A 4870-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45272.54398148148</v>
+        <v>45329</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12756,7 +12781,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.7</v>
+        <v>8.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12793,14 +12818,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 31930-2024</t>
+          <t>A 69847-2021</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45510</v>
+        <v>44532</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12813,7 +12838,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12850,14 +12875,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 71706-2021</t>
+          <t>A 58514-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44543.44349537037</v>
+        <v>44902.40304398148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12870,7 +12895,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12907,14 +12932,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 11597-2025</t>
+          <t>A 71706-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45727</v>
+        <v>44543.44349537037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12927,7 +12952,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12964,14 +12989,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 40935-2022</t>
+          <t>A 39145-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44823</v>
+        <v>44412</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12983,13 +13008,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G207" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13026,14 +13046,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 58751-2025</t>
+          <t>A 47152-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45986.64163194445</v>
+        <v>45201</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13046,7 +13066,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13083,14 +13103,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 567-2026</t>
+          <t>A 53755-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46029.46965277778</v>
+        <v>45615.49748842593</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13103,7 +13123,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13140,14 +13160,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 58747-2025</t>
+          <t>A 53138-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45986.63916666667</v>
+        <v>45229.34055555556</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13160,7 +13180,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13197,14 +13217,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 614-2026</t>
+          <t>A 16772-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46024</v>
+        <v>45411</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13217,7 +13237,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.3</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13254,14 +13274,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 6938-2024</t>
+          <t>A 39635-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45343</v>
+        <v>45167.52609953703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13274,7 +13294,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13311,14 +13331,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 40522-2025</t>
+          <t>A 66056-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45896</v>
+        <v>44517.6359837963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13331,7 +13351,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13368,14 +13388,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 40524-2025</t>
+          <t>A 16574-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45896</v>
+        <v>45752.50203703704</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13388,7 +13408,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13425,14 +13445,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 14306-2023</t>
+          <t>A 3065-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45011</v>
+        <v>45316.40590277778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13445,7 +13465,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13482,14 +13502,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 18321-2025</t>
+          <t>A 58747-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45762</v>
+        <v>45986.63916666667</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13502,7 +13522,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13539,14 +13559,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 59617-2025</t>
+          <t>A 12082-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45992.37861111111</v>
+        <v>45377.54760416667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13559,7 +13579,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13596,14 +13616,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 17972-2025</t>
+          <t>A 12084-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45761.36483796296</v>
+        <v>45377.55229166667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13616,7 +13636,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13653,14 +13673,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 27222-2023</t>
+          <t>A 58751-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45096.58590277778</v>
+        <v>45986.64163194445</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13673,7 +13693,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13710,14 +13730,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 2581-2026</t>
+          <t>A 20954-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46037.53079861111</v>
+        <v>45061</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13730,7 +13750,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13767,14 +13787,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 36644-2023</t>
+          <t>A 17443-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45153.55092592593</v>
+        <v>45757.43275462963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13787,7 +13807,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13824,14 +13844,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 60752-2025</t>
+          <t>A 567-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45999.38148148148</v>
+        <v>46029.46965277778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13844,7 +13864,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13881,14 +13901,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 8788-2024</t>
+          <t>A 614-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45356</v>
+        <v>46024</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13901,7 +13921,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13938,14 +13958,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 7931-2025</t>
+          <t>A 59617-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45706</v>
+        <v>45992.37861111111</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13957,13 +13977,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G224" t="n">
-        <v>13.8</v>
+        <v>1.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14000,14 +14015,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 62554-2022</t>
+          <t>A 40522-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44924</v>
+        <v>45896</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14020,7 +14035,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14057,14 +14072,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 21528-2024</t>
+          <t>A 40524-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45441.59262731481</v>
+        <v>45896</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14114,14 +14129,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 20954-2023</t>
+          <t>A 20369-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45061</v>
+        <v>45435</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14134,7 +14149,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14171,14 +14186,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 3054-2026</t>
+          <t>A 11601-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46039.37369212963</v>
+        <v>45727</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14191,7 +14206,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14228,14 +14243,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 60656-2025</t>
+          <t>A 4976-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45996.47914351852</v>
+        <v>45329</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14248,7 +14263,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.5</v>
+        <v>5.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14285,14 +14300,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 19052-2024</t>
+          <t>A 12175-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45427.76670138889</v>
+        <v>45377</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14305,7 +14320,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>7.7</v>
+        <v>5.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14342,14 +14357,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 10892-2022</t>
+          <t>A 30527-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44627.77988425926</v>
+        <v>44762.44436342592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14362,7 +14377,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14399,14 +14414,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 29426-2022</t>
+          <t>A 60656-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44753</v>
+        <v>45996.47914351852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14418,13 +14433,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G232" t="n">
-        <v>14.4</v>
+        <v>2.5</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14461,14 +14471,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 12416-2023</t>
+          <t>A 22347-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44998</v>
+        <v>45070.57208333333</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14480,13 +14490,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14523,14 +14528,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 44048-2023</t>
+          <t>A 2581-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45188.38348379629</v>
+        <v>46037.53079861111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14543,7 +14548,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14580,14 +14585,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 43242-2021</t>
+          <t>A 4603-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44432</v>
+        <v>45687</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14599,8 +14604,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14637,14 +14647,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 62905-2023</t>
+          <t>A 60752-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45272</v>
+        <v>45999.38148148148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14657,7 +14667,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>13.8</v>
+        <v>1.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14694,14 +14704,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 21311-2024</t>
+          <t>A 4273-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45440</v>
+        <v>45685</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14713,13 +14723,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>4.3</v>
+        <v>1.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14756,14 +14761,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 37486-2022</t>
+          <t>A 56220-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44809.55424768518</v>
+        <v>45240.78313657407</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14776,7 +14781,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>8.6</v>
+        <v>0.7</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14813,14 +14818,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 62967-2025</t>
+          <t>A 56219-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46009</v>
+        <v>45240.77920138889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14833,7 +14838,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14870,14 +14875,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 46299-2022</t>
+          <t>A 6721-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44847.75081018519</v>
+        <v>45700</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,8 +14894,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14927,14 +14937,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 62941-2025</t>
+          <t>A 3054-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46009</v>
+        <v>46039.37369212963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14947,7 +14957,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14984,14 +14994,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 59391-2025</t>
+          <t>A 17437-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45989</v>
+        <v>45757</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15004,7 +15014,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15041,14 +15051,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 5236-2023</t>
+          <t>A 5841-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44956</v>
+        <v>44596.6127662037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15061,7 +15071,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15098,14 +15108,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 62955-2025</t>
+          <t>A 12000-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46009</v>
+        <v>44635</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15118,7 +15128,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15155,14 +15165,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 63063-2025</t>
+          <t>A 40935-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46009</v>
+        <v>44823</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,8 +15184,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G245" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15212,14 +15227,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 56220-2023</t>
+          <t>A 36646-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45240.78313657407</v>
+        <v>45153.55540509259</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15232,7 +15247,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15269,14 +15284,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 53755-2024</t>
+          <t>A 3779-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45615.49748842593</v>
+        <v>45681</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,8 +15303,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>BillerudKorsnäs AB</t>
+        </is>
+      </c>
       <c r="G247" t="n">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15326,14 +15346,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 972-2025</t>
+          <t>A 29724-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45665</v>
+        <v>45107</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15366,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15383,14 +15403,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 909-2025</t>
+          <t>A 8362-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45664</v>
+        <v>45708</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15423,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>4.5</v>
+        <v>7.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15440,14 +15460,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 13895-2024</t>
+          <t>A 972-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45391</v>
+        <v>45665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,13 +15479,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15502,14 +15517,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 29724-2023</t>
+          <t>A 49300-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45107</v>
+        <v>44861.47716435185</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15522,7 +15537,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15559,14 +15574,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 56552-2022</t>
+          <t>A 16635-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44887</v>
+        <v>45408.59462962963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15578,13 +15593,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15621,14 +15631,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 31974-2023</t>
+          <t>A 37676-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45107</v>
+        <v>45159</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15641,7 +15651,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15678,14 +15688,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 19802-2024</t>
+          <t>A 63063-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45432</v>
+        <v>46009</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15697,13 +15707,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15740,14 +15745,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 16635-2024</t>
+          <t>A 62967-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45408.59462962963</v>
+        <v>46009</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15760,7 +15765,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15797,14 +15802,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 22319-2021</t>
+          <t>A 62941-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44326.48232638889</v>
+        <v>46009</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15817,7 +15822,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15854,14 +15859,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 4273-2025</t>
+          <t>A 53137-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45685</v>
+        <v>45229.33768518519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15874,7 +15879,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15911,14 +15916,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 7922-2022</t>
+          <t>A 8788-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44608.72004629629</v>
+        <v>45356</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15931,7 +15936,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15968,14 +15973,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 1556-2025</t>
+          <t>A 680-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45670</v>
+        <v>45300</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15988,7 +15993,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16025,14 +16030,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 12311-2024</t>
+          <t>A 62955-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45378.63476851852</v>
+        <v>46009</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16045,7 +16050,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16082,14 +16087,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 33948-2023</t>
+          <t>A 46299-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45124</v>
+        <v>44847.75081018519</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16102,7 +16107,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16139,14 +16144,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 13320-2024</t>
+          <t>A 62554-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45386.77172453704</v>
+        <v>44924</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16159,7 +16164,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16196,14 +16201,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 55227-2023</t>
+          <t>A 59391-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45231</v>
+        <v>45989</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16216,7 +16221,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16253,14 +16258,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 25014-2024</t>
+          <t>A 57236-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45461</v>
+        <v>45245.54427083334</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16273,7 +16278,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>12.8</v>
+        <v>1.9</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16310,14 +16315,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 31964-2023</t>
+          <t>A 57237-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45107</v>
+        <v>45245</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16330,7 +16335,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.3</v>
+        <v>18.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16367,14 +16372,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 12082-2024</t>
+          <t>A 5280-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45377.54760416667</v>
+        <v>44593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16386,8 +16391,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G266" t="n">
-        <v>1.2</v>
+        <v>37.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16424,14 +16434,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 12084-2024</t>
+          <t>A 29577-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45377.55229166667</v>
+        <v>45484</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16443,8 +16453,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G267" t="n">
-        <v>1.1</v>
+        <v>10.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16481,14 +16496,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 4976-2024</t>
+          <t>A 27443-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45329</v>
+        <v>45474</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16501,7 +16516,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16538,14 +16553,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 64304-2023</t>
+          <t>A 32959-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45280</v>
+        <v>44784</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16558,7 +16573,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16595,14 +16610,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 48553-2023</t>
+          <t>A 13320-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45208.40232638889</v>
+        <v>45386.77172453704</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16615,7 +16630,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.7</v>
+        <v>6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16652,14 +16667,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 26815-2023</t>
+          <t>A 38517-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45093.531875</v>
+        <v>45546.56068287037</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16672,7 +16687,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16709,14 +16724,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 16772-2024</t>
+          <t>A 19155-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45411</v>
+        <v>45769</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16729,7 +16744,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16766,14 +16781,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 25443-2023</t>
+          <t>A 37119-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45089</v>
+        <v>45539.53746527778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16786,7 +16801,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.8</v>
+        <v>6.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16823,14 +16838,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 66056-2021</t>
+          <t>A 56386-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44517.6359837963</v>
+        <v>44890</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16843,7 +16858,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16880,14 +16895,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 23189-2024</t>
+          <t>A 19802-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45450</v>
+        <v>45432</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16905,7 +16920,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16942,14 +16957,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 7991-2024</t>
+          <t>A 34580-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45350</v>
+        <v>44795</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16962,7 +16977,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16999,14 +17014,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 22289-2021</t>
+          <t>A 19566-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44326</v>
+        <v>45049</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17019,7 +17034,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17056,14 +17071,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 59542-2022</t>
+          <t>A 7272-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44907</v>
+        <v>44606.4540625</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17076,7 +17091,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17113,14 +17128,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 19155-2025</t>
+          <t>A 22822-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45769</v>
+        <v>45448</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17133,7 +17148,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17170,14 +17185,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 52848-2021</t>
+          <t>A 59542-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44467</v>
+        <v>44907</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17190,7 +17205,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17227,14 +17242,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 8361-2025</t>
+          <t>A 21402-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45708</v>
+        <v>45441</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17247,7 +17262,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17284,14 +17299,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 73310-2021</t>
+          <t>A 16092-2021</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44547</v>
+        <v>44289</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17304,7 +17319,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>6.2</v>
+        <v>0.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17341,14 +17356,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 39635-2023</t>
+          <t>A 57233-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45167.52609953703</v>
+        <v>45245.54103009259</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17361,7 +17376,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17398,14 +17413,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 37339-2022</t>
+          <t>A 71781-2021</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44806</v>
+        <v>44539</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17417,8 +17432,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G284" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17455,14 +17475,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 56386-2022</t>
+          <t>A 31930-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44890</v>
+        <v>45510</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17475,7 +17495,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17512,14 +17532,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 71781-2021</t>
+          <t>A 73901-2021</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44539</v>
+        <v>44552</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17531,13 +17551,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G286" t="n">
-        <v>7</v>
+        <v>1.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17574,14 +17589,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 6713-2025</t>
+          <t>A 5214-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45700</v>
+        <v>45691</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17593,13 +17608,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G287" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17636,14 +17646,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 8362-2025</t>
+          <t>A 26840-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45708</v>
+        <v>45093.5540625</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17656,7 +17666,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>7.7</v>
+        <v>1.1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17693,14 +17703,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 30527-2022</t>
+          <t>A 13820-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44762.44436342592</v>
+        <v>45390</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17713,7 +17723,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>3.1</v>
+        <v>7.2</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17750,14 +17760,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 17573-2025</t>
+          <t>A 5011-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45757.65053240741</v>
+        <v>45329</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17770,7 +17780,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.7</v>
+        <v>22</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17807,14 +17817,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 17122-2024</t>
+          <t>A 18341-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45412</v>
+        <v>45762.51554398148</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17827,7 +17837,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17864,14 +17874,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 9837-2023</t>
+          <t>A 52848-2021</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44984.85623842593</v>
+        <v>44467</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17884,7 +17894,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17921,14 +17931,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 41878-2024</t>
+          <t>A 19753-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45561</v>
+        <v>45432</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17940,13 +17950,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G293" t="n">
-        <v>15.9</v>
+        <v>1.5</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17983,14 +17988,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 19753-2024</t>
+          <t>A 4982-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45432</v>
+        <v>45329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18003,7 +18008,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18040,14 +18045,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 27443-2024</t>
+          <t>A 18321-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45474</v>
+        <v>45762</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18060,7 +18065,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18097,14 +18102,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 32959-2022</t>
+          <t>A 18184-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44784</v>
+        <v>45420</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18116,8 +18121,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G296" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18154,14 +18164,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 30914-2023</t>
+          <t>A 55227-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45113</v>
+        <v>45231</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18174,7 +18184,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18211,14 +18221,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 20369-2024</t>
+          <t>A 9837-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45435</v>
+        <v>44984.85623842593</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18231,7 +18241,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18268,14 +18278,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 7272-2022</t>
+          <t>A 7931-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44606.4540625</v>
+        <v>45706</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18287,8 +18297,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G299" t="n">
-        <v>1.4</v>
+        <v>13.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18325,14 +18340,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 26829-2023</t>
+          <t>A 1556-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45093.54527777778</v>
+        <v>45670</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18345,7 +18360,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18382,14 +18397,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 38517-2024</t>
+          <t>A 73033-2021</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45546.56068287037</v>
+        <v>44550</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18402,7 +18417,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18439,14 +18454,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 16574-2025</t>
+          <t>A 909-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45752.50203703704</v>
+        <v>45664</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18459,7 +18474,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18496,14 +18511,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 18184-2024</t>
+          <t>A 64304-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45420</v>
+        <v>45280</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18513,11 +18528,6 @@
       <c r="E303" t="inlineStr">
         <is>
           <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G303" t="n">
@@ -18558,14 +18568,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 19524-2024</t>
+          <t>A 29582-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45429.6306712963</v>
+        <v>45484</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18577,8 +18587,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G304" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18615,14 +18630,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 3779-2025</t>
+          <t>A 8364-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45681</v>
+        <v>45708</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18634,13 +18649,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>BillerudKorsnäs AB</t>
-        </is>
-      </c>
       <c r="G305" t="n">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18677,14 +18687,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 63919-2021</t>
+          <t>A 62675-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44509</v>
+        <v>45271</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18697,7 +18707,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>5.2</v>
+        <v>3.4</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18734,14 +18744,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 4870-2024</t>
+          <t>A 48553-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45329</v>
+        <v>45208.40232638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18754,7 +18764,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>8.4</v>
+        <v>1.7</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18791,14 +18801,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 36646-2023</t>
+          <t>A 17573-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45153.55540509259</v>
+        <v>45757.65053240741</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18811,7 +18821,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18848,14 +18858,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 22822-2024</t>
+          <t>A 31561-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45448</v>
+        <v>45117.39696759259</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18868,7 +18878,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18905,14 +18915,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 19053-2024</t>
+          <t>A 44048-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45427</v>
+        <v>45188.38348379629</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18925,7 +18935,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18962,14 +18972,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 4603-2025</t>
+          <t>A 30914-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45687</v>
+        <v>45113</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18981,13 +18991,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G311" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19024,14 +19029,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 11601-2025</t>
+          <t>A 20784-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45727</v>
+        <v>45776.61640046296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19044,7 +19049,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.8</v>
+        <v>9.5</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19081,14 +19086,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 12175-2024</t>
+          <t>A 8370-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45377</v>
+        <v>44977.38424768519</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19101,7 +19106,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>5.6</v>
+        <v>0.9</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19138,14 +19143,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 39145-2021</t>
+          <t>A 12217-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44412</v>
+        <v>45729.5358912037</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19158,7 +19163,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19195,14 +19200,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 29577-2024</t>
+          <t>A 22133-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45484</v>
+        <v>45785</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19214,13 +19219,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G315" t="n">
-        <v>10.1</v>
+        <v>4.7</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19257,14 +19257,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 20784-2025</t>
+          <t>A 22537-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45776.61640046296</v>
+        <v>45787</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>9.5</v>
+        <v>0.8</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19314,14 +19314,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 8370-2023</t>
+          <t>A 13289-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44977.38424768519</v>
+        <v>45735</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19371,14 +19371,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 12217-2025</t>
+          <t>A 27218-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45729.5358912037</v>
+        <v>45096.58238425926</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19428,14 +19428,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 22133-2025</t>
+          <t>A 36420-2023</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45785</v>
+        <v>45152</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19485,14 +19485,14 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 22537-2025</t>
+          <t>A 17399-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45787</v>
+        <v>45757</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,14 +1284,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 30406-2025</t>
+          <t>A 40521-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45827</v>
+        <v>45896</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1338,999 +1338,999 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 15321-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45019</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Vätteros</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 26662-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Skogsklocka</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 47146-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45929</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 47146-2025 artfynd.xlsx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 47146-2025 karta.png", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 47146-2025 FSC-klagomål.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 47146-2025 FSC-klagomål mail.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 47146-2025 tillsynsbegäran.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 47146-2025 tillsynsbegäran mail.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 47146-2025 prioriterade fågelarter.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 23860-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 37700-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45880</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 30406-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45827</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 40521-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45896</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H11" t="n">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 66053-2021</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44517.63174768518</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 15321-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45019</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Vätteros</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 37700-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45880</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 47146-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45929</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 47146-2025 artfynd.xlsx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 47146-2025 karta.png", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 47146-2025 FSC-klagomål.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 47146-2025 FSC-klagomål mail.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 47146-2025 tillsynsbegäran.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 47146-2025 tillsynsbegäran mail.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 47146-2025 prioriterade fågelarter.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 23860-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 66053-2021</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>44517.63174768518</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 54042-2021</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 62973-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 8363-2025</t>
         </is>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45708</v>
       </c>
-      <c r="C17" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="C20" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>1.7</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Mandelriska</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 8363-2025 artfynd.xlsx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 8363-2025 karta.png", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 8363-2025 FSC-klagomål.docx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 8363-2025 FSC-klagomål mail.docx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 8363-2025 tillsynsbegäran.docx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 8363-2025 tillsynsbegäran mail.docx", "A 8363-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 62973-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>46009</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 35077-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 35077-2024</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 35077-2024 artfynd.xlsx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 35077-2024 karta.png", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="U19">
+      <c r="U21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/knärot/A 35077-2024 karta knärot.png", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 35077-2024 FSC-klagomål.docx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 35077-2024 FSC-klagomål mail.docx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 35077-2024 tillsynsbegäran.docx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 35077-2024 tillsynsbegäran mail.docx", "A 35077-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 54042-2021</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 26662-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44432</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44607.63090277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44795</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44782</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3080,14 +3080,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59863-2021</t>
+          <t>A 45052-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44494</v>
+        <v>44439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3137,14 +3137,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30478-2021</t>
+          <t>A 59863-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44364</v>
+        <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>7.6</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3194,14 +3194,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 45052-2021</t>
+          <t>A 30478-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44439</v>
+        <v>44364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3258,7 +3258,7 @@
         <v>44286</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44328</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44844</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44690</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3655,14 +3655,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13140-2021</t>
+          <t>A 25970-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44271</v>
+        <v>44734</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25970-2022</t>
+          <t>A 13140-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44734</v>
+        <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>44694.44246527777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44292</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44369</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44467.47119212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4111,14 +4111,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 63964-2021</t>
+          <t>A 59760-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44509</v>
+        <v>44494.45789351852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4168,14 +4168,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61306-2021</t>
+          <t>A 63964-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44498</v>
+        <v>44509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4225,14 +4225,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 59760-2021</t>
+          <t>A 61306-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44494.45789351852</v>
+        <v>44498</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4289,7 +4289,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44267</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44762.46194444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>44620</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44627</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44258</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44434</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44882.59195601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44649.65836805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44806</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44494.44803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44753</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44238</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44467</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5385,14 +5385,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25694-2022</t>
+          <t>A 2089-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44732</v>
+        <v>44577.00778935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5405,7 +5405,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5442,14 +5442,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2089-2022</t>
+          <t>A 51203-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44577.00778935185</v>
+        <v>44460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,8 +5461,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5499,14 +5504,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51203-2021</t>
+          <t>A 25694-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44460</v>
+        <v>44732</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5518,13 +5523,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>44498.66922453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44292</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5732,14 +5732,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41810-2021</t>
+          <t>A 19508-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44425</v>
+        <v>44312.36194444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5789,14 +5789,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 73306-2021</t>
+          <t>A 41810-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44547</v>
+        <v>44425</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5846,14 +5846,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 19508-2021</t>
+          <t>A 30334-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44312.36194444444</v>
+        <v>44760.46356481482</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5903,14 +5903,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30334-2022</t>
+          <t>A 73306-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44760.46356481482</v>
+        <v>44547</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 37339-2022</t>
+          <t>A 5841-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44806</v>
+        <v>44596.6127662037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6017,14 +6017,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12311-2024</t>
+          <t>A 5126-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45378.63476851852</v>
+        <v>44958</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>14.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 15545-2024</t>
+          <t>A 40029-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45401</v>
+        <v>45894</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6093,13 +6093,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6136,14 +6131,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 37486-2022</t>
+          <t>A 40027-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44809.55424768518</v>
+        <v>45894.36900462963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6156,7 +6151,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.6</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6193,14 +6188,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 10647-2024</t>
+          <t>A 5025-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45368.47725694445</v>
+        <v>44958.56039351852</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6213,7 +6208,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6250,14 +6245,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20238-2024</t>
+          <t>A 73901-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45434</v>
+        <v>44552</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6270,7 +6265,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6307,14 +6302,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21528-2024</t>
+          <t>A 28228-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45441.59262731481</v>
+        <v>45477</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6322,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6364,14 +6359,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 42557-2022</t>
+          <t>A 17437-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44831</v>
+        <v>45757</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6384,7 +6379,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>13.7</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6421,14 +6416,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 23189-2024</t>
+          <t>A 17443-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45450</v>
+        <v>45757.43275462963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6440,13 +6435,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6483,14 +6473,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 19053-2024</t>
+          <t>A 30914-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45427</v>
+        <v>45113</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6503,7 +6493,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6540,14 +6530,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 24543-2024</t>
+          <t>A 20369-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45460</v>
+        <v>45435</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6559,13 +6549,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6602,14 +6587,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 13382-2024</t>
+          <t>A 7272-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45387</v>
+        <v>44606.4540625</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6622,7 +6607,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6659,14 +6644,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21311-2024</t>
+          <t>A 73033-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45440</v>
+        <v>44550</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6678,13 +6663,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6721,14 +6701,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 32302-2024</t>
+          <t>A 13382-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45512</v>
+        <v>45387</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,13 +6720,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6783,14 +6758,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 28228-2024</t>
+          <t>A 26829-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45477</v>
+        <v>45093.54527777778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6803,7 +6778,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6840,14 +6815,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 22289-2021</t>
+          <t>A 38517-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44326</v>
+        <v>45546.56068287037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6860,7 +6835,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6897,14 +6872,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25840-2024</t>
+          <t>A 57236-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45467</v>
+        <v>45245.54427083334</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6917,7 +6892,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6954,14 +6929,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 25014-2024</t>
+          <t>A 57237-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45461</v>
+        <v>45245</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6974,7 +6949,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>12.8</v>
+        <v>18.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7011,14 +6986,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 17081-2024</t>
+          <t>A 16574-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45412</v>
+        <v>45752.50203703704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7031,7 +7006,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7068,14 +7043,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62682-2023</t>
+          <t>A 18184-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45271</v>
+        <v>45420</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7087,8 +7062,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7125,14 +7105,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53209-2021</t>
+          <t>A 19524-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44468</v>
+        <v>45429.6306712963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7145,7 +7125,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>11.6</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7182,14 +7162,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 73310-2021</t>
+          <t>A 5810-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44547</v>
+        <v>44963.48369212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7202,7 +7182,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7239,14 +7219,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45467-2022</t>
+          <t>A 3779-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44845</v>
+        <v>45681</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7258,8 +7238,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>BillerudKorsnäs AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7296,14 +7281,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 58705-2024</t>
+          <t>A 47152-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45635</v>
+        <v>45201</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7315,13 +7300,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>4.3</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7358,14 +7338,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12416-2023</t>
+          <t>A 39334-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44998</v>
+        <v>45889.49049768518</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7377,13 +7357,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7420,14 +7395,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56552-2022</t>
+          <t>A 29582-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44887</v>
+        <v>45484</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7445,7 +7420,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7482,14 +7457,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36644-2023</t>
+          <t>A 63919-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45153.55092592593</v>
+        <v>44509</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7502,7 +7477,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7539,14 +7514,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7922-2022</t>
+          <t>A 26840-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44608.72004629629</v>
+        <v>45093.5540625</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7559,7 +7534,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7596,14 +7571,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62905-2023</t>
+          <t>A 18341-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45272</v>
+        <v>45762.51554398148</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7616,7 +7591,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>13.8</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7653,14 +7628,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 5126-2023</t>
+          <t>A 4870-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44958</v>
+        <v>45329</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7673,7 +7648,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>14.3</v>
+        <v>8.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7710,14 +7685,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41878-2024</t>
+          <t>A 36646-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45561</v>
+        <v>45153.55540509259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7729,13 +7704,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>15.9</v>
+        <v>2.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7772,14 +7742,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10892-2022</t>
+          <t>A 41113-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44627.77988425926</v>
+        <v>45898.46057870371</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7792,7 +7762,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7829,14 +7799,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 31362-2024</t>
+          <t>A 17239-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45505</v>
+        <v>45756.47972222222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7849,7 +7819,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7886,14 +7856,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17122-2024</t>
+          <t>A 22822-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45412</v>
+        <v>45448</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7906,7 +7876,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7943,14 +7913,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 29260-2025</t>
+          <t>A 19053-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45824</v>
+        <v>45427</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7963,7 +7933,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8000,14 +7970,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 29256-2025</t>
+          <t>A 4603-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45824.38387731482</v>
+        <v>45687</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8019,8 +7989,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8057,14 +8032,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 62557-2022</t>
+          <t>A 11601-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44924.77230324074</v>
+        <v>45727</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8077,7 +8052,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8114,14 +8089,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7991-2024</t>
+          <t>A 12175-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45350</v>
+        <v>45377</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8134,7 +8109,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8171,14 +8146,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29645-2025</t>
+          <t>A 58514-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45825.46574074074</v>
+        <v>44902.40304398148</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8191,7 +8166,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8228,14 +8203,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30411-2025</t>
+          <t>A 31561-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45827</v>
+        <v>45117.39696759259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8248,7 +8223,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8285,14 +8260,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 30563-2025</t>
+          <t>A 13121-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45831.40098379629</v>
+        <v>45002</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8305,7 +8280,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8342,14 +8317,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 5810-2023</t>
+          <t>A 53209-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44963.48369212963</v>
+        <v>44468</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8362,7 +8337,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>11.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8399,14 +8374,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 31190-2025</t>
+          <t>A 39145-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45831</v>
+        <v>44412</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8419,7 +8394,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8456,14 +8431,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43242-2021</t>
+          <t>A 42143-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44432</v>
+        <v>45904.36905092592</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8476,7 +8451,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8513,14 +8488,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 5236-2023</t>
+          <t>A 37119-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44956</v>
+        <v>45539.53746527778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8533,7 +8508,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8570,14 +8545,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 19524-2024</t>
+          <t>A 29577-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45429.6306712963</v>
+        <v>45484</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8589,8 +8564,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>10.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8627,14 +8607,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 39334-2025</t>
+          <t>A 20784-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45889.49049768518</v>
+        <v>45776.61640046296</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8647,7 +8627,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.3</v>
+        <v>9.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8684,14 +8664,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 32327-2025</t>
+          <t>A 17910-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45836.44756944444</v>
+        <v>45419</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8704,7 +8684,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.1</v>
+        <v>6.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8741,14 +8721,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 62947-2023</t>
+          <t>A 2253-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45272.54398148148</v>
+        <v>45310.30798611111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8761,7 +8741,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8798,14 +8778,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 12350-2023</t>
+          <t>A 8370-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44998</v>
+        <v>44977.38424768519</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8817,13 +8797,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8860,14 +8835,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 40027-2025</t>
+          <t>A 12217-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45894.36900462963</v>
+        <v>45729.5358912037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8880,7 +8855,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8917,14 +8892,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 40029-2025</t>
+          <t>A 6721-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45894</v>
+        <v>45700</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8936,8 +8911,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8974,14 +8954,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 7993-2024</t>
+          <t>A 22133-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45350.63241898148</v>
+        <v>45785</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8994,7 +8974,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>4.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9031,14 +9011,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 33081-2022</t>
+          <t>A 49300-2022</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44785</v>
+        <v>44861.47716435185</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9051,7 +9031,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9088,14 +9068,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 17239-2025</t>
+          <t>A 22537-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45756.47972222222</v>
+        <v>45787</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9108,7 +9088,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9145,14 +9125,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 8359-2025</t>
+          <t>A 5957-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45708</v>
+        <v>45336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9165,7 +9145,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9202,14 +9182,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41113-2025</t>
+          <t>A 44160-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45898.46057870371</v>
+        <v>45915.59703703703</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9221,8 +9201,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>4.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9259,14 +9244,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 29762-2023</t>
+          <t>A 20238-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45107.47733796296</v>
+        <v>45434</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9264,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9316,14 +9301,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 35425-2025</t>
+          <t>A 44497-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45855</v>
+        <v>45916.67107638889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9336,7 +9321,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9373,14 +9358,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35426-2025</t>
+          <t>A 56219-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45855</v>
+        <v>45240.77920138889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9393,7 +9378,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9430,14 +9415,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 42143-2025</t>
+          <t>A 680-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45904.36905092592</v>
+        <v>45300</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9450,7 +9435,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9487,14 +9472,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 38582-2024</t>
+          <t>A 30339-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45546</v>
+        <v>44760.47674768518</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9506,13 +9491,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9549,14 +9529,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 29736-2023</t>
+          <t>A 12350-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45107.45405092592</v>
+        <v>44998</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9568,8 +9548,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9606,14 +9591,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 19052-2024</t>
+          <t>A 13289-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45427.76670138889</v>
+        <v>45735</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9626,7 +9611,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9663,14 +9648,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 50640-2023</t>
+          <t>A 24543-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45217.46871527778</v>
+        <v>45460</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9682,8 +9667,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>5.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9720,14 +9710,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 17910-2024</t>
+          <t>A 45728-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45419</v>
+        <v>45923.45925925926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9740,7 +9730,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9777,14 +9767,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 22319-2021</t>
+          <t>A 975-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44326.48232638889</v>
+        <v>45665</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9797,7 +9787,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9834,14 +9824,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 44497-2025</t>
+          <t>A 45784-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45916.67107638889</v>
+        <v>45923.55923611111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9854,7 +9844,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9891,14 +9881,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 8361-2025</t>
+          <t>A 45868-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45708</v>
+        <v>45923.65232638889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9911,7 +9901,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9948,14 +9938,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 11597-2025</t>
+          <t>A 62557-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45727</v>
+        <v>44924.77230324074</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9968,7 +9958,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10005,14 +9995,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 44160-2025</t>
+          <t>A 45898-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45915.59703703703</v>
+        <v>45923.67954861111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10024,13 +10014,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10067,14 +10052,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 31964-2023</t>
+          <t>A 45744-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45107</v>
+        <v>45923.47619212963</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10087,7 +10072,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10124,14 +10109,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 35253-2022</t>
+          <t>A 45750-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44797</v>
+        <v>45923.48400462963</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10144,7 +10129,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10181,14 +10166,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 37696-2025</t>
+          <t>A 27218-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45880</v>
+        <v>45096.58238425926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10201,7 +10186,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10238,14 +10223,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 37517-2025</t>
+          <t>A 21402-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45877</v>
+        <v>45441</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10258,7 +10243,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10295,14 +10280,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 37515-2025</t>
+          <t>A 45812-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45877</v>
+        <v>45923.58844907407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10315,7 +10300,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10352,14 +10337,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 37495-2025</t>
+          <t>A 43243-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45877</v>
+        <v>45910</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10372,7 +10357,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10409,14 +10394,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 29426-2022</t>
+          <t>A 36420-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44753</v>
+        <v>45152</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10428,13 +10413,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>14.4</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10471,14 +10451,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 38002-2025</t>
+          <t>A 29736-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45881.89586805556</v>
+        <v>45107.45405092592</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10528,14 +10508,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 45868-2025</t>
+          <t>A 53138-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45923.65232638889</v>
+        <v>45229.34055555556</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10548,7 +10528,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10585,14 +10565,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 45812-2025</t>
+          <t>A 17399-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45923.58844907407</v>
+        <v>45757</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10605,7 +10585,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10642,14 +10622,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 43243-2025</t>
+          <t>A 19566-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45910</v>
+        <v>45049</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10662,7 +10642,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10699,14 +10679,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 30339-2022</t>
+          <t>A 29762-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44760.47674768518</v>
+        <v>45107.47733796296</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10719,7 +10699,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>5.3</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10756,14 +10736,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 45784-2025</t>
+          <t>A 16092-2021</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45923.55923611111</v>
+        <v>44289</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10776,7 +10756,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10813,14 +10793,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 45728-2025</t>
+          <t>A 29256-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45923.45925925926</v>
+        <v>45824.38387731482</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10833,7 +10813,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10870,14 +10850,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 45898-2025</t>
+          <t>A 8364-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45923.67954861111</v>
+        <v>45708</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10890,7 +10870,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10927,14 +10907,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 45750-2025</t>
+          <t>A 29260-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45923.48400462963</v>
+        <v>45824</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10947,7 +10927,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10984,14 +10964,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 45744-2025</t>
+          <t>A 29645-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45923.47619212963</v>
+        <v>45825.46574074074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11004,7 +10984,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11041,14 +11021,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 6751-2025</t>
+          <t>A 62896-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45700.6130787037</v>
+        <v>45272.42737268518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11061,7 +11041,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>13.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11098,14 +11078,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 975-2025</t>
+          <t>A 69847-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45665</v>
+        <v>44532</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11118,7 +11098,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11155,14 +11135,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 63919-2021</t>
+          <t>A 30411-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44509</v>
+        <v>45827</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11175,7 +11155,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11212,14 +11192,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 9144-2024</t>
+          <t>A 30563-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45358.37327546296</v>
+        <v>45831.40098379629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11232,7 +11212,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11269,14 +11249,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 47507-2025</t>
+          <t>A 58705-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45930.86842592592</v>
+        <v>45635</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,8 +11268,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11326,14 +11311,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 13121-2023</t>
+          <t>A 31190-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45002</v>
+        <v>45831</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11346,7 +11331,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11383,14 +11368,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 49425-2025</t>
+          <t>A 22347-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45938</v>
+        <v>45070.57208333333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11403,7 +11388,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11440,14 +11425,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6713-2025</t>
+          <t>A 47507-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45700</v>
+        <v>45930.86842592592</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,13 +11444,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11502,14 +11482,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 49422-2025</t>
+          <t>A 32327-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45938</v>
+        <v>45836.44756944444</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11522,7 +11502,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11559,14 +11539,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 49507-2025</t>
+          <t>A 49422-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45939.37804398148</v>
+        <v>45938</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11579,7 +11559,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11616,14 +11596,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 33948-2023</t>
+          <t>A 49425-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45124</v>
+        <v>45938</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11636,7 +11616,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11673,14 +11653,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 27222-2023</t>
+          <t>A 33081-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45096.58590277778</v>
+        <v>44785</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11693,7 +11673,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11730,14 +11710,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 17972-2025</t>
+          <t>A 25840-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45761.36483796296</v>
+        <v>45467</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11750,7 +11730,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11787,14 +11767,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 62896-2023</t>
+          <t>A 8359-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45272.42737268518</v>
+        <v>45708</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11807,7 +11787,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>13.8</v>
+        <v>4.3</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11844,14 +11824,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 6938-2024</t>
+          <t>A 37676-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45343</v>
+        <v>45159</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11864,7 +11844,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11901,14 +11881,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 51509-2025</t>
+          <t>A 49507-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45950</v>
+        <v>45939.37804398148</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11901,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.7</v>
+        <v>5.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11958,14 +11938,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 26829-2023</t>
+          <t>A 6751-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45093.54527777778</v>
+        <v>45700.6130787037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11958,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12015,14 +11995,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 13895-2024</t>
+          <t>A 35426-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45391</v>
+        <v>45855</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,13 +12014,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12077,14 +12052,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 26815-2023</t>
+          <t>A 35425-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45093.531875</v>
+        <v>45855</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12097,7 +12072,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12134,14 +12109,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 17565-2025</t>
+          <t>A 50640-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45757.64024305555</v>
+        <v>45217.46871527778</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12154,7 +12129,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12191,14 +12166,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 25443-2023</t>
+          <t>A 34580-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45089</v>
+        <v>44795</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12211,7 +12186,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12248,14 +12223,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14306-2023</t>
+          <t>A 12000-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45011</v>
+        <v>44635</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12268,7 +12243,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12305,14 +12280,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 52700-2025</t>
+          <t>A 42557-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45956.78072916667</v>
+        <v>44831</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12325,7 +12300,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.2</v>
+        <v>13.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12362,14 +12337,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 52699-2025</t>
+          <t>A 35253-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45956.7752662037</v>
+        <v>44797</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12382,7 +12357,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12419,14 +12394,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 5025-2023</t>
+          <t>A 38582-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44958.56039351852</v>
+        <v>45546</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12438,8 +12413,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>0.9</v>
+        <v>5.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12476,14 +12456,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 31974-2023</t>
+          <t>A 10647-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45107</v>
+        <v>45368.47725694445</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12496,7 +12476,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12533,14 +12513,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 5957-2024</t>
+          <t>A 15545-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45336</v>
+        <v>45401</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12552,8 +12532,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12590,14 +12575,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53866-2025</t>
+          <t>A 5280-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45961.385625</v>
+        <v>44593</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12609,8 +12594,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>2.2</v>
+        <v>37.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12647,14 +12637,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 53863-2025</t>
+          <t>A 13820-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45961.38152777778</v>
+        <v>45390</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12667,7 +12657,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>7.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12704,14 +12694,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 2253-2024</t>
+          <t>A 17565-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45310.30798611111</v>
+        <v>45757.64024305555</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12724,7 +12714,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12761,14 +12751,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4870-2024</t>
+          <t>A 31362-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45329</v>
+        <v>45505</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12781,7 +12771,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>8.4</v>
+        <v>0.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12818,14 +12808,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 69847-2021</t>
+          <t>A 37515-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44532</v>
+        <v>45877</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12838,7 +12828,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12875,14 +12865,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58514-2022</t>
+          <t>A 37495-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44902.40304398148</v>
+        <v>45877</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12895,7 +12885,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12932,14 +12922,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 71706-2021</t>
+          <t>A 37517-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44543.44349537037</v>
+        <v>45877</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12952,7 +12942,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12989,14 +12979,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 39145-2021</t>
+          <t>A 37696-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44412</v>
+        <v>45880</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13009,7 +12999,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13046,14 +13036,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 47152-2023</t>
+          <t>A 32302-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45201</v>
+        <v>45512</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13065,8 +13055,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13103,14 +13098,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 53755-2024</t>
+          <t>A 38002-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45615.49748842593</v>
+        <v>45881.89586805556</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13123,7 +13118,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13160,14 +13155,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 53138-2023</t>
+          <t>A 51509-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45229.34055555556</v>
+        <v>45950</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13180,7 +13175,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13217,14 +13212,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 16772-2024</t>
+          <t>A 3065-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45411</v>
+        <v>45316.40590277778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13237,7 +13232,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13274,14 +13269,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 39635-2023</t>
+          <t>A 17081-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45167.52609953703</v>
+        <v>45412</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13294,7 +13289,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13331,14 +13326,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 66056-2021</t>
+          <t>A 7993-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44517.6359837963</v>
+        <v>45350.63241898148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13351,7 +13346,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13388,14 +13383,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 16574-2025</t>
+          <t>A 52699-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45752.50203703704</v>
+        <v>45956.7752662037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13408,7 +13403,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13445,14 +13440,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 3065-2024</t>
+          <t>A 45467-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45316.40590277778</v>
+        <v>44845</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13465,7 +13460,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13502,14 +13497,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 58747-2025</t>
+          <t>A 5011-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45986.63916666667</v>
+        <v>45329</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13522,7 +13517,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.5</v>
+        <v>22</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13559,14 +13554,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 12082-2024</t>
+          <t>A 53137-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45377.54760416667</v>
+        <v>45229.33768518519</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13579,7 +13574,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13616,14 +13611,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 12084-2024</t>
+          <t>A 52700-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45377.55229166667</v>
+        <v>45956.78072916667</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13636,7 +13631,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13673,14 +13668,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 58751-2025</t>
+          <t>A 57233-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45986.64163194445</v>
+        <v>45245.54103009259</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13693,7 +13688,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13730,14 +13725,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 20954-2023</t>
+          <t>A 9144-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45061</v>
+        <v>45358.37327546296</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13750,7 +13745,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13787,14 +13782,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 17443-2025</t>
+          <t>A 62675-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45757.43275462963</v>
+        <v>45271</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13807,7 +13802,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13844,14 +13839,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 567-2026</t>
+          <t>A 62682-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46029.46965277778</v>
+        <v>45271</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13864,7 +13859,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13901,14 +13896,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 614-2026</t>
+          <t>A 53863-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46024</v>
+        <v>45961.38152777778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13921,7 +13916,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13958,14 +13953,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 59617-2025</t>
+          <t>A 5214-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45992.37861111111</v>
+        <v>45691</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13978,7 +13973,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14015,14 +14010,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 40522-2025</t>
+          <t>A 53866-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45896</v>
+        <v>45961.385625</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14035,7 +14030,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14072,14 +14067,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 40524-2025</t>
+          <t>A 4982-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45896</v>
+        <v>45329</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14092,7 +14087,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14129,14 +14124,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 20369-2024</t>
+          <t>A 62947-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45435</v>
+        <v>45272.54398148148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14149,7 +14144,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14186,14 +14181,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 11601-2025</t>
+          <t>A 31930-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45727</v>
+        <v>45510</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14206,7 +14201,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14243,14 +14238,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 4976-2024</t>
+          <t>A 71706-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45329</v>
+        <v>44543.44349537037</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14263,7 +14258,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14300,14 +14295,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 12175-2024</t>
+          <t>A 11597-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45377</v>
+        <v>45727</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14320,7 +14315,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14357,14 +14352,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 30527-2022</t>
+          <t>A 40935-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44762.44436342592</v>
+        <v>44823</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,8 +14371,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14414,14 +14414,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 60656-2025</t>
+          <t>A 6938-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45996.47914351852</v>
+        <v>45343</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14471,14 +14471,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 22347-2023</t>
+          <t>A 58751-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45070.57208333333</v>
+        <v>45986.64163194445</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14528,14 +14528,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 2581-2026</t>
+          <t>A 567-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46037.53079861111</v>
+        <v>46029.46965277778</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14585,14 +14585,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 4603-2025</t>
+          <t>A 58747-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45687</v>
+        <v>45986.63916666667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,13 +14604,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14647,14 +14642,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 60752-2025</t>
+          <t>A 614-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45999.38148148148</v>
+        <v>46024</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14667,7 +14662,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.5</v>
+        <v>5.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14704,14 +14699,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 4273-2025</t>
+          <t>A 14306-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45685</v>
+        <v>45011</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14724,7 +14719,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14761,14 +14756,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 56220-2023</t>
+          <t>A 18321-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45240.78313657407</v>
+        <v>45762</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14781,7 +14776,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14818,14 +14813,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 56219-2023</t>
+          <t>A 17972-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45240.77920138889</v>
+        <v>45761.36483796296</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14838,7 +14833,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14875,14 +14870,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 6721-2025</t>
+          <t>A 27222-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45700</v>
+        <v>45096.58590277778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14894,13 +14889,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14937,14 +14927,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 3054-2026</t>
+          <t>A 40522-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46039.37369212963</v>
+        <v>45896</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14957,7 +14947,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14994,14 +14984,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 17437-2025</t>
+          <t>A 40524-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45757</v>
+        <v>45896</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15014,7 +15004,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15051,14 +15041,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 5841-2022</t>
+          <t>A 59617-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44596.6127662037</v>
+        <v>45992.37861111111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15071,7 +15061,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15108,14 +15098,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 12000-2022</t>
+          <t>A 36644-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44635</v>
+        <v>45153.55092592593</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15128,7 +15118,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15165,14 +15155,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 40935-2022</t>
+          <t>A 8788-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44823</v>
+        <v>45356</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15184,13 +15174,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G245" t="n">
-        <v>5</v>
+        <v>0.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15227,14 +15212,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 36646-2023</t>
+          <t>A 2581-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45153.55540509259</v>
+        <v>46037.53079861111</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15247,7 +15232,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15284,14 +15269,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 3779-2025</t>
+          <t>A 7931-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45681</v>
+        <v>45706</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15305,11 +15290,11 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>BillerudKorsnäs AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G247" t="n">
-        <v>7.6</v>
+        <v>13.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15346,14 +15331,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 29724-2023</t>
+          <t>A 62554-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45107</v>
+        <v>44924</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15366,7 +15351,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15403,14 +15388,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 8362-2025</t>
+          <t>A 21528-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45708</v>
+        <v>45441.59262731481</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15423,7 +15408,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>7.7</v>
+        <v>1.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15460,14 +15445,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 972-2025</t>
+          <t>A 20954-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45665</v>
+        <v>45061</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15480,7 +15465,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15517,14 +15502,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 49300-2022</t>
+          <t>A 60752-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44861.47716435185</v>
+        <v>45999.38148148148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15537,7 +15522,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15574,14 +15559,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 16635-2024</t>
+          <t>A 3054-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45408.59462962963</v>
+        <v>46039.37369212963</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15594,7 +15579,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15631,14 +15616,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 37676-2023</t>
+          <t>A 60656-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45159</v>
+        <v>45996.47914351852</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15651,7 +15636,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15688,14 +15673,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 63063-2025</t>
+          <t>A 19052-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46009</v>
+        <v>45427.76670138889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15708,7 +15693,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>7.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15745,14 +15730,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 62967-2025</t>
+          <t>A 10892-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46009</v>
+        <v>44627.77988425926</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15802,14 +15787,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 62941-2025</t>
+          <t>A 29426-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46009</v>
+        <v>44753</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15821,8 +15806,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>1.5</v>
+        <v>14.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15859,14 +15849,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 53137-2023</t>
+          <t>A 12416-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45229.33768518519</v>
+        <v>44998</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15878,8 +15868,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15916,14 +15911,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 8788-2024</t>
+          <t>A 44048-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45356</v>
+        <v>45188.38348379629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15936,7 +15931,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15973,14 +15968,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 680-2024</t>
+          <t>A 43242-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45300</v>
+        <v>44432</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15993,7 +15988,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16030,14 +16025,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 62955-2025</t>
+          <t>A 62905-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46009</v>
+        <v>45272</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16050,7 +16045,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.9</v>
+        <v>13.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16087,14 +16082,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 46299-2022</t>
+          <t>A 21311-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44847.75081018519</v>
+        <v>45440</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16106,8 +16101,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16144,14 +16144,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 62554-2022</t>
+          <t>A 37486-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44924</v>
+        <v>44809.55424768518</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16164,7 +16164,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.6</v>
+        <v>8.6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16201,14 +16201,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 59391-2025</t>
+          <t>A 46299-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45989</v>
+        <v>44847.75081018519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16258,14 +16258,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 57236-2023</t>
+          <t>A 5236-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45245.54427083334</v>
+        <v>44956</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16278,7 +16278,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16315,14 +16315,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 57237-2023</t>
+          <t>A 56220-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45245</v>
+        <v>45240.78313657407</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>18.2</v>
+        <v>0.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16372,14 +16372,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 5280-2022</t>
+          <t>A 53755-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44593</v>
+        <v>45615.49748842593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16391,13 +16391,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G266" t="n">
-        <v>37.1</v>
+        <v>6.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16434,14 +16429,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 29577-2024</t>
+          <t>A 972-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45484</v>
+        <v>45665</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16453,13 +16448,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G267" t="n">
-        <v>10.1</v>
+        <v>1.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16496,14 +16486,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 27443-2024</t>
+          <t>A 909-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45474</v>
+        <v>45664</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16516,7 +16506,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16553,14 +16543,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 32959-2022</t>
+          <t>A 62967-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44784</v>
+        <v>46009</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16573,7 +16563,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16610,14 +16600,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 13320-2024</t>
+          <t>A 62941-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45386.77172453704</v>
+        <v>46009</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16630,7 +16620,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16667,14 +16657,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 38517-2024</t>
+          <t>A 13895-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45546.56068287037</v>
+        <v>45391</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16686,8 +16676,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G271" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16724,14 +16719,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 19155-2025</t>
+          <t>A 59391-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45769</v>
+        <v>45989</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16744,7 +16739,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16781,14 +16776,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 37119-2024</t>
+          <t>A 29724-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45539.53746527778</v>
+        <v>45107</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16801,7 +16796,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16838,14 +16833,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 56386-2022</t>
+          <t>A 62955-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44890</v>
+        <v>46009</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16858,7 +16853,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16895,14 +16890,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 19802-2024</t>
+          <t>A 56552-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45432</v>
+        <v>44887</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16920,7 +16915,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16957,14 +16952,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 34580-2022</t>
+          <t>A 63063-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44795</v>
+        <v>46009</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16977,7 +16972,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17014,14 +17009,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 19566-2023</t>
+          <t>A 31974-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45049</v>
+        <v>45107</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17034,7 +17029,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17071,14 +17066,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 7272-2022</t>
+          <t>A 19802-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44606.4540625</v>
+        <v>45432</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17090,8 +17085,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17128,14 +17128,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 22822-2024</t>
+          <t>A 16635-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45448</v>
+        <v>45408.59462962963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17148,7 +17148,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17185,14 +17185,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 59542-2022</t>
+          <t>A 22319-2021</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44907</v>
+        <v>44326.48232638889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17205,7 +17205,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17242,14 +17242,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 21402-2024</t>
+          <t>A 4273-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45441</v>
+        <v>45685</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17262,7 +17262,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17299,14 +17299,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 16092-2021</t>
+          <t>A 7922-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44289</v>
+        <v>44608.72004629629</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17319,7 +17319,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17356,14 +17356,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 57233-2023</t>
+          <t>A 1556-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45245.54103009259</v>
+        <v>45670</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17376,7 +17376,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17413,14 +17413,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 71781-2021</t>
+          <t>A 12311-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44539</v>
+        <v>45378.63476851852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17432,13 +17432,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G284" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17475,14 +17470,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 31930-2024</t>
+          <t>A 33948-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45510</v>
+        <v>45124</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17495,7 +17490,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17532,14 +17527,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 73901-2021</t>
+          <t>A 13320-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44552</v>
+        <v>45386.77172453704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17552,7 +17547,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17589,14 +17584,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 5214-2025</t>
+          <t>A 55227-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45691</v>
+        <v>45231</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17609,7 +17604,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17646,14 +17641,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 26840-2023</t>
+          <t>A 25014-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45093.5540625</v>
+        <v>45461</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17666,7 +17661,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.1</v>
+        <v>12.8</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17703,14 +17698,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 13820-2024</t>
+          <t>A 31964-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45390</v>
+        <v>45107</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17723,7 +17718,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17760,14 +17755,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 5011-2024</t>
+          <t>A 12082-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45329</v>
+        <v>45377.54760416667</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17780,7 +17775,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>22</v>
+        <v>1.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17817,14 +17812,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 18341-2025</t>
+          <t>A 12084-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45762.51554398148</v>
+        <v>45377.55229166667</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17837,7 +17832,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17874,14 +17869,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 52848-2021</t>
+          <t>A 4976-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44467</v>
+        <v>45329</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17894,7 +17889,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17931,14 +17926,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 19753-2024</t>
+          <t>A 64304-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45432</v>
+        <v>45280</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17951,7 +17946,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17988,14 +17983,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 4982-2024</t>
+          <t>A 48553-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45329</v>
+        <v>45208.40232638889</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18008,7 +18003,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18045,14 +18040,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 18321-2025</t>
+          <t>A 26815-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45762</v>
+        <v>45093.531875</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18065,7 +18060,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18102,14 +18097,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 18184-2024</t>
+          <t>A 16772-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45420</v>
+        <v>45411</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18121,13 +18116,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G296" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18164,14 +18154,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 55227-2023</t>
+          <t>A 25443-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45231</v>
+        <v>45089</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18184,7 +18174,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18221,14 +18211,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 9837-2023</t>
+          <t>A 66056-2021</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44984.85623842593</v>
+        <v>44517.6359837963</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18241,7 +18231,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18278,14 +18268,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 7931-2025</t>
+          <t>A 23189-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45706</v>
+        <v>45450</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18303,7 +18293,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>13.8</v>
+        <v>1.9</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18340,14 +18330,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 1556-2025</t>
+          <t>A 7991-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45670</v>
+        <v>45350</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18360,7 +18350,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18397,14 +18387,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 73033-2021</t>
+          <t>A 22289-2021</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44550</v>
+        <v>44326</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18417,7 +18407,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18454,14 +18444,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 909-2025</t>
+          <t>A 59542-2022</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45664</v>
+        <v>44907</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18474,7 +18464,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18511,14 +18501,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 64304-2023</t>
+          <t>A 19155-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45280</v>
+        <v>45769</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18531,7 +18521,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18568,14 +18558,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 29582-2024</t>
+          <t>A 52848-2021</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45484</v>
+        <v>44467</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18587,13 +18577,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G304" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18630,14 +18615,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 8364-2025</t>
+          <t>A 8361-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
         <v>45708</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18650,7 +18635,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18687,14 +18672,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 62675-2023</t>
+          <t>A 73310-2021</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45271</v>
+        <v>44547</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18707,7 +18692,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18744,14 +18729,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 48553-2023</t>
+          <t>A 39635-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45208.40232638889</v>
+        <v>45167.52609953703</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18801,14 +18786,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 17573-2025</t>
+          <t>A 37339-2022</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45757.65053240741</v>
+        <v>44806</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18821,7 +18806,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18858,14 +18843,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 31561-2023</t>
+          <t>A 56386-2022</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45117.39696759259</v>
+        <v>44890</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18878,7 +18863,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18915,14 +18900,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 44048-2023</t>
+          <t>A 71781-2021</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45188.38348379629</v>
+        <v>44539</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18934,8 +18919,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G310" t="n">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18972,14 +18962,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 30914-2023</t>
+          <t>A 6713-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45113</v>
+        <v>45700</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18991,8 +18981,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G311" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19029,14 +19024,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 20784-2025</t>
+          <t>A 8362-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45776.61640046296</v>
+        <v>45708</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19049,7 +19044,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>9.5</v>
+        <v>7.7</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19086,14 +19081,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 8370-2023</t>
+          <t>A 30527-2022</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44977.38424768519</v>
+        <v>44762.44436342592</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19106,7 +19101,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19143,14 +19138,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 12217-2025</t>
+          <t>A 17573-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45729.5358912037</v>
+        <v>45757.65053240741</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19163,7 +19158,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19200,14 +19195,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 22133-2025</t>
+          <t>A 17122-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45785</v>
+        <v>45412</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19220,7 +19215,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>4.7</v>
+        <v>1.7</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19257,14 +19252,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 22537-2025</t>
+          <t>A 9837-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45787</v>
+        <v>44984.85623842593</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19277,7 +19272,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19314,14 +19309,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 13289-2025</t>
+          <t>A 41878-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45735</v>
+        <v>45561</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19333,8 +19328,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G317" t="n">
-        <v>2</v>
+        <v>15.9</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19371,14 +19371,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 27218-2023</t>
+          <t>A 19753-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45096.58238425926</v>
+        <v>45432</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19428,14 +19428,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 36420-2023</t>
+          <t>A 27443-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45152</v>
+        <v>45474</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19485,14 +19485,14 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 17399-2025</t>
+          <t>A 32959-2022</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45757</v>
+        <v>44784</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z320"/>
+  <dimension ref="A1:Z319"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,14 +1284,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 40521-2025</t>
+          <t>A 23860-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45896</v>
+        <v>45078</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1338,45 +1338,49 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
         <v/>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 15321-2023</t>
+          <t>A 66053-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45019</v>
+        <v>44517.63174768518</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1389,7 +1393,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,31 +1427,31 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>Vätteros</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
     </row>
@@ -1461,7 +1465,7 @@
         <v>45810</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1544,14 +1548,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 47146-2025</t>
+          <t>A 15321-2023</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45929</v>
+        <v>45019</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,22 +1567,17 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1593,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1603,49 +1602,45 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Duvhök</t>
+          <t>Vätteros</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 47146-2025 artfynd.xlsx", "A 47146-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 47146-2025 karta.png", "A 47146-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 47146-2025 FSC-klagomål.docx", "A 47146-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 47146-2025 FSC-klagomål mail.docx", "A 47146-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 47146-2025 tillsynsbegäran.docx", "A 47146-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 47146-2025 tillsynsbegäran mail.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 47146-2025 prioriterade fågelarter.docx", "A 47146-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23860-2023</t>
+          <t>A 8363-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45078</v>
+        <v>45708</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1658,16 +1653,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1682,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1692,35 +1687,31 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>Gulsparv</t>
+          <t>Mandelriska</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 8363-2025 artfynd.xlsx", "A 8363-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 8363-2025 karta.png", "A 8363-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 8363-2025 FSC-klagomål.docx", "A 8363-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 8363-2025 FSC-klagomål mail.docx", "A 8363-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 8363-2025 tillsynsbegäran.docx", "A 8363-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 8363-2025 tillsynsbegäran mail.docx", "A 8363-2025")</f>
         <v/>
       </c>
     </row>
@@ -1734,7 +1725,7 @@
         <v>45880</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1812,14 +1803,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 30406-2025</t>
+          <t>A 35077-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45827</v>
+        <v>45527</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1832,7 +1823,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1841,10 +1832,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1859,230 +1850,234 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 35077-2024 artfynd.xlsx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 35077-2024 karta.png", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="U16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/knärot/A 35077-2024 karta knärot.png", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 35077-2024 FSC-klagomål.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 35077-2024 FSC-klagomål mail.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 35077-2024 tillsynsbegäran.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 35077-2024 tillsynsbegäran mail.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 54042-2021</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 30406-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45827</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="Z16">
+      <c r="Z18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 66053-2021</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44517.63174768518</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 54042-2021</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 62973-2025</t>
+          <t>A 40521-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>46009</v>
+        <v>45896</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2095,16 +2090,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>7.8</v>
+        <v>2.6</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2119,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2129,208 +2124,213 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 47146-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45929</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 47146-2025 artfynd.xlsx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 47146-2025 karta.png", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 47146-2025 FSC-klagomål.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 47146-2025 FSC-klagomål mail.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 47146-2025 tillsynsbegäran.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 47146-2025 tillsynsbegäran mail.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 47146-2025 prioriterade fågelarter.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 62973-2025</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 8363-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45708</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Mandelriska</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 8363-2025 artfynd.xlsx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 8363-2025 karta.png", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 8363-2025 FSC-klagomål.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 8363-2025 FSC-klagomål mail.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 8363-2025 tillsynsbegäran.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 8363-2025 tillsynsbegäran mail.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 35077-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 35077-2024 artfynd.xlsx", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 35077-2024 karta.png", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/knärot/A 35077-2024 karta knärot.png", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 35077-2024 FSC-klagomål.docx", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 35077-2024 FSC-klagomål mail.docx", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 35077-2024 tillsynsbegäran.docx", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 35077-2024 tillsynsbegäran mail.docx", "A 35077-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44432</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44607.63090277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44795</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44782</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44286</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44328</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44844</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44690</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3655,14 +3655,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 25970-2022</t>
+          <t>A 13140-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44734</v>
+        <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13140-2021</t>
+          <t>A 25970-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44271</v>
+        <v>44734</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>44694.44246527777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3940,14 +3940,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 16467-2021</t>
+          <t>A 26362-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44292</v>
+        <v>44735</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3997,14 +3997,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31488-2021</t>
+          <t>A 10803-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44369</v>
+        <v>44258</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4054,14 +4054,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52875-2021</t>
+          <t>A 34937-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44467.47119212963</v>
+        <v>44383</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4073,8 +4073,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4111,14 +4116,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59760-2021</t>
+          <t>A 16467-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44494.45789351852</v>
+        <v>44292</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4131,7 +4136,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4168,14 +4173,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 63964-2021</t>
+          <t>A 31488-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44509</v>
+        <v>44369</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4188,7 +4193,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4225,14 +4230,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 61306-2021</t>
+          <t>A 39665-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44498</v>
+        <v>44413</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4245,7 +4250,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4282,14 +4287,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 35391-2022</t>
+          <t>A 11103-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44798</v>
+        <v>44628</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4301,13 +4306,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>5.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4344,14 +4344,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 39665-2021</t>
+          <t>A 43960-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44413</v>
+        <v>44434</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4401,14 +4401,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12389-2021</t>
+          <t>A 54444-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44267</v>
+        <v>44882.59195601852</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>9.4</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4458,14 +4458,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 30539-2022</t>
+          <t>A 13843-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44762.46194444445</v>
+        <v>44649.65836805556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4477,8 +4477,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>10.2</v>
+        <v>11.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4515,14 +4520,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9799-2022</t>
+          <t>A 52875-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44620</v>
+        <v>44467.47119212963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4535,7 +4540,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4572,14 +4577,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 4178-2022</t>
+          <t>A 37045-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44588</v>
+        <v>44806</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4592,7 +4597,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.9</v>
+        <v>2.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4629,14 +4634,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 10894-2022</t>
+          <t>A 12389-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44627</v>
+        <v>44267</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4649,7 +4654,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>9.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4686,14 +4691,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10803-2021</t>
+          <t>A 59746-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44258</v>
+        <v>44494.44803240741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4706,7 +4711,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4743,14 +4748,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 34937-2021</t>
+          <t>A 59760-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44383</v>
+        <v>44494.45789351852</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4762,13 +4767,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4805,14 +4805,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11103-2022</t>
+          <t>A 29515-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44628</v>
+        <v>44753</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4824,8 +4824,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4862,14 +4867,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43960-2021</t>
+          <t>A 63964-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44434</v>
+        <v>44509</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4882,7 +4887,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4919,14 +4924,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26362-2022</t>
+          <t>A 61306-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44735</v>
+        <v>44498</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4939,7 +4944,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4976,14 +4981,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 54444-2022</t>
+          <t>A 52842-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44882.59195601852</v>
+        <v>44467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4996,7 +5001,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5033,14 +5038,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13843-2022</t>
+          <t>A 25694-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44649.65836805556</v>
+        <v>44732</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5052,13 +5057,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>11.8</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5095,14 +5095,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 37045-2022</t>
+          <t>A 2089-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44806</v>
+        <v>44577.00778935185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59746-2021</t>
+          <t>A 51203-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44494.44803240741</v>
+        <v>44460</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5171,8 +5171,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5209,14 +5214,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29515-2022</t>
+          <t>A 35391-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44753</v>
+        <v>44798</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5234,7 +5239,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5271,14 +5276,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 7312-2021</t>
+          <t>A 29699-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44238</v>
+        <v>44755</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5291,7 +5296,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5328,14 +5333,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 52842-2021</t>
+          <t>A 16466-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44467</v>
+        <v>44292</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5348,7 +5353,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5385,14 +5390,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2089-2022</t>
+          <t>A 61327-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44577.00778935185</v>
+        <v>44498.66922453704</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5405,7 +5410,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5442,14 +5447,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51203-2021</t>
+          <t>A 41810-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44460</v>
+        <v>44425</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,13 +5466,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5504,14 +5504,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 25694-2022</t>
+          <t>A 19508-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44732</v>
+        <v>44312.36194444444</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5561,14 +5561,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61327-2021</t>
+          <t>A 30334-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44498.66922453704</v>
+        <v>44760.46356481482</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5618,14 +5618,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 29699-2022</t>
+          <t>A 30539-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44755</v>
+        <v>44762.46194444445</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.7</v>
+        <v>10.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5675,14 +5675,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16466-2021</t>
+          <t>A 25014-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44292</v>
+        <v>45461</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>12.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5732,14 +5732,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19508-2021</t>
+          <t>A 73306-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44312.36194444444</v>
+        <v>44547</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5789,14 +5789,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 41810-2021</t>
+          <t>A 17081-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44425</v>
+        <v>45412</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5846,14 +5846,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30334-2022</t>
+          <t>A 62682-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44760.46356481482</v>
+        <v>45271</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5903,14 +5903,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 73306-2021</t>
+          <t>A 27222-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44547</v>
+        <v>45096.58590277778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5841-2022</t>
+          <t>A 17972-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44596.6127662037</v>
+        <v>45761.36483796296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6017,14 +6017,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5126-2023</t>
+          <t>A 62896-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44958</v>
+        <v>45272.42737268518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>14.3</v>
+        <v>13.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40029-2025</t>
+          <t>A 6938-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45894</v>
+        <v>45343</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6131,14 +6131,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 40027-2025</t>
+          <t>A 53209-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45894.36900462963</v>
+        <v>44468</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>11.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6188,14 +6188,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5025-2023</t>
+          <t>A 9799-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44958.56039351852</v>
+        <v>44620</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6245,14 +6245,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 73901-2021</t>
+          <t>A 73310-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44552</v>
+        <v>44547</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>6.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6302,14 +6302,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28228-2024</t>
+          <t>A 26829-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45477</v>
+        <v>45093.54527777778</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6359,14 +6359,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17437-2025</t>
+          <t>A 13895-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45757</v>
+        <v>45391</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6378,8 +6378,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6416,14 +6421,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 17443-2025</t>
+          <t>A 37339-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45757.43275462963</v>
+        <v>44806</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6436,7 +6441,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6473,14 +6478,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 30914-2023</t>
+          <t>A 26815-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45113</v>
+        <v>45093.531875</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6493,7 +6498,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6530,14 +6535,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20369-2024</t>
+          <t>A 17565-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45435</v>
+        <v>45757.64024305555</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6550,7 +6555,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6587,14 +6592,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7272-2022</t>
+          <t>A 25443-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44606.4540625</v>
+        <v>45089</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6607,7 +6612,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6644,14 +6649,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 73033-2021</t>
+          <t>A 45467-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44550</v>
+        <v>44845</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6664,7 +6669,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.9</v>
+        <v>4.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6701,14 +6706,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13382-2024</t>
+          <t>A 15545-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45387</v>
+        <v>45401</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6720,8 +6725,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6758,14 +6768,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26829-2023</t>
+          <t>A 58705-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45093.54527777778</v>
+        <v>45635</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6777,8 +6787,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6815,14 +6830,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 38517-2024</t>
+          <t>A 12311-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45546.56068287037</v>
+        <v>45378.63476851852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6835,7 +6850,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6872,14 +6887,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 57236-2023</t>
+          <t>A 12416-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45245.54427083334</v>
+        <v>44998</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6891,8 +6906,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6929,14 +6949,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 57237-2023</t>
+          <t>A 4178-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45245</v>
+        <v>44588</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6949,7 +6969,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>18.2</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6986,14 +7006,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16574-2025</t>
+          <t>A 14306-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45752.50203703704</v>
+        <v>45011</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7006,7 +7026,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7043,14 +7063,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 18184-2024</t>
+          <t>A 37486-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45420</v>
+        <v>44809.55424768518</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7062,13 +7082,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>8.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7105,14 +7120,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 19524-2024</t>
+          <t>A 10647-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45429.6306712963</v>
+        <v>45368.47725694445</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7125,7 +7140,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7162,14 +7177,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5810-2023</t>
+          <t>A 5025-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44963.48369212963</v>
+        <v>44958.56039351852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7182,7 +7197,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7219,14 +7234,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 3779-2025</t>
+          <t>A 31974-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45681</v>
+        <v>45107</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7238,13 +7253,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>BillerudKorsnäs AB</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7281,14 +7291,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47152-2023</t>
+          <t>A 5957-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45201</v>
+        <v>45336</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7301,7 +7311,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7338,14 +7348,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 39334-2025</t>
+          <t>A 56552-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45889.49049768518</v>
+        <v>44887</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7357,8 +7367,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7395,14 +7410,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29582-2024</t>
+          <t>A 20238-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45484</v>
+        <v>45434</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7414,13 +7429,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7457,14 +7467,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 63919-2021</t>
+          <t>A 36644-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44509</v>
+        <v>45153.55092592593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7477,7 +7487,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7514,14 +7524,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 26840-2023</t>
+          <t>A 21528-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45093.5540625</v>
+        <v>45441.59262731481</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7534,7 +7544,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7571,14 +7581,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 18341-2025</t>
+          <t>A 7922-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45762.51554398148</v>
+        <v>44608.72004629629</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7591,7 +7601,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7628,14 +7638,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4870-2024</t>
+          <t>A 19053-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45329</v>
+        <v>45427</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7648,7 +7658,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>8.4</v>
+        <v>3.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7685,14 +7695,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 36646-2023</t>
+          <t>A 42557-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45153.55540509259</v>
+        <v>44831</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7705,7 +7715,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.4</v>
+        <v>13.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7742,14 +7752,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41113-2025</t>
+          <t>A 23189-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45898.46057870371</v>
+        <v>45450</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7761,8 +7771,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>4.2</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7799,14 +7814,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17239-2025</t>
+          <t>A 24543-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45756.47972222222</v>
+        <v>45460</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7818,8 +7833,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>5.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7856,14 +7876,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 22822-2024</t>
+          <t>A 62905-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45448</v>
+        <v>45272</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7876,7 +7896,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>13.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7913,14 +7933,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 19053-2024</t>
+          <t>A 2253-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45427</v>
+        <v>45310.30798611111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7933,7 +7953,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7970,14 +7990,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 4603-2025</t>
+          <t>A 4870-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45687</v>
+        <v>45329</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7989,13 +8009,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8032,14 +8047,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 11601-2025</t>
+          <t>A 10894-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45727</v>
+        <v>44627</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8067,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8089,14 +8104,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 12175-2024</t>
+          <t>A 5126-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45377</v>
+        <v>44958</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8109,7 +8124,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.6</v>
+        <v>14.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8146,14 +8161,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 58514-2022</t>
+          <t>A 69847-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44902.40304398148</v>
+        <v>44532</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8166,7 +8181,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8203,14 +8218,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 31561-2023</t>
+          <t>A 58514-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45117.39696759259</v>
+        <v>44902.40304398148</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8223,7 +8238,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8260,14 +8275,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13121-2023</t>
+          <t>A 13382-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45002</v>
+        <v>45387</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8280,7 +8295,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8317,14 +8332,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 53209-2021</t>
+          <t>A 71706-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44468</v>
+        <v>44543.44349537037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8337,7 +8352,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>11.6</v>
+        <v>1.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8374,14 +8389,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 39145-2021</t>
+          <t>A 21311-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44412</v>
+        <v>45440</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8393,8 +8408,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8431,14 +8451,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 42143-2025</t>
+          <t>A 10892-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45904.36905092592</v>
+        <v>44627.77988425926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8451,7 +8471,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8488,14 +8508,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 37119-2024</t>
+          <t>A 39145-2021</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45539.53746527778</v>
+        <v>44412</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8508,7 +8528,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8545,14 +8565,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 29577-2024</t>
+          <t>A 41878-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45484</v>
+        <v>45561</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8570,7 +8590,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>10.1</v>
+        <v>15.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8607,14 +8627,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 20784-2025</t>
+          <t>A 47152-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45776.61640046296</v>
+        <v>45201</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8647,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>9.5</v>
+        <v>0.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8664,14 +8684,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 17910-2024</t>
+          <t>A 32302-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45419</v>
+        <v>45512</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8683,8 +8703,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8721,14 +8746,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 2253-2024</t>
+          <t>A 25840-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45310.30798611111</v>
+        <v>45467</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8766,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8778,14 +8803,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8370-2023</t>
+          <t>A 22289-2021</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44977.38424768519</v>
+        <v>44326</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8823,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8835,14 +8860,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 12217-2025</t>
+          <t>A 53755-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45729.5358912037</v>
+        <v>45615.49748842593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8880,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.6</v>
+        <v>6.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8892,14 +8917,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 6721-2025</t>
+          <t>A 31362-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45700</v>
+        <v>45505</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8911,13 +8936,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8954,14 +8974,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 22133-2025</t>
+          <t>A 28228-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45785</v>
+        <v>45477</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8974,7 +8994,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9011,14 +9031,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 49300-2022</t>
+          <t>A 17122-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44861.47716435185</v>
+        <v>45412</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9031,7 +9051,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9068,14 +9088,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 22537-2025</t>
+          <t>A 62557-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45787</v>
+        <v>44924.77230324074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9125,14 +9145,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 5957-2024</t>
+          <t>A 7991-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45336</v>
+        <v>45350</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9145,7 +9165,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9182,14 +9202,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 44160-2025</t>
+          <t>A 27218-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45915.59703703703</v>
+        <v>45096.58238425926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9201,13 +9221,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>9.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9244,14 +9259,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 20238-2024</t>
+          <t>A 53138-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45434</v>
+        <v>45229.34055555556</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9264,7 +9279,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9301,14 +9316,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 44497-2025</t>
+          <t>A 16772-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45916.67107638889</v>
+        <v>45411</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9321,7 +9336,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9358,14 +9373,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56219-2023</t>
+          <t>A 36420-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45240.77920138889</v>
+        <v>45152</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9378,7 +9393,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9415,14 +9430,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 680-2024</t>
+          <t>A 5810-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45300</v>
+        <v>44963.48369212963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9435,7 +9450,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9472,14 +9487,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 30339-2022</t>
+          <t>A 39635-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44760.47674768518</v>
+        <v>45167.52609953703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9492,7 +9507,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>5.3</v>
+        <v>1.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9529,14 +9544,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 12350-2023</t>
+          <t>A 66056-2021</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44998</v>
+        <v>44517.6359837963</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9548,13 +9563,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9591,14 +9601,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13289-2025</t>
+          <t>A 43242-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45735</v>
+        <v>44432</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9621,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9648,14 +9658,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 24543-2024</t>
+          <t>A 17399-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45460</v>
+        <v>45757</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,13 +9677,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9710,14 +9715,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 45728-2025</t>
+          <t>A 5236-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45923.45925925926</v>
+        <v>44956</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9730,7 +9735,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9767,14 +9772,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 975-2025</t>
+          <t>A 19524-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45665</v>
+        <v>45429.6306712963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9787,7 +9792,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9824,14 +9829,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 45784-2025</t>
+          <t>A 16574-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45923.55923611111</v>
+        <v>45752.50203703704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9844,7 +9849,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9881,14 +9886,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 45868-2025</t>
+          <t>A 3065-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45923.65232638889</v>
+        <v>45316.40590277778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9901,7 +9906,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9938,14 +9943,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62557-2022</t>
+          <t>A 62947-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44924.77230324074</v>
+        <v>45272.54398148148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9958,7 +9963,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9995,14 +10000,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 45898-2025</t>
+          <t>A 12350-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45923.67954861111</v>
+        <v>44998</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,8 +10019,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10052,14 +10062,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45744-2025</t>
+          <t>A 12082-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45923.47619212963</v>
+        <v>45377.54760416667</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10072,7 +10082,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10109,14 +10119,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45750-2025</t>
+          <t>A 12084-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45923.48400462963</v>
+        <v>45377.55229166667</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10129,7 +10139,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10166,14 +10176,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 27218-2023</t>
+          <t>A 29260-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45096.58238425926</v>
+        <v>45824</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10186,7 +10196,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10223,14 +10233,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 21402-2024</t>
+          <t>A 29256-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45441</v>
+        <v>45824.38387731482</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10243,7 +10253,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10280,14 +10290,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 45812-2025</t>
+          <t>A 7993-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45923.58844907407</v>
+        <v>45350.63241898148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10300,7 +10310,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10337,14 +10347,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 43243-2025</t>
+          <t>A 20954-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45910</v>
+        <v>45061</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10357,7 +10367,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10394,14 +10404,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 36420-2023</t>
+          <t>A 33081-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45152</v>
+        <v>44785</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10414,7 +10424,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10451,14 +10461,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 29736-2023</t>
+          <t>A 29645-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45107.45405092592</v>
+        <v>45825.46574074074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10471,7 +10481,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10508,14 +10518,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 53138-2023</t>
+          <t>A 19566-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45229.34055555556</v>
+        <v>45049</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10528,7 +10538,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10565,14 +10575,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 17399-2025</t>
+          <t>A 17443-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45757</v>
+        <v>45757.43275462963</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10585,7 +10595,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10622,14 +10632,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 19566-2023</t>
+          <t>A 30411-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45049</v>
+        <v>45827</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10642,7 +10652,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10679,14 +10689,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 29762-2023</t>
+          <t>A 30563-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45107.47733796296</v>
+        <v>45831.40098379629</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10699,7 +10709,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10736,14 +10746,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 16092-2021</t>
+          <t>A 29762-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44289</v>
+        <v>45107.47733796296</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10756,7 +10766,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10793,14 +10803,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 29256-2025</t>
+          <t>A 7272-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45824.38387731482</v>
+        <v>44606.4540625</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10813,7 +10823,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10850,14 +10860,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8364-2025</t>
+          <t>A 22822-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45708</v>
+        <v>45448</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10870,7 +10880,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10907,14 +10917,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 29260-2025</t>
+          <t>A 31190-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10927,7 +10937,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10964,14 +10974,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 29645-2025</t>
+          <t>A 20369-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45825.46574074074</v>
+        <v>45435</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10984,7 +10994,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11021,14 +11031,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62896-2023</t>
+          <t>A 11601-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45272.42737268518</v>
+        <v>45727</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11041,7 +11051,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>13.8</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11078,14 +11088,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 69847-2021</t>
+          <t>A 4976-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44532</v>
+        <v>45329</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11098,7 +11108,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11135,14 +11145,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 30411-2025</t>
+          <t>A 29736-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45827</v>
+        <v>45107.45405092592</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11155,7 +11165,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11192,14 +11202,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 30563-2025</t>
+          <t>A 59542-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45831.40098379629</v>
+        <v>44907</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11212,7 +11222,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11249,14 +11259,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 58705-2024</t>
+          <t>A 21402-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45635</v>
+        <v>45441</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11268,13 +11278,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11311,14 +11316,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 31190-2025</t>
+          <t>A 12175-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45831</v>
+        <v>45377</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11331,7 +11336,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11368,14 +11373,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 22347-2023</t>
+          <t>A 32327-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45070.57208333333</v>
+        <v>45836.44756944444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11388,7 +11393,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11425,14 +11430,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 47507-2025</t>
+          <t>A 16092-2021</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45930.86842592592</v>
+        <v>44289</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11445,7 +11450,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11482,14 +11487,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 32327-2025</t>
+          <t>A 57233-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45836.44756944444</v>
+        <v>45245.54103009259</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11502,7 +11507,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11539,14 +11544,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 49422-2025</t>
+          <t>A 30527-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45938</v>
+        <v>44762.44436342592</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11559,7 +11564,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11596,14 +11601,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 49425-2025</t>
+          <t>A 71781-2021</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45938</v>
+        <v>44539</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11615,8 +11620,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11653,14 +11663,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 33081-2022</t>
+          <t>A 31930-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44785</v>
+        <v>45510</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11673,7 +11683,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11710,14 +11720,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 25840-2024</t>
+          <t>A 22347-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45467</v>
+        <v>45070.57208333333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11730,7 +11740,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11767,14 +11777,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 8359-2025</t>
+          <t>A 4603-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45708</v>
+        <v>45687</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11786,8 +11796,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11824,14 +11839,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 37676-2023</t>
+          <t>A 73901-2021</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45159</v>
+        <v>44552</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11844,7 +11859,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11881,14 +11896,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49507-2025</t>
+          <t>A 5214-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45939.37804398148</v>
+        <v>45691</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11901,7 +11916,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11938,14 +11953,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 6751-2025</t>
+          <t>A 4273-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45700.6130787037</v>
+        <v>45685</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11958,7 +11973,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11995,14 +12010,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 35426-2025</t>
+          <t>A 56220-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45855</v>
+        <v>45240.78313657407</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12015,7 +12030,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12052,14 +12067,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 35425-2025</t>
+          <t>A 26840-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45855</v>
+        <v>45093.5540625</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12072,7 +12087,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12109,14 +12124,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 50640-2023</t>
+          <t>A 13820-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45217.46871527778</v>
+        <v>45390</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12129,7 +12144,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12166,14 +12181,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 34580-2022</t>
+          <t>A 19052-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44795</v>
+        <v>45427.76670138889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12186,7 +12201,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.9</v>
+        <v>7.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12223,14 +12238,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 12000-2022</t>
+          <t>A 56219-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44635</v>
+        <v>45240.77920138889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12243,7 +12258,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12280,14 +12295,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 42557-2022</t>
+          <t>A 6721-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44831</v>
+        <v>45700</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12299,8 +12314,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>13.7</v>
+        <v>5.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12337,14 +12357,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 35253-2022</t>
+          <t>A 8359-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44797</v>
+        <v>45708</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12357,7 +12377,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12394,14 +12414,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 38582-2024</t>
+          <t>A 50640-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45546</v>
+        <v>45217.46871527778</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12413,13 +12433,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>5.7</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12456,14 +12471,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 10647-2024</t>
+          <t>A 17437-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45368.47725694445</v>
+        <v>45757</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12476,7 +12491,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12513,14 +12528,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 15545-2024</t>
+          <t>A 17910-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45401</v>
+        <v>45419</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12532,13 +12547,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>3.8</v>
+        <v>6.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12575,14 +12585,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5280-2022</t>
+          <t>A 5841-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44593</v>
+        <v>44596.6127662037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12594,13 +12604,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>37.1</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12637,14 +12642,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 13820-2024</t>
+          <t>A 12000-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45390</v>
+        <v>44635</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12657,7 +12662,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12694,14 +12699,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 17565-2025</t>
+          <t>A 22319-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45757.64024305555</v>
+        <v>44326.48232638889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12714,7 +12719,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12751,14 +12756,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 31362-2024</t>
+          <t>A 8361-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45505</v>
+        <v>45708</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12771,7 +12776,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12808,14 +12813,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 37515-2025</t>
+          <t>A 40935-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45877</v>
+        <v>44823</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12827,8 +12832,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12865,14 +12875,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 37495-2025</t>
+          <t>A 11597-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45877</v>
+        <v>45727</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12885,7 +12895,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12922,14 +12932,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 37517-2025</t>
+          <t>A 36646-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45877</v>
+        <v>45153.55540509259</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12942,7 +12952,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12979,14 +12989,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 37696-2025</t>
+          <t>A 35425-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45880</v>
+        <v>45855</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12999,7 +13009,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13036,14 +13046,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 32302-2024</t>
+          <t>A 35426-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45512</v>
+        <v>45855</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13055,13 +13065,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13098,14 +13103,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 38002-2025</t>
+          <t>A 31964-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45881.89586805556</v>
+        <v>45107</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13118,7 +13123,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13155,14 +13160,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 51509-2025</t>
+          <t>A 35253-2022</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45950</v>
+        <v>44797</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13175,7 +13180,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13212,14 +13217,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 3065-2024</t>
+          <t>A 38582-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45316.40590277778</v>
+        <v>45546</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,8 +13236,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13269,14 +13279,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 17081-2024</t>
+          <t>A 3779-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45412</v>
+        <v>45681</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,8 +13298,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>BillerudKorsnäs AB</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>0.8</v>
+        <v>7.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13326,14 +13341,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 7993-2024</t>
+          <t>A 29724-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45350.63241898148</v>
+        <v>45107</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13346,7 +13361,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13383,14 +13398,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 52699-2025</t>
+          <t>A 8362-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45956.7752662037</v>
+        <v>45708</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13403,7 +13418,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>3.9</v>
+        <v>7.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13440,14 +13455,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 45467-2022</t>
+          <t>A 29426-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44845</v>
+        <v>44753</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,8 +13474,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>4.6</v>
+        <v>14.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13497,14 +13517,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 5011-2024</t>
+          <t>A 972-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45329</v>
+        <v>45665</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13517,7 +13537,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>22</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13554,14 +13574,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 53137-2023</t>
+          <t>A 5011-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45229.33768518519</v>
+        <v>45329</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13574,7 +13594,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13611,14 +13631,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 52700-2025</t>
+          <t>A 49300-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45956.78072916667</v>
+        <v>44861.47716435185</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13631,7 +13651,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13668,14 +13688,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 57233-2023</t>
+          <t>A 30339-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45245.54103009259</v>
+        <v>44760.47674768518</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13688,7 +13708,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.4</v>
+        <v>5.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13725,14 +13745,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 9144-2024</t>
+          <t>A 16635-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45358.37327546296</v>
+        <v>45408.59462962963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13745,7 +13765,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13782,14 +13802,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 62675-2023</t>
+          <t>A 6751-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45271</v>
+        <v>45700.6130787037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13802,7 +13822,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13839,14 +13859,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 62682-2023</t>
+          <t>A 37676-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45271</v>
+        <v>45159</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13859,7 +13879,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13896,14 +13916,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 53863-2025</t>
+          <t>A 975-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45961.38152777778</v>
+        <v>45665</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13916,7 +13936,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13953,14 +13973,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 5214-2025</t>
+          <t>A 63919-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45691</v>
+        <v>44509</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13973,7 +13993,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.5</v>
+        <v>5.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14010,14 +14030,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 53866-2025</t>
+          <t>A 37696-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45961.385625</v>
+        <v>45880</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14030,7 +14050,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14067,14 +14087,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 4982-2024</t>
+          <t>A 37517-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45329</v>
+        <v>45877</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14087,7 +14107,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14124,14 +14144,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 62947-2023</t>
+          <t>A 37515-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45272.54398148148</v>
+        <v>45877</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14144,7 +14164,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14181,14 +14201,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 31930-2024</t>
+          <t>A 53137-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45510</v>
+        <v>45229.33768518519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14201,7 +14221,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14238,14 +14258,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 71706-2021</t>
+          <t>A 8788-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44543.44349537037</v>
+        <v>45356</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14258,7 +14278,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14295,14 +14315,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 11597-2025</t>
+          <t>A 680-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45727</v>
+        <v>45300</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14315,7 +14335,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14352,14 +14372,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 40935-2022</t>
+          <t>A 9144-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44823</v>
+        <v>45358.37327546296</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14371,13 +14391,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14414,14 +14429,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 6938-2024</t>
+          <t>A 46299-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45343</v>
+        <v>44847.75081018519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14434,7 +14449,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14471,14 +14486,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 58751-2025</t>
+          <t>A 37495-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45986.64163194445</v>
+        <v>45877</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14491,7 +14506,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14528,14 +14543,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 567-2026</t>
+          <t>A 38002-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46029.46965277778</v>
+        <v>45881.89586805556</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14548,7 +14563,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14585,14 +14600,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 58747-2025</t>
+          <t>A 18341-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45986.63916666667</v>
+        <v>45762.51554398148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14605,7 +14620,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14642,14 +14657,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 614-2026</t>
+          <t>A 62554-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46024</v>
+        <v>44924</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14662,7 +14677,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14699,14 +14714,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 14306-2023</t>
+          <t>A 52848-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45011</v>
+        <v>44467</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14719,7 +14734,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14756,14 +14771,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 18321-2025</t>
+          <t>A 13121-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45762</v>
+        <v>45002</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14776,7 +14791,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14813,14 +14828,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 17972-2025</t>
+          <t>A 57236-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45761.36483796296</v>
+        <v>45245.54427083334</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14833,7 +14848,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14870,14 +14885,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 27222-2023</t>
+          <t>A 57237-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45096.58590277778</v>
+        <v>45245</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14890,7 +14905,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.3</v>
+        <v>18.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14927,14 +14942,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 40522-2025</t>
+          <t>A 5280-2022</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45896</v>
+        <v>44593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,8 +14961,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G241" t="n">
-        <v>0.9</v>
+        <v>37.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14984,14 +15004,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 40524-2025</t>
+          <t>A 6713-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45896</v>
+        <v>45700</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,8 +15023,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15041,14 +15066,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 59617-2025</t>
+          <t>A 29577-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45992.37861111111</v>
+        <v>45484</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,8 +15085,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>10.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15098,14 +15128,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 36644-2023</t>
+          <t>A 27443-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45153.55092592593</v>
+        <v>45474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15118,7 +15148,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15155,14 +15185,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 8788-2024</t>
+          <t>A 33948-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45356</v>
+        <v>45124</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15175,7 +15205,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15212,14 +15242,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 2581-2026</t>
+          <t>A 32959-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46037.53079861111</v>
+        <v>44784</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15232,7 +15262,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15269,14 +15299,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 7931-2025</t>
+          <t>A 19753-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45706</v>
+        <v>45432</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,13 +15318,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G247" t="n">
-        <v>13.8</v>
+        <v>1.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15331,14 +15356,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 62554-2022</t>
+          <t>A 13320-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44924</v>
+        <v>45386.77172453704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15351,7 +15376,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15388,14 +15413,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 21528-2024</t>
+          <t>A 38517-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45441.59262731481</v>
+        <v>45546.56068287037</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15408,7 +15433,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15445,14 +15470,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 20954-2023</t>
+          <t>A 19155-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45061</v>
+        <v>45769</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15465,7 +15490,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15502,14 +15527,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 60752-2025</t>
+          <t>A 37119-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45999.38148148148</v>
+        <v>45539.53746527778</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15522,7 +15547,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15559,14 +15584,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 3054-2026</t>
+          <t>A 4982-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46039.37369212963</v>
+        <v>45329</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15579,7 +15604,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15616,14 +15641,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 60656-2025</t>
+          <t>A 18321-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45996.47914351852</v>
+        <v>45762</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15636,7 +15661,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15673,14 +15698,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 19052-2024</t>
+          <t>A 18184-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45427.76670138889</v>
+        <v>45420</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15692,8 +15717,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>7.7</v>
+        <v>1.2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15730,14 +15760,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 10892-2022</t>
+          <t>A 55227-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44627.77988425926</v>
+        <v>45231</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15750,7 +15780,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15787,14 +15817,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 29426-2022</t>
+          <t>A 9837-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44753</v>
+        <v>44984.85623842593</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15806,13 +15836,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>14.4</v>
+        <v>0.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15849,14 +15874,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 12416-2023</t>
+          <t>A 56386-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44998</v>
+        <v>44890</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15868,13 +15893,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15911,14 +15931,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 44048-2023</t>
+          <t>A 39334-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45188.38348379629</v>
+        <v>45889.49049768518</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15931,7 +15951,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15968,14 +15988,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 43242-2021</t>
+          <t>A 7931-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44432</v>
+        <v>45706</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,8 +16007,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G259" t="n">
-        <v>2.1</v>
+        <v>13.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16025,14 +16050,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 62905-2023</t>
+          <t>A 1556-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45272</v>
+        <v>45670</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16045,7 +16070,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>13.8</v>
+        <v>1.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16082,14 +16107,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 21311-2024</t>
+          <t>A 19802-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45440</v>
+        <v>45432</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16107,7 +16132,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16144,14 +16169,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 37486-2022</t>
+          <t>A 34580-2022</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44809.55424768518</v>
+        <v>44795</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16164,7 +16189,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>8.6</v>
+        <v>0.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16201,14 +16226,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 46299-2022</t>
+          <t>A 73033-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44847.75081018519</v>
+        <v>44550</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16221,7 +16246,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16258,14 +16283,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 5236-2023</t>
+          <t>A 909-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44956</v>
+        <v>45664</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16278,7 +16303,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16315,14 +16340,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 56220-2023</t>
+          <t>A 40027-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45240.78313657407</v>
+        <v>45894.36900462963</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16335,7 +16360,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16372,14 +16397,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 53755-2024</t>
+          <t>A 40029-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45615.49748842593</v>
+        <v>45894</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16392,7 +16417,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16429,14 +16454,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 972-2025</t>
+          <t>A 17239-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45665</v>
+        <v>45756.47972222222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16449,7 +16474,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16486,14 +16511,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 909-2025</t>
+          <t>A 41113-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45664</v>
+        <v>45898.46057870371</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16506,7 +16531,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16543,14 +16568,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 62967-2025</t>
+          <t>A 64304-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>46009</v>
+        <v>45280</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16563,7 +16588,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16600,14 +16625,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 62941-2025</t>
+          <t>A 29582-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>46009</v>
+        <v>45484</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16619,8 +16644,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G270" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16657,14 +16687,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 13895-2024</t>
+          <t>A 42143-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45391</v>
+        <v>45904.36905092592</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16676,13 +16706,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G271" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16719,14 +16744,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 59391-2025</t>
+          <t>A 8364-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45989</v>
+        <v>45708</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16739,7 +16764,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16776,14 +16801,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 29724-2023</t>
+          <t>A 62675-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45107</v>
+        <v>45271</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16796,7 +16821,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16833,14 +16858,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 62955-2025</t>
+          <t>A 48553-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46009</v>
+        <v>45208.40232638889</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16853,7 +16878,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16890,14 +16915,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 56552-2022</t>
+          <t>A 17573-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44887</v>
+        <v>45757.65053240741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16909,13 +16934,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16952,14 +16972,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 63063-2025</t>
+          <t>A 44497-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>46009</v>
+        <v>45916.67107638889</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16972,7 +16992,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17009,14 +17029,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 31974-2023</t>
+          <t>A 31561-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45107</v>
+        <v>45117.39696759259</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17029,7 +17049,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17066,14 +17086,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 19802-2024</t>
+          <t>A 44160-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45432</v>
+        <v>45915.59703703703</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17087,11 +17107,11 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17128,14 +17148,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 16635-2024</t>
+          <t>A 44048-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45408.59462962963</v>
+        <v>45188.38348379629</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17148,7 +17168,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17185,14 +17205,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 22319-2021</t>
+          <t>A 30914-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44326.48232638889</v>
+        <v>45113</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17205,7 +17225,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17242,14 +17262,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 4273-2025</t>
+          <t>A 45868-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45685</v>
+        <v>45923.65232638889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17262,7 +17282,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17299,14 +17319,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 7922-2022</t>
+          <t>A 45812-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44608.72004629629</v>
+        <v>45923.58844907407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17319,7 +17339,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17356,14 +17376,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 1556-2025</t>
+          <t>A 43243-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45670</v>
+        <v>45910</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17376,7 +17396,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17413,14 +17433,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 12311-2024</t>
+          <t>A 20784-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45378.63476851852</v>
+        <v>45776.61640046296</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17433,7 +17453,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17470,14 +17490,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 33948-2023</t>
+          <t>A 45784-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45124</v>
+        <v>45923.55923611111</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17490,7 +17510,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17527,14 +17547,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 13320-2024</t>
+          <t>A 45728-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45386.77172453704</v>
+        <v>45923.45925925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17547,7 +17567,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17584,14 +17604,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 55227-2023</t>
+          <t>A 45898-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45231</v>
+        <v>45923.67954861111</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17604,7 +17624,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17641,14 +17661,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 25014-2024</t>
+          <t>A 45750-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45461</v>
+        <v>45923.48400462963</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17661,7 +17681,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>12.8</v>
+        <v>2.6</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17698,14 +17718,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 31964-2023</t>
+          <t>A 45744-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45107</v>
+        <v>45923.47619212963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17718,7 +17738,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17755,14 +17775,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 12082-2024</t>
+          <t>A 8370-2023</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45377.54760416667</v>
+        <v>44977.38424768519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17775,7 +17795,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17812,14 +17832,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 12084-2024</t>
+          <t>A 12217-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45377.55229166667</v>
+        <v>45729.5358912037</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17832,7 +17852,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17869,14 +17889,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 4976-2024</t>
+          <t>A 47507-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45329</v>
+        <v>45930.86842592592</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17889,7 +17909,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>5.1</v>
+        <v>2.9</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17926,14 +17946,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 64304-2023</t>
+          <t>A 22133-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45280</v>
+        <v>45785</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17946,7 +17966,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17983,14 +18003,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 48553-2023</t>
+          <t>A 49425-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45208.40232638889</v>
+        <v>45938</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18003,7 +18023,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18040,14 +18060,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 26815-2023</t>
+          <t>A 49422-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45093.531875</v>
+        <v>45938</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18060,7 +18080,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18097,14 +18117,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 16772-2024</t>
+          <t>A 22537-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45411</v>
+        <v>45787</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18117,7 +18137,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18154,14 +18174,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 25443-2023</t>
+          <t>A 49507-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45089</v>
+        <v>45939.37804398148</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18174,7 +18194,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18211,14 +18231,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 66056-2021</t>
+          <t>A 51509-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44517.6359837963</v>
+        <v>45950</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18231,7 +18251,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18268,14 +18288,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 23189-2024</t>
+          <t>A 52700-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45450</v>
+        <v>45956.78072916667</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18287,13 +18307,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G299" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18330,14 +18345,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 7991-2024</t>
+          <t>A 52699-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45350</v>
+        <v>45956.7752662037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18350,7 +18365,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18387,14 +18402,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 22289-2021</t>
+          <t>A 13289-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44326</v>
+        <v>45735</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18407,7 +18422,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18444,14 +18459,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 59542-2022</t>
+          <t>A 53866-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44907</v>
+        <v>45961.385625</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18464,7 +18479,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18501,14 +18516,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 19155-2025</t>
+          <t>A 53863-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45769</v>
+        <v>45961.38152777778</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18521,7 +18536,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18558,14 +18573,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 52848-2021</t>
+          <t>A 58747-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44467</v>
+        <v>45986.63916666667</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18578,7 +18593,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18615,14 +18630,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 8361-2025</t>
+          <t>A 58751-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45708</v>
+        <v>45986.64163194445</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18635,7 +18650,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18672,14 +18687,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 73310-2021</t>
+          <t>A 567-2026</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44547</v>
+        <v>46029.46965277778</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18692,7 +18707,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>6.2</v>
+        <v>2.6</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18729,14 +18744,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 39635-2023</t>
+          <t>A 614-2026</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45167.52609953703</v>
+        <v>46024</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18749,7 +18764,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18786,14 +18801,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 37339-2022</t>
+          <t>A 59617-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44806</v>
+        <v>45992.37861111111</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18806,7 +18821,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18843,14 +18858,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 56386-2022</t>
+          <t>A 40522-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44890</v>
+        <v>45896</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18863,7 +18878,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18900,14 +18915,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 71781-2021</t>
+          <t>A 40524-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>44539</v>
+        <v>45896</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18919,13 +18934,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G310" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18962,14 +18972,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 6713-2025</t>
+          <t>A 60656-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45700</v>
+        <v>45996.47914351852</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18981,13 +18991,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G311" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19024,14 +19029,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 8362-2025</t>
+          <t>A 2581-2026</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45708</v>
+        <v>46037.53079861111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19044,7 +19049,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>7.7</v>
+        <v>0.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19081,14 +19086,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 30527-2022</t>
+          <t>A 60752-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44762.44436342592</v>
+        <v>45999.38148148148</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19101,7 +19106,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19138,14 +19143,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 17573-2025</t>
+          <t>A 3054-2026</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45757.65053240741</v>
+        <v>46039.37369212963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19158,7 +19163,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19195,14 +19200,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 17122-2024</t>
+          <t>A 63063-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45412</v>
+        <v>46009</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19215,7 +19220,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19252,14 +19257,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 9837-2023</t>
+          <t>A 62967-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44984.85623842593</v>
+        <v>46009</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19272,7 +19277,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19309,14 +19314,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 41878-2024</t>
+          <t>A 62941-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45561</v>
+        <v>46009</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19328,13 +19333,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G317" t="n">
-        <v>15.9</v>
+        <v>1.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19371,14 +19371,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 19753-2024</t>
+          <t>A 62955-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45432</v>
+        <v>46009</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19425,17 +19425,17 @@
       </c>
       <c r="R318" s="2" t="inlineStr"/>
     </row>
-    <row r="319" ht="15" customHeight="1">
+    <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 27443-2024</t>
+          <t>A 59391-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45474</v>
+        <v>45989</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19481,63 +19481,6 @@
         <v>0</v>
       </c>
       <c r="R319" s="2" t="inlineStr"/>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>A 32959-2022</t>
-        </is>
-      </c>
-      <c r="B320" s="1" t="n">
-        <v>44784</v>
-      </c>
-      <c r="C320" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D320" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E320" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G320" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="n">
-        <v>0</v>
-      </c>
-      <c r="K320" t="n">
-        <v>0</v>
-      </c>
-      <c r="L320" t="n">
-        <v>0</v>
-      </c>
-      <c r="M320" t="n">
-        <v>0</v>
-      </c>
-      <c r="N320" t="n">
-        <v>0</v>
-      </c>
-      <c r="O320" t="n">
-        <v>0</v>
-      </c>
-      <c r="P320" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q320" t="n">
-        <v>0</v>
-      </c>
-      <c r="R320" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,14 +1284,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 23860-2023</t>
+          <t>A 15321-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45078</v>
+        <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1338,999 +1338,999 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Vätteros</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 26662-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Skogsklocka</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 40521-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45896</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 23860-2023</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
           <t>Gulsparv</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="Z10">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 37700-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45880</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 30406-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45827</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 47146-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45929</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 47146-2025 artfynd.xlsx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 47146-2025 karta.png", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 47146-2025 FSC-klagomål.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 47146-2025 FSC-klagomål mail.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 47146-2025 tillsynsbegäran.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 47146-2025 tillsynsbegäran mail.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 47146-2025 prioriterade fågelarter.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 66053-2021</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>44517.63174768518</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1.4</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 26662-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 54042-2021</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H18" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>1</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 15321-2023</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45019</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 62973-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Vätteros</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
         <is>
           <t>A 8363-2025</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B20" s="1" t="n">
         <v>45708</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C20" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>1.7</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R20" s="2" t="inlineStr">
         <is>
           <t>Mandelriska</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 8363-2025 artfynd.xlsx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 8363-2025 karta.png", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 8363-2025 FSC-klagomål.docx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 8363-2025 FSC-klagomål mail.docx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 8363-2025 tillsynsbegäran.docx", "A 8363-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 8363-2025 tillsynsbegäran mail.docx", "A 8363-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 37700-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45880</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 35077-2024</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 35077-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 35077-2024 artfynd.xlsx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 35077-2024 karta.png", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="U16">
+      <c r="U21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/knärot/A 35077-2024 karta knärot.png", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 35077-2024 FSC-klagomål.docx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 35077-2024 FSC-klagomål mail.docx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 35077-2024 tillsynsbegäran.docx", "A 35077-2024")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 35077-2024 tillsynsbegäran mail.docx", "A 35077-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 54042-2021</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 30406-2025</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45827</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 40521-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>45896</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 47146-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45929</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 47146-2025 artfynd.xlsx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 47146-2025 karta.png", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 47146-2025 FSC-klagomål.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 47146-2025 FSC-klagomål mail.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 47146-2025 tillsynsbegäran.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 47146-2025 tillsynsbegäran mail.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 47146-2025 prioriterade fågelarter.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 62973-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>46009</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44432</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44607.63090277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44795</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44782</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44286</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44328</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44844</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44690</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3655,14 +3655,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13140-2021</t>
+          <t>A 25970-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44271</v>
+        <v>44734</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25970-2022</t>
+          <t>A 13140-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44734</v>
+        <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>44694.44246527777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3940,14 +3940,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 26362-2022</t>
+          <t>A 16467-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44735</v>
+        <v>44292</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3997,14 +3997,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 10803-2021</t>
+          <t>A 31488-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44258</v>
+        <v>44369</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4054,14 +4054,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 34937-2021</t>
+          <t>A 52875-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44383</v>
+        <v>44467.47119212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4073,13 +4073,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4116,14 +4111,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 16467-2021</t>
+          <t>A 59760-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44292</v>
+        <v>44494.45789351852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4136,7 +4131,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4173,14 +4168,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 31488-2021</t>
+          <t>A 63964-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44369</v>
+        <v>44509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4193,7 +4188,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4230,14 +4225,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 39665-2021</t>
+          <t>A 61306-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44413</v>
+        <v>44498</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4250,7 +4245,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4287,14 +4282,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 11103-2022</t>
+          <t>A 35391-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44628</v>
+        <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4306,8 +4301,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>5.7</v>
+        <v>2.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4344,14 +4344,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43960-2021</t>
+          <t>A 39665-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44434</v>
+        <v>44413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4364,7 +4364,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4401,14 +4401,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 54444-2022</t>
+          <t>A 12389-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44882.59195601852</v>
+        <v>44267</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>9.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4458,14 +4458,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13843-2022</t>
+          <t>A 30539-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44649.65836805556</v>
+        <v>44762.46194444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4477,13 +4477,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>11.8</v>
+        <v>10.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4520,14 +4515,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 52875-2021</t>
+          <t>A 9799-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44467.47119212963</v>
+        <v>44620</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4540,7 +4535,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4577,14 +4572,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 37045-2022</t>
+          <t>A 4178-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44806</v>
+        <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4597,7 +4592,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4634,14 +4629,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12389-2021</t>
+          <t>A 10894-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44267</v>
+        <v>44627</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4654,7 +4649,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>9.4</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4691,14 +4686,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 59746-2021</t>
+          <t>A 10803-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44494.44803240741</v>
+        <v>44258</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4711,7 +4706,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4748,14 +4743,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 59760-2021</t>
+          <t>A 34937-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44494.45789351852</v>
+        <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4767,8 +4762,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4805,14 +4805,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 29515-2022</t>
+          <t>A 43960-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44753</v>
+        <v>44434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4824,13 +4824,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4867,14 +4862,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 63964-2021</t>
+          <t>A 11103-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44509</v>
+        <v>44628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4887,7 +4882,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4924,14 +4919,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61306-2021</t>
+          <t>A 26362-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44498</v>
+        <v>44735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4944,7 +4939,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4981,14 +4976,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52842-2021</t>
+          <t>A 54444-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44467</v>
+        <v>44882.59195601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5001,7 +4996,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5038,14 +5033,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 25694-2022</t>
+          <t>A 13843-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44732</v>
+        <v>44649.65836805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5057,8 +5052,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>11.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5095,14 +5095,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 2089-2022</t>
+          <t>A 37045-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44577.00778935185</v>
+        <v>44806</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5115,7 +5115,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5152,14 +5152,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 51203-2021</t>
+          <t>A 59746-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44460</v>
+        <v>44494.44803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5171,13 +5171,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>8</v>
+        <v>1.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5214,14 +5209,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35391-2022</t>
+          <t>A 29515-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44798</v>
+        <v>44753</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5239,7 +5234,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5276,14 +5271,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29699-2022</t>
+          <t>A 52842-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44755</v>
+        <v>44467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5296,7 +5291,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5333,14 +5328,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16466-2021</t>
+          <t>A 25694-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44292</v>
+        <v>44732</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5353,7 +5348,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5390,14 +5385,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 61327-2021</t>
+          <t>A 2089-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44498.66922453704</v>
+        <v>44577.00778935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5410,7 +5405,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5447,14 +5442,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41810-2021</t>
+          <t>A 51203-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44425</v>
+        <v>44460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5466,8 +5461,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5504,14 +5504,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19508-2021</t>
+          <t>A 61327-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44312.36194444444</v>
+        <v>44498.66922453704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5561,14 +5561,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30334-2022</t>
+          <t>A 29699-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44760.46356481482</v>
+        <v>44755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5618,14 +5618,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 30539-2022</t>
+          <t>A 16466-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44762.46194444445</v>
+        <v>44292</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>10.2</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5675,14 +5675,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 25014-2024</t>
+          <t>A 19508-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45461</v>
+        <v>44312.36194444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>12.8</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5732,14 +5732,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 73306-2021</t>
+          <t>A 30334-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44547</v>
+        <v>44760.46356481482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5789,14 +5789,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 17081-2024</t>
+          <t>A 73306-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45412</v>
+        <v>44547</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5846,14 +5846,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62682-2023</t>
+          <t>A 41810-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45271</v>
+        <v>44425</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5903,14 +5903,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27222-2023</t>
+          <t>A 5025-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45096.58590277778</v>
+        <v>44958.56039351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17972-2025</t>
+          <t>A 73901-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45761.36483796296</v>
+        <v>44552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6017,14 +6017,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62896-2023</t>
+          <t>A 28228-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45272.42737268518</v>
+        <v>45477</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>13.8</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 6938-2024</t>
+          <t>A 5841-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45343</v>
+        <v>44596.6127662037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6131,14 +6131,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 53209-2021</t>
+          <t>A 17437-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44468</v>
+        <v>45757</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>11.6</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6188,14 +6188,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9799-2022</t>
+          <t>A 17443-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44620</v>
+        <v>45757.43275462963</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6245,14 +6245,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 73310-2021</t>
+          <t>A 5126-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44547</v>
+        <v>44958</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>6.2</v>
+        <v>14.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6302,14 +6302,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 26829-2023</t>
+          <t>A 73033-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45093.54527777778</v>
+        <v>44550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6322,7 +6322,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6359,14 +6359,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 13895-2024</t>
+          <t>A 13382-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45391</v>
+        <v>45387</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6378,13 +6378,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6421,14 +6416,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 37339-2022</t>
+          <t>A 57236-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44806</v>
+        <v>45245.54427083334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6441,7 +6436,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6478,14 +6473,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 26815-2023</t>
+          <t>A 57237-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45093.531875</v>
+        <v>45245</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6498,7 +6493,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>18.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6535,14 +6530,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 17565-2025</t>
+          <t>A 5810-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45757.64024305555</v>
+        <v>44963.48369212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6555,7 +6550,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6592,14 +6587,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25443-2023</t>
+          <t>A 47152-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45089</v>
+        <v>45201</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6612,7 +6607,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6649,14 +6644,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 45467-2022</t>
+          <t>A 26840-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44845</v>
+        <v>45093.5540625</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6669,7 +6664,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6706,14 +6701,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 15545-2024</t>
+          <t>A 18341-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45401</v>
+        <v>45762.51554398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6725,13 +6720,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6768,14 +6758,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 58705-2024</t>
+          <t>A 29582-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45635</v>
+        <v>45484</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6793,7 +6783,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6830,14 +6820,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12311-2024</t>
+          <t>A 31561-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45378.63476851852</v>
+        <v>45117.39696759259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6850,7 +6840,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6887,14 +6877,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12416-2023</t>
+          <t>A 13121-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44998</v>
+        <v>45002</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6906,13 +6896,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6949,14 +6934,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4178-2022</t>
+          <t>A 58514-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44588</v>
+        <v>44902.40304398148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6969,7 +6954,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7006,14 +6991,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 14306-2023</t>
+          <t>A 53209-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45011</v>
+        <v>44468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7026,7 +7011,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.3</v>
+        <v>11.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7063,14 +7048,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37486-2022</t>
+          <t>A 37119-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44809.55424768518</v>
+        <v>45539.53746527778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7083,7 +7068,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7120,14 +7105,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10647-2024</t>
+          <t>A 17910-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45368.47725694445</v>
+        <v>45419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7125,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7177,14 +7162,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5025-2023</t>
+          <t>A 2253-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44958.56039351852</v>
+        <v>45310.30798611111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7182,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7234,14 +7219,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 31974-2023</t>
+          <t>A 6721-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45107</v>
+        <v>45700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,8 +7238,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7291,14 +7281,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 5957-2024</t>
+          <t>A 49300-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45336</v>
+        <v>44861.47716435185</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7301,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7348,14 +7338,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56552-2022</t>
+          <t>A 5957-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44887</v>
+        <v>45336</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7367,13 +7357,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7410,14 +7395,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 20238-2024</t>
+          <t>A 13289-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45434</v>
+        <v>45735</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7415,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7467,14 +7452,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 36644-2023</t>
+          <t>A 20238-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45153.55092592593</v>
+        <v>45434</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7472,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7524,14 +7509,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 21528-2024</t>
+          <t>A 27218-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45441.59262731481</v>
+        <v>45096.58238425926</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7529,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7581,14 +7566,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 7922-2022</t>
+          <t>A 56219-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44608.72004629629</v>
+        <v>45240.77920138889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7586,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7638,14 +7623,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 19053-2024</t>
+          <t>A 680-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45427</v>
+        <v>45300</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7658,7 +7643,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7695,14 +7680,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 42557-2022</t>
+          <t>A 30339-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44831</v>
+        <v>44760.47674768518</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7715,7 +7700,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>13.7</v>
+        <v>5.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7752,14 +7737,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 23189-2024</t>
+          <t>A 36420-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45450</v>
+        <v>45152</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7771,13 +7756,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7814,14 +7794,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 24543-2024</t>
+          <t>A 12350-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45460</v>
+        <v>44998</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7839,7 +7819,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.8</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7876,14 +7856,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 62905-2023</t>
+          <t>A 24543-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45272</v>
+        <v>45460</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,8 +7875,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>13.8</v>
+        <v>5.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7933,14 +7918,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 2253-2024</t>
+          <t>A 17399-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45310.30798611111</v>
+        <v>45757</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7938,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7990,14 +7975,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 4870-2024</t>
+          <t>A 39334-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45329</v>
+        <v>45889.49049768518</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +7995,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>8.4</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8047,14 +8032,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 10894-2022</t>
+          <t>A 975-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44627</v>
+        <v>45665</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8067,7 +8052,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8104,14 +8089,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 5126-2023</t>
+          <t>A 62557-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44958</v>
+        <v>44924.77230324074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8124,7 +8109,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>14.3</v>
+        <v>0.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8161,14 +8146,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 69847-2021</t>
+          <t>A 29256-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44532</v>
+        <v>45824.38387731482</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8181,7 +8166,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8218,14 +8203,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 58514-2022</t>
+          <t>A 29260-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44902.40304398148</v>
+        <v>45824</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8238,7 +8223,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8275,14 +8260,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13382-2024</t>
+          <t>A 29645-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45387</v>
+        <v>45825.46574074074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8295,7 +8280,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8332,14 +8317,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 71706-2021</t>
+          <t>A 21402-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44543.44349537037</v>
+        <v>45441</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8352,7 +8337,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8389,14 +8374,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 21311-2024</t>
+          <t>A 30411-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45440</v>
+        <v>45827</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8408,13 +8393,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8451,14 +8431,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 10892-2022</t>
+          <t>A 30563-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44627.77988425926</v>
+        <v>45831.40098379629</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8471,7 +8451,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8508,14 +8488,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 39145-2021</t>
+          <t>A 29736-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44412</v>
+        <v>45107.45405092592</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8565,14 +8545,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 41878-2024</t>
+          <t>A 31190-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45561</v>
+        <v>45831</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,13 +8564,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>15.9</v>
+        <v>5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8627,14 +8602,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47152-2023</t>
+          <t>A 40029-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45201</v>
+        <v>45894</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8647,7 +8622,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8684,14 +8659,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 32302-2024</t>
+          <t>A 40027-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45512</v>
+        <v>45894.36900462963</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8703,13 +8678,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8746,14 +8716,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 25840-2024</t>
+          <t>A 53138-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45467</v>
+        <v>45229.34055555556</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8766,7 +8736,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8803,14 +8773,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 22289-2021</t>
+          <t>A 19566-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44326</v>
+        <v>45049</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8823,7 +8793,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8860,14 +8830,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 53755-2024</t>
+          <t>A 29762-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45615.49748842593</v>
+        <v>45107.47733796296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8880,7 +8850,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>6.1</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8917,14 +8887,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 31362-2024</t>
+          <t>A 16092-2021</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45505</v>
+        <v>44289</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8974,14 +8944,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 28228-2024</t>
+          <t>A 32327-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45477</v>
+        <v>45836.44756944444</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8994,7 +8964,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9031,14 +9001,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 17122-2024</t>
+          <t>A 8364-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45412</v>
+        <v>45708</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9051,7 +9021,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9088,14 +9058,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62557-2022</t>
+          <t>A 62896-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44924.77230324074</v>
+        <v>45272.42737268518</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9108,7 +9078,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.8</v>
+        <v>13.8</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9145,14 +9115,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7991-2024</t>
+          <t>A 69847-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45350</v>
+        <v>44532</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9165,7 +9135,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9202,14 +9172,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 27218-2023</t>
+          <t>A 41113-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45096.58238425926</v>
+        <v>45898.46057870371</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9222,7 +9192,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9259,14 +9229,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 53138-2023</t>
+          <t>A 17239-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45229.34055555556</v>
+        <v>45756.47972222222</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9279,7 +9249,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9316,14 +9286,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 16772-2024</t>
+          <t>A 58705-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45411</v>
+        <v>45635</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9335,8 +9305,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9373,14 +9348,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 36420-2023</t>
+          <t>A 8359-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45152</v>
+        <v>45708</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9393,7 +9368,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9430,14 +9405,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 5810-2023</t>
+          <t>A 22347-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44963.48369212963</v>
+        <v>45070.57208333333</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9450,7 +9425,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9487,14 +9462,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 39635-2023</t>
+          <t>A 35426-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45167.52609953703</v>
+        <v>45855</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9507,7 +9482,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9544,14 +9519,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 66056-2021</t>
+          <t>A 35425-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44517.6359837963</v>
+        <v>45855</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9564,7 +9539,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9601,14 +9576,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 43242-2021</t>
+          <t>A 38582-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44432</v>
+        <v>45546</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9620,8 +9595,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9658,14 +9638,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 17399-2025</t>
+          <t>A 42143-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45757</v>
+        <v>45904.36905092592</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9678,7 +9658,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9715,14 +9695,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 5236-2023</t>
+          <t>A 33081-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44956</v>
+        <v>44785</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9735,7 +9715,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9772,14 +9752,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 19524-2024</t>
+          <t>A 25840-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45429.6306712963</v>
+        <v>45467</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9792,7 +9772,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9829,14 +9809,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 16574-2025</t>
+          <t>A 37515-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45752.50203703704</v>
+        <v>45877</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9849,7 +9829,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9886,14 +9866,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 3065-2024</t>
+          <t>A 37676-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45316.40590277778</v>
+        <v>45159</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9906,7 +9886,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9943,14 +9923,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62947-2023</t>
+          <t>A 37495-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45272.54398148148</v>
+        <v>45877</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9963,7 +9943,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10000,14 +9980,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12350-2023</t>
+          <t>A 37517-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44998</v>
+        <v>45877</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10019,13 +9999,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10062,14 +10037,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 12082-2024</t>
+          <t>A 6751-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45377.54760416667</v>
+        <v>45700.6130787037</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10082,7 +10057,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10119,14 +10094,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 12084-2024</t>
+          <t>A 37696-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45377.55229166667</v>
+        <v>45880</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10139,7 +10114,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10176,14 +10151,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 29260-2025</t>
+          <t>A 50640-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45824</v>
+        <v>45217.46871527778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10196,7 +10171,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10233,14 +10208,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 29256-2025</t>
+          <t>A 34580-2022</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45824.38387731482</v>
+        <v>44795</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10253,7 +10228,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10290,14 +10265,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 7993-2024</t>
+          <t>A 12000-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45350.63241898148</v>
+        <v>44635</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10310,7 +10285,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10347,14 +10322,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 20954-2023</t>
+          <t>A 42557-2022</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45061</v>
+        <v>44831</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10367,7 +10342,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>13.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10404,14 +10379,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 33081-2022</t>
+          <t>A 35253-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44785</v>
+        <v>44797</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10424,7 +10399,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10461,14 +10436,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 29645-2025</t>
+          <t>A 38002-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45825.46574074074</v>
+        <v>45881.89586805556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10481,7 +10456,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10518,14 +10493,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 19566-2023</t>
+          <t>A 44160-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45049</v>
+        <v>45915.59703703703</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10537,8 +10512,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>3.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10575,14 +10555,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 17443-2025</t>
+          <t>A 10647-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45757.43275462963</v>
+        <v>45368.47725694445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10595,7 +10575,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10632,14 +10612,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 30411-2025</t>
+          <t>A 15545-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45827</v>
+        <v>45401</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10651,8 +10631,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G166" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10689,14 +10674,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 30563-2025</t>
+          <t>A 44497-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45831.40098379629</v>
+        <v>45916.67107638889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10709,7 +10694,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10746,14 +10731,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 29762-2023</t>
+          <t>A 5280-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45107.47733796296</v>
+        <v>44593</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10765,8 +10750,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>37.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10803,14 +10793,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 7272-2022</t>
+          <t>A 13820-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44606.4540625</v>
+        <v>45390</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10823,7 +10813,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.4</v>
+        <v>7.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10860,14 +10850,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 22822-2024</t>
+          <t>A 17565-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45448</v>
+        <v>45757.64024305555</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10880,7 +10870,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10917,14 +10907,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 31190-2025</t>
+          <t>A 31362-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45831</v>
+        <v>45505</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10937,7 +10927,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5</v>
+        <v>0.6</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10974,14 +10964,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 20369-2024</t>
+          <t>A 45728-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45435</v>
+        <v>45923.45925925926</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10994,7 +10984,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11031,14 +11021,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 11601-2025</t>
+          <t>A 45784-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45727</v>
+        <v>45923.55923611111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11051,7 +11041,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11088,14 +11078,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 4976-2024</t>
+          <t>A 45868-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45329</v>
+        <v>45923.65232638889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11108,7 +11098,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11145,14 +11135,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 29736-2023</t>
+          <t>A 45898-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45107.45405092592</v>
+        <v>45923.67954861111</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11165,7 +11155,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11202,14 +11192,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 59542-2022</t>
+          <t>A 45744-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44907</v>
+        <v>45923.47619212963</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11222,7 +11212,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11259,14 +11249,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 21402-2024</t>
+          <t>A 45750-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45441</v>
+        <v>45923.48400462963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11279,7 +11269,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11316,14 +11306,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 12175-2024</t>
+          <t>A 45812-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45377</v>
+        <v>45923.58844907407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11336,7 +11326,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11373,14 +11363,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 32327-2025</t>
+          <t>A 43243-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45836.44756944444</v>
+        <v>45910</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11393,7 +11383,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11430,14 +11420,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 16092-2021</t>
+          <t>A 32302-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44289</v>
+        <v>45512</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11449,8 +11439,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11487,14 +11482,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 57233-2023</t>
+          <t>A 3065-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45245.54103009259</v>
+        <v>45316.40590277778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11507,7 +11502,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11544,14 +11539,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 30527-2022</t>
+          <t>A 17081-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44762.44436342592</v>
+        <v>45412</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11564,7 +11559,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11601,14 +11596,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 71781-2021</t>
+          <t>A 47507-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44539</v>
+        <v>45930.86842592592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11620,13 +11615,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11663,14 +11653,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 31930-2024</t>
+          <t>A 7993-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45510</v>
+        <v>45350.63241898148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11683,7 +11673,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11720,14 +11710,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 22347-2023</t>
+          <t>A 45467-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45070.57208333333</v>
+        <v>44845</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11740,7 +11730,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11777,14 +11767,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 4603-2025</t>
+          <t>A 5011-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45687</v>
+        <v>45329</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11796,13 +11786,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>2.5</v>
+        <v>22</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11839,14 +11824,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 73901-2021</t>
+          <t>A 53137-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44552</v>
+        <v>45229.33768518519</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11844,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11896,14 +11881,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 5214-2025</t>
+          <t>A 49422-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45691</v>
+        <v>45938</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11916,7 +11901,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11953,14 +11938,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4273-2025</t>
+          <t>A 49425-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45685</v>
+        <v>45938</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11973,7 +11958,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12010,14 +11995,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 56220-2023</t>
+          <t>A 57233-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45240.78313657407</v>
+        <v>45245.54103009259</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12030,7 +12015,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12067,14 +12052,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 26840-2023</t>
+          <t>A 9144-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45093.5540625</v>
+        <v>45358.37327546296</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12087,7 +12072,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12124,14 +12109,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 13820-2024</t>
+          <t>A 49507-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45390</v>
+        <v>45939.37804398148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12144,7 +12129,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>7.2</v>
+        <v>5.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12181,14 +12166,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 19052-2024</t>
+          <t>A 62675-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45427.76670138889</v>
+        <v>45271</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12201,7 +12186,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7.7</v>
+        <v>3.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12238,14 +12223,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 56219-2023</t>
+          <t>A 62682-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45240.77920138889</v>
+        <v>45271</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12258,7 +12243,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12295,14 +12280,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 6721-2025</t>
+          <t>A 5214-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45700</v>
+        <v>45691</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12314,13 +12299,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>5.7</v>
+        <v>2.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12357,14 +12337,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 8359-2025</t>
+          <t>A 4982-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45708</v>
+        <v>45329</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12377,7 +12357,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12414,14 +12394,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 50640-2023</t>
+          <t>A 62947-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45217.46871527778</v>
+        <v>45272.54398148148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12434,7 +12414,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12471,14 +12451,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 17437-2025</t>
+          <t>A 31930-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45757</v>
+        <v>45510</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12491,7 +12471,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12528,14 +12508,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 17910-2024</t>
+          <t>A 71706-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45419</v>
+        <v>44543.44349537037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12548,7 +12528,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12585,14 +12565,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 5841-2022</t>
+          <t>A 11597-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44596.6127662037</v>
+        <v>45727</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12605,7 +12585,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12642,14 +12622,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 12000-2022</t>
+          <t>A 40935-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44635</v>
+        <v>44823</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,8 +12641,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12699,14 +12684,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 22319-2021</t>
+          <t>A 51509-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44326.48232638889</v>
+        <v>45950</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12719,7 +12704,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12756,14 +12741,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 8361-2025</t>
+          <t>A 6938-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45708</v>
+        <v>45343</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12776,7 +12761,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12813,14 +12798,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 40935-2022</t>
+          <t>A 52699-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44823</v>
+        <v>45956.7752662037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,13 +12817,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G204" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12875,14 +12855,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 11597-2025</t>
+          <t>A 52700-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45727</v>
+        <v>45956.78072916667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12932,14 +12912,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 36646-2023</t>
+          <t>A 14306-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45153.55540509259</v>
+        <v>45011</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12952,7 +12932,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12989,14 +12969,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 35425-2025</t>
+          <t>A 18321-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45855</v>
+        <v>45762</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13009,7 +12989,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13046,14 +13026,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 35426-2025</t>
+          <t>A 17972-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45855</v>
+        <v>45761.36483796296</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13066,7 +13046,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13103,14 +13083,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 31964-2023</t>
+          <t>A 27222-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45107</v>
+        <v>45096.58590277778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13123,7 +13103,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13160,14 +13140,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 35253-2022</t>
+          <t>A 53863-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44797</v>
+        <v>45961.38152777778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13180,7 +13160,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13217,14 +13197,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 38582-2024</t>
+          <t>A 53866-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45546</v>
+        <v>45961.385625</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13236,13 +13216,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>5.7</v>
+        <v>2.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13279,14 +13254,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 3779-2025</t>
+          <t>A 36644-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45681</v>
+        <v>45153.55092592593</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13298,13 +13273,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>BillerudKorsnäs AB</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>7.6</v>
+        <v>0.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13341,14 +13311,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 29724-2023</t>
+          <t>A 8788-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45107</v>
+        <v>45356</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13361,7 +13331,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13398,14 +13368,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 8362-2025</t>
+          <t>A 7931-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45708</v>
+        <v>45706</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13417,8 +13387,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>7.7</v>
+        <v>13.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13455,14 +13430,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 29426-2022</t>
+          <t>A 62554-2022</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44753</v>
+        <v>44924</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13474,13 +13449,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>14.4</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13517,14 +13487,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 972-2025</t>
+          <t>A 21528-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45665</v>
+        <v>45441.59262731481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13537,7 +13507,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13574,14 +13544,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 5011-2024</t>
+          <t>A 20954-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45329</v>
+        <v>45061</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13594,7 +13564,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>22</v>
+        <v>1.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13631,14 +13601,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 49300-2022</t>
+          <t>A 19052-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44861.47716435185</v>
+        <v>45427.76670138889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13651,7 +13621,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.2</v>
+        <v>7.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13688,14 +13658,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 30339-2022</t>
+          <t>A 10892-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44760.47674768518</v>
+        <v>44627.77988425926</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13708,7 +13678,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13745,14 +13715,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 16635-2024</t>
+          <t>A 29426-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45408.59462962963</v>
+        <v>44753</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13764,8 +13734,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>14.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13802,14 +13777,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 6751-2025</t>
+          <t>A 12416-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45700.6130787037</v>
+        <v>44998</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13821,8 +13796,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13859,14 +13839,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 37676-2023</t>
+          <t>A 44048-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45159</v>
+        <v>45188.38348379629</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13879,7 +13859,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13916,14 +13896,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 975-2025</t>
+          <t>A 43242-2021</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45665</v>
+        <v>44432</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13936,7 +13916,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13973,14 +13953,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 63919-2021</t>
+          <t>A 62905-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44509</v>
+        <v>45272</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13993,7 +13973,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>5.2</v>
+        <v>13.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14030,14 +14010,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 37696-2025</t>
+          <t>A 58751-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45880</v>
+        <v>45986.64163194445</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14050,7 +14030,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14087,14 +14067,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 37517-2025</t>
+          <t>A 21311-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45877</v>
+        <v>45440</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14106,8 +14086,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14144,14 +14129,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 37515-2025</t>
+          <t>A 37486-2022</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45877</v>
+        <v>44809.55424768518</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14164,7 +14149,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>8.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14201,14 +14186,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 53137-2023</t>
+          <t>A 567-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45229.33768518519</v>
+        <v>46029.46965277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14221,7 +14206,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14258,14 +14243,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 8788-2024</t>
+          <t>A 58747-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45356</v>
+        <v>45986.63916666667</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14278,7 +14263,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14315,14 +14300,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 680-2024</t>
+          <t>A 614-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45300</v>
+        <v>46024</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14335,7 +14320,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14372,14 +14357,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 9144-2024</t>
+          <t>A 46299-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45358.37327546296</v>
+        <v>44847.75081018519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14392,7 +14377,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14429,14 +14414,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 46299-2022</t>
+          <t>A 5236-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44847.75081018519</v>
+        <v>44956</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14449,7 +14434,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14486,14 +14471,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 37495-2025</t>
+          <t>A 40522-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45877</v>
+        <v>45896</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14506,7 +14491,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14543,14 +14528,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 38002-2025</t>
+          <t>A 40524-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45881.89586805556</v>
+        <v>45896</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14563,7 +14548,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14600,14 +14585,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 18341-2025</t>
+          <t>A 56220-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45762.51554398148</v>
+        <v>45240.78313657407</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14620,7 +14605,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14657,14 +14642,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 62554-2022</t>
+          <t>A 53755-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44924</v>
+        <v>45615.49748842593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14677,7 +14662,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14714,14 +14699,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 52848-2021</t>
+          <t>A 972-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44467</v>
+        <v>45665</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14734,7 +14719,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14771,14 +14756,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 13121-2023</t>
+          <t>A 59617-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45002</v>
+        <v>45992.37861111111</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14791,7 +14776,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14828,14 +14813,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 57236-2023</t>
+          <t>A 909-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45245.54427083334</v>
+        <v>45664</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14848,7 +14833,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14885,14 +14870,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 57237-2023</t>
+          <t>A 13895-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45245</v>
+        <v>45391</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14904,8 +14889,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G240" t="n">
-        <v>18.2</v>
+        <v>3.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14942,14 +14932,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 5280-2022</t>
+          <t>A 2581-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44593</v>
+        <v>46037.53079861111</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14961,13 +14951,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G241" t="n">
-        <v>37.1</v>
+        <v>0.6</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -15004,14 +14989,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 6713-2025</t>
+          <t>A 29724-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45700</v>
+        <v>45107</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15023,13 +15008,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15066,14 +15046,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 29577-2024</t>
+          <t>A 56552-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45484</v>
+        <v>44887</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15091,7 +15071,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>10.1</v>
+        <v>1.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15128,14 +15108,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 27443-2024</t>
+          <t>A 60752-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45474</v>
+        <v>45999.38148148148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15148,7 +15128,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15185,14 +15165,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 33948-2023</t>
+          <t>A 31974-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45124</v>
+        <v>45107</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15205,7 +15185,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15242,14 +15222,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 32959-2022</t>
+          <t>A 3054-2026</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44784</v>
+        <v>46039.37369212963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15262,7 +15242,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15299,14 +15279,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 19753-2024</t>
+          <t>A 60656-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45432</v>
+        <v>45996.47914351852</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15319,7 +15299,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15356,14 +15336,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 13320-2024</t>
+          <t>A 19802-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45386.77172453704</v>
+        <v>45432</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15375,8 +15355,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15413,14 +15398,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 38517-2024</t>
+          <t>A 16635-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45546.56068287037</v>
+        <v>45408.59462962963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15433,7 +15418,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15470,14 +15455,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 19155-2025</t>
+          <t>A 22319-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45769</v>
+        <v>44326.48232638889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15490,7 +15475,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15527,14 +15512,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 37119-2024</t>
+          <t>A 4273-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45539.53746527778</v>
+        <v>45685</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15547,7 +15532,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>6.7</v>
+        <v>1.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15584,14 +15569,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 4982-2024</t>
+          <t>A 7922-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45329</v>
+        <v>44608.72004629629</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15604,7 +15589,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15641,14 +15626,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 18321-2025</t>
+          <t>A 1556-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45762</v>
+        <v>45670</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15661,7 +15646,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15698,14 +15683,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 18184-2024</t>
+          <t>A 12311-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45420</v>
+        <v>45378.63476851852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15717,13 +15702,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15760,14 +15740,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 55227-2023</t>
+          <t>A 62967-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45231</v>
+        <v>46009</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15780,7 +15760,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15817,14 +15797,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 9837-2023</t>
+          <t>A 33948-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44984.85623842593</v>
+        <v>45124</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15837,7 +15817,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15874,14 +15854,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 56386-2022</t>
+          <t>A 62941-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44890</v>
+        <v>46009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15894,7 +15874,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15931,14 +15911,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 39334-2025</t>
+          <t>A 13320-2024</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45889.49049768518</v>
+        <v>45386.77172453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15951,7 +15931,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15988,14 +15968,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 7931-2025</t>
+          <t>A 55227-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45706</v>
+        <v>45231</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16007,13 +15987,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G259" t="n">
-        <v>13.8</v>
+        <v>2.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16050,14 +16025,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 1556-2025</t>
+          <t>A 25014-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45670</v>
+        <v>45461</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16070,7 +16045,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.8</v>
+        <v>12.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16107,14 +16082,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 19802-2024</t>
+          <t>A 31964-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45432</v>
+        <v>45107</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16126,13 +16101,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16169,14 +16139,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 34580-2022</t>
+          <t>A 59391-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44795</v>
+        <v>45989</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16189,7 +16159,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16226,14 +16196,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 73033-2021</t>
+          <t>A 62955-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44550</v>
+        <v>46009</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16246,7 +16216,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16283,14 +16253,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 909-2025</t>
+          <t>A 12082-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45664</v>
+        <v>45377.54760416667</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16303,7 +16273,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16340,14 +16310,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 40027-2025</t>
+          <t>A 12084-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45894.36900462963</v>
+        <v>45377.55229166667</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16360,7 +16330,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16397,14 +16367,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 40029-2025</t>
+          <t>A 63063-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45894</v>
+        <v>46009</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16417,7 +16387,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16454,14 +16424,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 17239-2025</t>
+          <t>A 4976-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45756.47972222222</v>
+        <v>45329</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16474,7 +16444,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16511,14 +16481,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 41113-2025</t>
+          <t>A 64304-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45898.46057870371</v>
+        <v>45280</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16531,7 +16501,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16568,14 +16538,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 64304-2023</t>
+          <t>A 48553-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45280</v>
+        <v>45208.40232638889</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16588,7 +16558,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16625,14 +16595,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 29582-2024</t>
+          <t>A 26815-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45484</v>
+        <v>45093.531875</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16644,13 +16614,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G270" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16687,14 +16652,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 42143-2025</t>
+          <t>A 16772-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45904.36905092592</v>
+        <v>45411</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16707,7 +16672,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16744,14 +16709,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 8364-2025</t>
+          <t>A 25443-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45708</v>
+        <v>45089</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16764,7 +16729,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16801,14 +16766,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 62675-2023</t>
+          <t>A 66056-2021</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45271</v>
+        <v>44517.6359837963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16821,7 +16786,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16858,14 +16823,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 48553-2023</t>
+          <t>A 23189-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45208.40232638889</v>
+        <v>45450</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16877,8 +16842,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G274" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16915,14 +16885,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 17573-2025</t>
+          <t>A 7991-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45757.65053240741</v>
+        <v>45350</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16935,7 +16905,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16972,14 +16942,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 44497-2025</t>
+          <t>A 22289-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45916.67107638889</v>
+        <v>44326</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16992,7 +16962,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -17029,14 +16999,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 31561-2023</t>
+          <t>A 59542-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45117.39696759259</v>
+        <v>44907</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17049,7 +17019,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17086,14 +17056,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 44160-2025</t>
+          <t>A 19155-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45915.59703703703</v>
+        <v>45769</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17105,13 +17075,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>9.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17148,14 +17113,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 44048-2023</t>
+          <t>A 52848-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45188.38348379629</v>
+        <v>44467</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17168,7 +17133,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17205,14 +17170,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 30914-2023</t>
+          <t>A 8361-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45113</v>
+        <v>45708</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17225,7 +17190,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17262,14 +17227,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 45868-2025</t>
+          <t>A 73310-2021</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45923.65232638889</v>
+        <v>44547</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17282,7 +17247,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>6.2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17319,14 +17284,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 45812-2025</t>
+          <t>A 39635-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45923.58844907407</v>
+        <v>45167.52609953703</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17339,7 +17304,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17376,14 +17341,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 43243-2025</t>
+          <t>A 37339-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45910</v>
+        <v>44806</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17396,7 +17361,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17433,14 +17398,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 20784-2025</t>
+          <t>A 56386-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45776.61640046296</v>
+        <v>44890</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17453,7 +17418,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17490,14 +17455,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 45784-2025</t>
+          <t>A 71781-2021</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45923.55923611111</v>
+        <v>44539</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17509,8 +17474,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G285" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17547,14 +17517,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 45728-2025</t>
+          <t>A 6713-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45923.45925925926</v>
+        <v>45700</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17566,8 +17536,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G286" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17604,14 +17579,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 45898-2025</t>
+          <t>A 8362-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45923.67954861111</v>
+        <v>45708</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17624,7 +17599,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.2</v>
+        <v>7.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17661,14 +17636,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 45750-2025</t>
+          <t>A 30527-2022</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45923.48400462963</v>
+        <v>44762.44436342592</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17681,7 +17656,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17718,14 +17693,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 45744-2025</t>
+          <t>A 17573-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45923.47619212963</v>
+        <v>45757.65053240741</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17738,7 +17713,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17775,14 +17750,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 8370-2023</t>
+          <t>A 17122-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44977.38424768519</v>
+        <v>45412</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17795,7 +17770,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17832,14 +17807,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 12217-2025</t>
+          <t>A 9837-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45729.5358912037</v>
+        <v>44984.85623842593</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17852,7 +17827,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17889,14 +17864,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 47507-2025</t>
+          <t>A 41878-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45930.86842592592</v>
+        <v>45561</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17908,8 +17883,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G292" t="n">
-        <v>2.9</v>
+        <v>15.9</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17946,14 +17926,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 22133-2025</t>
+          <t>A 19753-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45785</v>
+        <v>45432</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17966,7 +17946,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>4.7</v>
+        <v>1.5</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -18003,14 +17983,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 49425-2025</t>
+          <t>A 27443-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45938</v>
+        <v>45474</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18023,7 +18003,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18060,14 +18040,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 49422-2025</t>
+          <t>A 32959-2022</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45938</v>
+        <v>44784</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18080,7 +18060,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18117,14 +18097,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 22537-2025</t>
+          <t>A 30914-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45787</v>
+        <v>45113</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18137,7 +18117,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18174,14 +18154,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 49507-2025</t>
+          <t>A 20369-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45939.37804398148</v>
+        <v>45435</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18194,7 +18174,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>5.7</v>
+        <v>1.4</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18231,14 +18211,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 51509-2025</t>
+          <t>A 7272-2022</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45950</v>
+        <v>44606.4540625</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18251,7 +18231,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18288,14 +18268,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 52700-2025</t>
+          <t>A 26829-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45956.78072916667</v>
+        <v>45093.54527777778</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18308,7 +18288,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18345,14 +18325,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 52699-2025</t>
+          <t>A 38517-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45956.7752662037</v>
+        <v>45546.56068287037</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18365,7 +18345,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18402,14 +18382,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 13289-2025</t>
+          <t>A 16574-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45735</v>
+        <v>45752.50203703704</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18422,7 +18402,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18459,14 +18439,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 53866-2025</t>
+          <t>A 18184-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45961.385625</v>
+        <v>45420</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18478,8 +18458,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G302" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18516,14 +18501,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 53863-2025</t>
+          <t>A 19524-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45961.38152777778</v>
+        <v>45429.6306712963</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18536,7 +18521,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18573,14 +18558,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 58747-2025</t>
+          <t>A 3779-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45986.63916666667</v>
+        <v>45681</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18592,8 +18577,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>BillerudKorsnäs AB</t>
+        </is>
+      </c>
       <c r="G304" t="n">
-        <v>1.5</v>
+        <v>7.6</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18630,14 +18620,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 58751-2025</t>
+          <t>A 63919-2021</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45986.64163194445</v>
+        <v>44509</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18650,7 +18640,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18687,14 +18677,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 567-2026</t>
+          <t>A 4870-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>46029.46965277778</v>
+        <v>45329</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18707,7 +18697,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2.6</v>
+        <v>8.4</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18744,14 +18734,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 614-2026</t>
+          <t>A 36646-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>46024</v>
+        <v>45153.55540509259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18764,7 +18754,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18801,14 +18791,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 59617-2025</t>
+          <t>A 22822-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45992.37861111111</v>
+        <v>45448</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18858,14 +18848,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 40522-2025</t>
+          <t>A 19053-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45896</v>
+        <v>45427</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18878,7 +18868,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18915,14 +18905,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 40524-2025</t>
+          <t>A 4603-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45896</v>
+        <v>45687</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18934,8 +18924,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G310" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18972,14 +18967,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 60656-2025</t>
+          <t>A 11601-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45996.47914351852</v>
+        <v>45727</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18992,7 +18987,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19029,14 +19024,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 2581-2026</t>
+          <t>A 12175-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>46037.53079861111</v>
+        <v>45377</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19049,7 +19044,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19086,14 +19081,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 60752-2025</t>
+          <t>A 39145-2021</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45999.38148148148</v>
+        <v>44412</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19106,7 +19101,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19143,14 +19138,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 3054-2026</t>
+          <t>A 29577-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>46039.37369212963</v>
+        <v>45484</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19162,8 +19157,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G314" t="n">
-        <v>2.3</v>
+        <v>10.1</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19200,14 +19200,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 63063-2025</t>
+          <t>A 20784-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>46009</v>
+        <v>45776.61640046296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19257,14 +19257,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 62967-2025</t>
+          <t>A 8370-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>46009</v>
+        <v>44977.38424768519</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19314,14 +19314,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 62941-2025</t>
+          <t>A 12217-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>46009</v>
+        <v>45729.5358912037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.5</v>
+        <v>4.6</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19371,14 +19371,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 62955-2025</t>
+          <t>A 22133-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>46009</v>
+        <v>45785</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19428,14 +19428,14 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 59391-2025</t>
+          <t>A 22537-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45989</v>
+        <v>45787</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z319"/>
+  <dimension ref="A1:Z320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1369,14 +1369,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 26662-2025</t>
+          <t>A 40521-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45810</v>
+        <v>45896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1388,22 +1388,17 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1418,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1428,130 +1423,135 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 26662-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 40521-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45896</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 23860-2023</t>
+          <t>A 62973-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45078</v>
+        <v>46009</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>7.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1598,565 +1598,565 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 47146-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45929</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>7</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Duvhök</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 47146-2025 artfynd.xlsx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 47146-2025 karta.png", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 47146-2025 FSC-klagomål.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 47146-2025 FSC-klagomål mail.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 47146-2025 tillsynsbegäran.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 47146-2025 tillsynsbegäran mail.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 47146-2025 prioriterade fågelarter.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 23860-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Gulsparv</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 37700-2025</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45880</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Revlummer</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
         <is>
           <t>A 30406-2025</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B17" s="1" t="n">
         <v>45827</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C17" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>1.9</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R17" s="2" t="inlineStr">
         <is>
           <t>Talltita</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
         <v/>
       </c>
-      <c r="Z15">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 47146-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45929</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>7</v>
-      </c>
-      <c r="H16" t="n">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 66053-2021</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44517.63174768518</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 47146-2025 artfynd.xlsx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 47146-2025 karta.png", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 47146-2025 FSC-klagomål.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 47146-2025 FSC-klagomål mail.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 47146-2025 tillsynsbegäran.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 47146-2025 tillsynsbegäran mail.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 47146-2025 prioriterade fågelarter.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 66053-2021</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44517.63174768518</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
         <is>
           <t>A 54042-2021</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B19" s="1" t="n">
         <v>44470</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C19" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>7.8</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R19" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 62973-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>46009</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>45708</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>45527</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44432</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44607.63090277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44795</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44782</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3251,14 +3251,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 15701-2021</t>
+          <t>A 23332-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44286</v>
+        <v>44328</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3308,14 +3308,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 23332-2021</t>
+          <t>A 15701-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44328</v>
+        <v>44286</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>44844</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44690</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3655,14 +3655,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 25970-2022</t>
+          <t>A 13140-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44734</v>
+        <v>44271</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13140-2021</t>
+          <t>A 25970-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44271</v>
+        <v>44734</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>44694.44246527777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44292</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44369</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44467.47119212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4111,14 +4111,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59760-2021</t>
+          <t>A 63964-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44494.45789351852</v>
+        <v>44509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4168,14 +4168,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 63964-2021</t>
+          <t>A 59760-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44509</v>
+        <v>44494.45789351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>44498</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44267</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44762.46194444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>44620</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44627</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44258</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4805,14 +4805,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43960-2021</t>
+          <t>A 11103-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44434</v>
+        <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4862,14 +4862,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11103-2022</t>
+          <t>A 43960-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44628</v>
+        <v>44434</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>44735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44882.59195601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44649.65836805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44806</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44494.44803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44753</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5328,14 +5328,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 25694-2022</t>
+          <t>A 2089-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44732</v>
+        <v>44577.00778935185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 2089-2022</t>
+          <t>A 51203-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44577.00778935185</v>
+        <v>44460</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,8 +5404,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5442,14 +5447,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51203-2021</t>
+          <t>A 25694-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44460</v>
+        <v>44732</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5461,13 +5466,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>44498.66922453704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44292</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44312.36194444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5732,14 +5732,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 30334-2022</t>
+          <t>A 41810-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44760.46356481482</v>
+        <v>44425</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5789,14 +5789,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 73306-2021</t>
+          <t>A 30334-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44547</v>
+        <v>44760.46356481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5846,14 +5846,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 41810-2021</t>
+          <t>A 73306-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44425</v>
+        <v>44547</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5910,7 +5910,7 @@
         <v>44958.56039351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>44552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6017,14 +6017,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28228-2024</t>
+          <t>A 5841-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45477</v>
+        <v>44596.6127662037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6074,14 +6074,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 5841-2022</t>
+          <t>A 28228-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44596.6127662037</v>
+        <v>45477</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6131,14 +6131,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 17437-2025</t>
+          <t>A 5126-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45757</v>
+        <v>44958</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>14.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6188,14 +6188,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 17443-2025</t>
+          <t>A 17437-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45757.43275462963</v>
+        <v>45757</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6245,14 +6245,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 5126-2023</t>
+          <t>A 17443-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44958</v>
+        <v>45757.43275462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>14.3</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6309,7 +6309,7 @@
         <v>44550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45387</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45245.54427083334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45245</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44963.48369212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>45201</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6651,7 +6651,7 @@
         <v>45093.5540625</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6708,7 +6708,7 @@
         <v>45762.51554398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6765,7 +6765,7 @@
         <v>45484</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
         <v>45117.39696759259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         <v>45002</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6934,14 +6934,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58514-2022</t>
+          <t>A 53209-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44902.40304398148</v>
+        <v>44468</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.1</v>
+        <v>11.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6991,14 +6991,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 53209-2021</t>
+          <t>A 37119-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44468</v>
+        <v>45539.53746527778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>11.6</v>
+        <v>6.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7048,14 +7048,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 37119-2024</t>
+          <t>A 58514-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45539.53746527778</v>
+        <v>44902.40304398148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7112,7 +7112,7 @@
         <v>45419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
         <v>45310.30798611111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7226,7 +7226,7 @@
         <v>45700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7281,14 +7281,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 49300-2022</t>
+          <t>A 39334-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44861.47716435185</v>
+        <v>45889.49049768518</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7301,7 +7301,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7338,14 +7338,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 5957-2024</t>
+          <t>A 49300-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45336</v>
+        <v>44861.47716435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7395,14 +7395,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13289-2025</t>
+          <t>A 5957-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45735</v>
+        <v>45336</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7452,14 +7452,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 20238-2024</t>
+          <t>A 13289-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45434</v>
+        <v>45735</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7509,14 +7509,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27218-2023</t>
+          <t>A 40029-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45096.58238425926</v>
+        <v>45894</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7566,14 +7566,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 56219-2023</t>
+          <t>A 40027-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45240.77920138889</v>
+        <v>45894.36900462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7623,14 +7623,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 680-2024</t>
+          <t>A 27218-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45300</v>
+        <v>45096.58238425926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7680,14 +7680,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 30339-2022</t>
+          <t>A 20238-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44760.47674768518</v>
+        <v>45434</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.3</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7744,7 +7744,7 @@
         <v>45152</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7794,14 +7794,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 12350-2023</t>
+          <t>A 41113-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44998</v>
+        <v>45898.46057870371</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7813,13 +7813,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7856,14 +7851,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 24543-2024</t>
+          <t>A 17239-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45460</v>
+        <v>45756.47972222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7875,13 +7870,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7918,14 +7908,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 17399-2025</t>
+          <t>A 56219-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45757</v>
+        <v>45240.77920138889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7938,7 +7928,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7975,14 +7965,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 39334-2025</t>
+          <t>A 17399-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45889.49049768518</v>
+        <v>45757</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7995,7 +7985,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8032,14 +8022,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 975-2025</t>
+          <t>A 680-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45665</v>
+        <v>45300</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8052,7 +8042,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8089,14 +8079,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 62557-2022</t>
+          <t>A 30339-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44924.77230324074</v>
+        <v>44760.47674768518</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8109,7 +8099,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8146,14 +8136,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 29256-2025</t>
+          <t>A 12350-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45824.38387731482</v>
+        <v>44998</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8165,8 +8155,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8203,14 +8198,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 29260-2025</t>
+          <t>A 42143-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45824</v>
+        <v>45904.36905092592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8223,7 +8218,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8260,14 +8255,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 29645-2025</t>
+          <t>A 24543-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45825.46574074074</v>
+        <v>45460</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8279,8 +8274,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8317,14 +8317,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 21402-2024</t>
+          <t>A 29256-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45441</v>
+        <v>45824.38387731482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8374,14 +8374,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 30411-2025</t>
+          <t>A 29260-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45827</v>
+        <v>45824</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8431,14 +8431,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 30563-2025</t>
+          <t>A 29645-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45831.40098379629</v>
+        <v>45825.46574074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8488,14 +8488,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 29736-2023</t>
+          <t>A 975-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45107.45405092592</v>
+        <v>45665</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8545,14 +8545,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 31190-2025</t>
+          <t>A 44160-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45831</v>
+        <v>45915.59703703703</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,8 +8564,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8602,14 +8607,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 40029-2025</t>
+          <t>A 30411-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45894</v>
+        <v>45827</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8622,7 +8627,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8659,14 +8664,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 40027-2025</t>
+          <t>A 62557-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45894.36900462963</v>
+        <v>44924.77230324074</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8716,14 +8721,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53138-2023</t>
+          <t>A 30563-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45229.34055555556</v>
+        <v>45831.40098379629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8736,7 +8741,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8773,14 +8778,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 19566-2023</t>
+          <t>A 31190-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45049</v>
+        <v>45831</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8793,7 +8798,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8830,14 +8835,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 29762-2023</t>
+          <t>A 44497-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45107.47733796296</v>
+        <v>45916.67107638889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8850,7 +8855,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8887,14 +8892,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 16092-2021</t>
+          <t>A 21402-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44289</v>
+        <v>45441</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8907,7 +8912,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8944,14 +8949,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32327-2025</t>
+          <t>A 45728-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45836.44756944444</v>
+        <v>45923.45925925926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8964,7 +8969,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9001,14 +9006,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 8364-2025</t>
+          <t>A 45784-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45708</v>
+        <v>45923.55923611111</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9021,7 +9026,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9058,14 +9063,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 62896-2023</t>
+          <t>A 29736-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45272.42737268518</v>
+        <v>45107.45405092592</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9078,7 +9083,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>13.8</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9115,14 +9120,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 69847-2021</t>
+          <t>A 45868-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44532</v>
+        <v>45923.65232638889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9135,7 +9140,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9172,14 +9177,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 41113-2025</t>
+          <t>A 62967-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45898.46057870371</v>
+        <v>46009</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9192,7 +9197,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9229,14 +9234,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 17239-2025</t>
+          <t>A 45898-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45756.47972222222</v>
+        <v>45923.67954861111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9249,7 +9254,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9286,14 +9291,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 58705-2024</t>
+          <t>A 45744-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45635</v>
+        <v>45923.47619212963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9305,13 +9310,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G143" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 8359-2025</t>
+          <t>A 45750-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45708</v>
+        <v>45923.48400462963</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9405,14 +9405,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 22347-2023</t>
+          <t>A 45812-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45070.57208333333</v>
+        <v>45923.58844907407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9462,14 +9462,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 35426-2025</t>
+          <t>A 53138-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45855</v>
+        <v>45229.34055555556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9519,14 +9519,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 35425-2025</t>
+          <t>A 43243-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45855</v>
+        <v>45910</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 38582-2024</t>
+          <t>A 32327-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45546</v>
+        <v>45836.44756944444</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9595,13 +9595,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9638,14 +9633,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 42143-2025</t>
+          <t>A 19566-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45904.36905092592</v>
+        <v>45049</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9658,7 +9653,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9695,14 +9690,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 33081-2022</t>
+          <t>A 62941-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44785</v>
+        <v>46009</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9715,7 +9710,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9752,14 +9747,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 25840-2024</t>
+          <t>A 29762-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45467</v>
+        <v>45107.47733796296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9772,7 +9767,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9809,14 +9804,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 37515-2025</t>
+          <t>A 16092-2021</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45877</v>
+        <v>44289</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9829,7 +9824,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9866,14 +9861,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 37676-2023</t>
+          <t>A 8364-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45159</v>
+        <v>45708</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9886,7 +9881,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9923,14 +9918,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 37495-2025</t>
+          <t>A 47507-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45877</v>
+        <v>45930.86842592592</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9943,7 +9938,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9980,14 +9975,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 37517-2025</t>
+          <t>A 62896-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45877</v>
+        <v>45272.42737268518</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10000,7 +9995,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.9</v>
+        <v>13.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10037,14 +10032,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 6751-2025</t>
+          <t>A 8359-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45700.6130787037</v>
+        <v>45708</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10057,7 +10052,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10094,14 +10089,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 37696-2025</t>
+          <t>A 69847-2021</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45880</v>
+        <v>44532</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10114,7 +10109,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10151,14 +10146,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 50640-2023</t>
+          <t>A 35426-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45217.46871527778</v>
+        <v>45855</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10171,7 +10166,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10208,14 +10203,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 34580-2022</t>
+          <t>A 35425-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44795</v>
+        <v>45855</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10228,7 +10223,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10265,14 +10260,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 12000-2022</t>
+          <t>A 58705-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44635</v>
+        <v>45635</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10284,8 +10279,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10322,14 +10322,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 42557-2022</t>
+          <t>A 49422-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44831</v>
+        <v>45938</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>13.7</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10379,14 +10379,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 35253-2022</t>
+          <t>A 22347-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44797</v>
+        <v>45070.57208333333</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10399,7 +10399,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10436,14 +10436,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 38002-2025</t>
+          <t>A 49425-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45881.89586805556</v>
+        <v>45938</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10493,14 +10493,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 44160-2025</t>
+          <t>A 38582-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45915.59703703703</v>
+        <v>45546</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10514,11 +10514,11 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9.699999999999999</v>
+        <v>5.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10555,14 +10555,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 10647-2024</t>
+          <t>A 49507-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45368.47725694445</v>
+        <v>45939.37804398148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10575,7 +10575,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>4.1</v>
+        <v>5.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10612,14 +10612,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 15545-2024</t>
+          <t>A 59391-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45401</v>
+        <v>45989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10631,13 +10631,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G166" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10674,14 +10669,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 44497-2025</t>
+          <t>A 62955-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45916.67107638889</v>
+        <v>46009</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10694,7 +10689,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10731,14 +10726,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 5280-2022</t>
+          <t>A 63063-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44593</v>
+        <v>46009</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10750,13 +10745,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>37.1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10793,14 +10783,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 13820-2024</t>
+          <t>A 37515-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45390</v>
+        <v>45877</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10813,7 +10803,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>7.2</v>
+        <v>0.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10850,14 +10840,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 17565-2025</t>
+          <t>A 37495-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45757.64024305555</v>
+        <v>45877</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10870,7 +10860,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10907,14 +10897,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 31362-2024</t>
+          <t>A 37517-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45505</v>
+        <v>45877</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10927,7 +10917,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.6</v>
+        <v>2.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10964,14 +10954,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 45728-2025</t>
+          <t>A 37696-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45923.45925925926</v>
+        <v>45880</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10984,7 +10974,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11021,14 +11011,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 45784-2025</t>
+          <t>A 51509-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45923.55923611111</v>
+        <v>45950</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11041,7 +11031,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11078,14 +11068,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 45868-2025</t>
+          <t>A 38002-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45923.65232638889</v>
+        <v>45881.89586805556</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11098,7 +11088,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11135,14 +11125,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 45898-2025</t>
+          <t>A 52699-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45923.67954861111</v>
+        <v>45956.7752662037</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11155,7 +11145,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11192,14 +11182,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 45744-2025</t>
+          <t>A 33081-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45923.47619212963</v>
+        <v>44785</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11212,7 +11202,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11249,14 +11239,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 45750-2025</t>
+          <t>A 25840-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45923.48400462963</v>
+        <v>45467</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11269,7 +11259,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11306,14 +11296,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 45812-2025</t>
+          <t>A 52700-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45923.58844907407</v>
+        <v>45956.78072916667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11326,7 +11316,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11363,14 +11353,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 43243-2025</t>
+          <t>A 37676-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45910</v>
+        <v>45159</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11383,7 +11373,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11420,14 +11410,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 32302-2024</t>
+          <t>A 53863-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45512</v>
+        <v>45961.38152777778</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11439,13 +11429,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11482,14 +11467,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 3065-2024</t>
+          <t>A 6751-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45316.40590277778</v>
+        <v>45700.6130787037</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11502,7 +11487,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11539,14 +11524,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 17081-2024</t>
+          <t>A 53866-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45412</v>
+        <v>45961.385625</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11559,7 +11544,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11596,14 +11581,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 47507-2025</t>
+          <t>A 50640-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45930.86842592592</v>
+        <v>45217.46871527778</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11616,7 +11601,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11653,14 +11638,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 7993-2024</t>
+          <t>A 34580-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45350.63241898148</v>
+        <v>44795</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11673,7 +11658,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11710,14 +11695,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 45467-2022</t>
+          <t>A 12000-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44845</v>
+        <v>44635</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11730,7 +11715,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11767,14 +11752,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 5011-2024</t>
+          <t>A 42557-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45329</v>
+        <v>44831</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11787,7 +11772,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>22</v>
+        <v>13.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11824,14 +11809,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 53137-2023</t>
+          <t>A 35253-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45229.33768518519</v>
+        <v>44797</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11844,7 +11829,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11881,14 +11866,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49422-2025</t>
+          <t>A 10647-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45938</v>
+        <v>45368.47725694445</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11901,7 +11886,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11938,14 +11923,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 49425-2025</t>
+          <t>A 15545-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45938</v>
+        <v>45401</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11957,8 +11942,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11995,14 +11985,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 57233-2023</t>
+          <t>A 5280-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45245.54103009259</v>
+        <v>44593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12014,8 +12004,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>1.4</v>
+        <v>37.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12052,14 +12047,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 9144-2024</t>
+          <t>A 13820-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45358.37327546296</v>
+        <v>45390</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12072,7 +12067,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>7.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12109,14 +12104,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 49507-2025</t>
+          <t>A 17565-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45939.37804398148</v>
+        <v>45757.64024305555</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12129,7 +12124,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>5.7</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12166,14 +12161,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62675-2023</t>
+          <t>A 31362-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45271</v>
+        <v>45505</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12186,7 +12181,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12223,14 +12218,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 62682-2023</t>
+          <t>A 58751-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45271</v>
+        <v>45986.64163194445</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12243,7 +12238,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12280,14 +12275,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 5214-2025</t>
+          <t>A 32302-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45691</v>
+        <v>45512</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12299,8 +12294,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12337,14 +12337,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 4982-2024</t>
+          <t>A 567-2026</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45329</v>
+        <v>46029.46965277778</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12357,7 +12357,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12394,14 +12394,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 62947-2023</t>
+          <t>A 58747-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45272.54398148148</v>
+        <v>45986.63916666667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12414,7 +12414,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12451,14 +12451,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 31930-2024</t>
+          <t>A 614-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45510</v>
+        <v>46024</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12508,14 +12508,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 71706-2021</t>
+          <t>A 3065-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44543.44349537037</v>
+        <v>45316.40590277778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12528,7 +12528,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12565,14 +12565,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 11597-2025</t>
+          <t>A 17081-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45727</v>
+        <v>45412</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12585,7 +12585,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12622,14 +12622,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 40935-2022</t>
+          <t>A 8732-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44823</v>
+        <v>46066.49796296296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12641,13 +12641,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12684,14 +12679,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 51509-2025</t>
+          <t>A 7993-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45950</v>
+        <v>45350.63241898148</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12704,7 +12699,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12741,14 +12736,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 6938-2024</t>
+          <t>A 45467-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45343</v>
+        <v>44845</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12761,7 +12756,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.8</v>
+        <v>4.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12798,14 +12793,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 52699-2025</t>
+          <t>A 5011-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45956.7752662037</v>
+        <v>45329</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12818,7 +12813,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.9</v>
+        <v>22</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12855,14 +12850,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 52700-2025</t>
+          <t>A 53137-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45956.78072916667</v>
+        <v>45229.33768518519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12875,7 +12870,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12912,14 +12907,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 14306-2023</t>
+          <t>A 40522-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45011</v>
+        <v>45896</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12932,7 +12927,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12969,14 +12964,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 18321-2025</t>
+          <t>A 40524-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45762</v>
+        <v>45896</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12989,7 +12984,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13026,14 +13021,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 17972-2025</t>
+          <t>A 59617-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45761.36483796296</v>
+        <v>45992.37861111111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13046,7 +13041,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13083,14 +13078,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 27222-2023</t>
+          <t>A 57233-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45096.58590277778</v>
+        <v>45245.54103009259</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13103,7 +13098,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13140,14 +13135,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 53863-2025</t>
+          <t>A 9144-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45961.38152777778</v>
+        <v>45358.37327546296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13160,7 +13155,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13197,14 +13192,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 53866-2025</t>
+          <t>A 62675-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45961.385625</v>
+        <v>45271</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13217,7 +13212,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13254,14 +13249,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 36644-2023</t>
+          <t>A 62682-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45153.55092592593</v>
+        <v>45271</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13274,7 +13269,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13311,14 +13306,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 8788-2024</t>
+          <t>A 5214-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45356</v>
+        <v>45691</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13331,7 +13326,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13368,14 +13363,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 7931-2025</t>
+          <t>A 2581-2026</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45706</v>
+        <v>46037.53079861111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13387,13 +13382,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>13.8</v>
+        <v>0.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13430,14 +13420,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 62554-2022</t>
+          <t>A 60752-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44924</v>
+        <v>45999.38148148148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13450,7 +13440,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13487,14 +13477,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 21528-2024</t>
+          <t>A 3054-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45441.59262731481</v>
+        <v>46039.37369212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13507,7 +13497,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13544,14 +13534,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 20954-2023</t>
+          <t>A 60656-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45061</v>
+        <v>45996.47914351852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13564,7 +13554,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13601,14 +13591,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 19052-2024</t>
+          <t>A 4982-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45427.76670138889</v>
+        <v>45329</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13621,7 +13611,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>7.7</v>
+        <v>1.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13658,14 +13648,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 10892-2022</t>
+          <t>A 62947-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44627.77988425926</v>
+        <v>45272.54398148148</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13678,7 +13668,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13715,14 +13705,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 29426-2022</t>
+          <t>A 31930-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44753</v>
+        <v>45510</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13734,13 +13724,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G220" t="n">
-        <v>14.4</v>
+        <v>0.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13777,14 +13762,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 12416-2023</t>
+          <t>A 71706-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44998</v>
+        <v>44543.44349537037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13796,13 +13781,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13839,14 +13819,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 44048-2023</t>
+          <t>A 11597-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45188.38348379629</v>
+        <v>45727</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13859,7 +13839,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13896,14 +13876,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 43242-2021</t>
+          <t>A 40935-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44432</v>
+        <v>44823</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13915,8 +13895,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13953,14 +13938,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 62905-2023</t>
+          <t>A 6938-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45272</v>
+        <v>45343</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13973,7 +13958,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>13.8</v>
+        <v>2.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14010,14 +13995,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 58751-2025</t>
+          <t>A 14306-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45986.64163194445</v>
+        <v>45011</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14030,7 +14015,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14067,14 +14052,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 21311-2024</t>
+          <t>A 18321-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45440</v>
+        <v>45762</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14086,13 +14071,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14129,14 +14109,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 37486-2022</t>
+          <t>A 17972-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44809.55424768518</v>
+        <v>45761.36483796296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14149,7 +14129,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>8.6</v>
+        <v>0.7</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14186,14 +14166,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 567-2026</t>
+          <t>A 27222-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46029.46965277778</v>
+        <v>45096.58590277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14206,7 +14186,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14243,14 +14223,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 58747-2025</t>
+          <t>A 36644-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45986.63916666667</v>
+        <v>45153.55092592593</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14263,7 +14243,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14300,14 +14280,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 614-2026</t>
+          <t>A 8788-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46024</v>
+        <v>45356</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14320,7 +14300,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>5.3</v>
+        <v>0.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14357,14 +14337,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 46299-2022</t>
+          <t>A 7931-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44847.75081018519</v>
+        <v>45706</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,8 +14356,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>2</v>
+        <v>13.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14414,14 +14399,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 5236-2023</t>
+          <t>A 62554-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44956</v>
+        <v>44924</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14434,7 +14419,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14471,14 +14456,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 40522-2025</t>
+          <t>A 21528-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45896</v>
+        <v>45441.59262731481</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14491,7 +14476,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14528,14 +14513,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 40524-2025</t>
+          <t>A 20954-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45896</v>
+        <v>45061</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14548,7 +14533,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14585,14 +14570,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 56220-2023</t>
+          <t>A 19052-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45240.78313657407</v>
+        <v>45427.76670138889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14605,7 +14590,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14642,14 +14627,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 53755-2024</t>
+          <t>A 10892-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45615.49748842593</v>
+        <v>44627.77988425926</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14662,7 +14647,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14699,14 +14684,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 972-2025</t>
+          <t>A 29426-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45665</v>
+        <v>44753</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,8 +14703,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>1.1</v>
+        <v>14.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14756,14 +14746,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 59617-2025</t>
+          <t>A 12416-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45992.37861111111</v>
+        <v>44998</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,8 +14765,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14813,14 +14808,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 909-2025</t>
+          <t>A 44048-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45664</v>
+        <v>45188.38348379629</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14833,7 +14828,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14870,14 +14865,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 13895-2024</t>
+          <t>A 43242-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45391</v>
+        <v>44432</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,13 +14884,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G240" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14932,14 +14922,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 2581-2026</t>
+          <t>A 62905-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46037.53079861111</v>
+        <v>45272</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14952,7 +14942,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.6</v>
+        <v>13.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14989,14 +14979,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 29724-2023</t>
+          <t>A 21311-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45107</v>
+        <v>45440</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15008,8 +14998,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15046,14 +15041,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 56552-2022</t>
+          <t>A 37486-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44887</v>
+        <v>44809.55424768518</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15065,13 +15060,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G243" t="n">
-        <v>1.5</v>
+        <v>8.6</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15108,14 +15098,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 60752-2025</t>
+          <t>A 46299-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45999.38148148148</v>
+        <v>44847.75081018519</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15128,7 +15118,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15165,14 +15155,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 31974-2023</t>
+          <t>A 5236-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45107</v>
+        <v>44956</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15185,7 +15175,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>3.8</v>
+        <v>1</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15222,14 +15212,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 3054-2026</t>
+          <t>A 56220-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>46039.37369212963</v>
+        <v>45240.78313657407</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15242,7 +15232,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15279,14 +15269,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 60656-2025</t>
+          <t>A 53755-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45996.47914351852</v>
+        <v>45615.49748842593</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15299,7 +15289,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.5</v>
+        <v>6.1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15336,14 +15326,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 19802-2024</t>
+          <t>A 972-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45432</v>
+        <v>45665</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15355,13 +15345,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G248" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15398,14 +15383,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 16635-2024</t>
+          <t>A 909-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45408.59462962963</v>
+        <v>45664</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15418,7 +15403,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15455,14 +15440,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 22319-2021</t>
+          <t>A 13895-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44326.48232638889</v>
+        <v>45391</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15474,8 +15459,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G250" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15512,14 +15502,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 4273-2025</t>
+          <t>A 29724-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45685</v>
+        <v>45107</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15532,7 +15522,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15569,14 +15559,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 7922-2022</t>
+          <t>A 56552-2022</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44608.72004629629</v>
+        <v>44887</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15588,8 +15578,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15626,14 +15621,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 1556-2025</t>
+          <t>A 31974-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45670</v>
+        <v>45107</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15646,7 +15641,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15683,14 +15678,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 12311-2024</t>
+          <t>A 19802-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45378.63476851852</v>
+        <v>45432</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,8 +15697,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G254" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15740,14 +15740,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 62967-2025</t>
+          <t>A 16635-2024</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46009</v>
+        <v>45408.59462962963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15797,14 +15797,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 33948-2023</t>
+          <t>A 22319-2021</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45124</v>
+        <v>44326.48232638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>5.5</v>
+        <v>0.6</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15854,14 +15854,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 62941-2025</t>
+          <t>A 4273-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46009</v>
+        <v>45685</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15911,14 +15911,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 13320-2024</t>
+          <t>A 7922-2022</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45386.77172453704</v>
+        <v>44608.72004629629</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15968,14 +15968,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 55227-2023</t>
+          <t>A 1556-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45231</v>
+        <v>45670</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16025,14 +16025,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 25014-2024</t>
+          <t>A 12311-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45461</v>
+        <v>45378.63476851852</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16082,14 +16082,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 31964-2023</t>
+          <t>A 33948-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45107</v>
+        <v>45124</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16139,14 +16139,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 59391-2025</t>
+          <t>A 13320-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45989</v>
+        <v>45386.77172453704</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16196,14 +16196,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 62955-2025</t>
+          <t>A 55227-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>46009</v>
+        <v>45231</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16253,14 +16253,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 12082-2024</t>
+          <t>A 25014-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45377.54760416667</v>
+        <v>45461</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.2</v>
+        <v>12.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16310,14 +16310,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 12084-2024</t>
+          <t>A 31964-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45377.55229166667</v>
+        <v>45107</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16367,14 +16367,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 63063-2025</t>
+          <t>A 12082-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46009</v>
+        <v>45377.54760416667</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16424,14 +16424,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 4976-2024</t>
+          <t>A 12084-2024</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45329</v>
+        <v>45377.55229166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16481,14 +16481,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 64304-2023</t>
+          <t>A 4976-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45280</v>
+        <v>45329</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16538,14 +16538,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 48553-2023</t>
+          <t>A 64304-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45208.40232638889</v>
+        <v>45280</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16595,14 +16595,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 26815-2023</t>
+          <t>A 48553-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45093.531875</v>
+        <v>45208.40232638889</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16652,14 +16652,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 16772-2024</t>
+          <t>A 26815-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45411</v>
+        <v>45093.531875</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16709,14 +16709,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 25443-2023</t>
+          <t>A 16772-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45089</v>
+        <v>45411</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16766,14 +16766,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 66056-2021</t>
+          <t>A 25443-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44517.6359837963</v>
+        <v>45089</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16823,14 +16823,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 23189-2024</t>
+          <t>A 66056-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45450</v>
+        <v>44517.6359837963</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16842,13 +16842,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G274" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16885,14 +16880,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 7991-2024</t>
+          <t>A 23189-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45350</v>
+        <v>45450</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16904,8 +16899,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G275" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16942,14 +16942,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 22289-2021</t>
+          <t>A 7991-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44326</v>
+        <v>45350</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16999,14 +16999,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 59542-2022</t>
+          <t>A 22289-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44907</v>
+        <v>44326</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17019,7 +17019,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17056,14 +17056,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 19155-2025</t>
+          <t>A 59542-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45769</v>
+        <v>44907</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17113,14 +17113,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 52848-2021</t>
+          <t>A 19155-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44467</v>
+        <v>45769</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17170,14 +17170,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 8361-2025</t>
+          <t>A 52848-2021</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45708</v>
+        <v>44467</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17227,14 +17227,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 73310-2021</t>
+          <t>A 8361-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44547</v>
+        <v>45708</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17284,14 +17284,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 39635-2023</t>
+          <t>A 73310-2021</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45167.52609953703</v>
+        <v>44547</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.7</v>
+        <v>6.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17341,14 +17341,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 37339-2022</t>
+          <t>A 39635-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44806</v>
+        <v>45167.52609953703</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17398,14 +17398,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 56386-2022</t>
+          <t>A 37339-2022</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44890</v>
+        <v>44806</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17455,14 +17455,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 71781-2021</t>
+          <t>A 56386-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44539</v>
+        <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17474,13 +17474,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G285" t="n">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17517,14 +17512,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 6713-2025</t>
+          <t>A 71781-2021</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45700</v>
+        <v>44539</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17542,7 +17537,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17579,14 +17574,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 8362-2025</t>
+          <t>A 6713-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45708</v>
+        <v>45700</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17598,8 +17593,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G287" t="n">
-        <v>7.7</v>
+        <v>1.8</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17636,14 +17636,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 30527-2022</t>
+          <t>A 8362-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44762.44436342592</v>
+        <v>45708</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17656,7 +17656,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>3.1</v>
+        <v>7.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17693,14 +17693,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 17573-2025</t>
+          <t>A 30527-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45757.65053240741</v>
+        <v>44762.44436342592</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17713,7 +17713,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17750,14 +17750,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 17122-2024</t>
+          <t>A 17573-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45412</v>
+        <v>45757.65053240741</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17807,14 +17807,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 9837-2023</t>
+          <t>A 17122-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44984.85623842593</v>
+        <v>45412</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17864,14 +17864,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 41878-2024</t>
+          <t>A 9837-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45561</v>
+        <v>44984.85623842593</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17883,13 +17883,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F292" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G292" t="n">
-        <v>15.9</v>
+        <v>0.6</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17926,14 +17921,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 19753-2024</t>
+          <t>A 41878-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45432</v>
+        <v>45561</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17945,8 +17940,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G293" t="n">
-        <v>1.5</v>
+        <v>15.9</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17983,14 +17983,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 27443-2024</t>
+          <t>A 19753-2024</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45474</v>
+        <v>45432</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18040,14 +18040,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 32959-2022</t>
+          <t>A 27443-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44784</v>
+        <v>45474</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18060,7 +18060,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18097,14 +18097,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 30914-2023</t>
+          <t>A 32959-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45113</v>
+        <v>44784</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18154,14 +18154,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 20369-2024</t>
+          <t>A 30914-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45435</v>
+        <v>45113</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18211,14 +18211,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 7272-2022</t>
+          <t>A 20369-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44606.4540625</v>
+        <v>45435</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18268,14 +18268,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 26829-2023</t>
+          <t>A 7272-2022</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45093.54527777778</v>
+        <v>44606.4540625</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18325,14 +18325,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 38517-2024</t>
+          <t>A 26829-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45546.56068287037</v>
+        <v>45093.54527777778</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18382,14 +18382,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 16574-2025</t>
+          <t>A 38517-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45752.50203703704</v>
+        <v>45546.56068287037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18439,14 +18439,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 18184-2024</t>
+          <t>A 16574-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45420</v>
+        <v>45752.50203703704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18458,13 +18458,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F302" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G302" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18501,14 +18496,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 19524-2024</t>
+          <t>A 18184-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45429.6306712963</v>
+        <v>45420</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18520,8 +18515,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G303" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18558,14 +18558,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 3779-2025</t>
+          <t>A 19524-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45681</v>
+        <v>45429.6306712963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18577,13 +18577,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
-        <is>
-          <t>BillerudKorsnäs AB</t>
-        </is>
-      </c>
       <c r="G304" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18620,14 +18615,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 63919-2021</t>
+          <t>A 3779-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44509</v>
+        <v>45681</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18639,8 +18634,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>BillerudKorsnäs AB</t>
+        </is>
+      </c>
       <c r="G305" t="n">
-        <v>5.2</v>
+        <v>7.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18677,14 +18677,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 4870-2024</t>
+          <t>A 63919-2021</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45329</v>
+        <v>44509</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18697,7 +18697,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>8.4</v>
+        <v>5.2</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18734,14 +18734,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 36646-2023</t>
+          <t>A 4870-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45153.55540509259</v>
+        <v>45329</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18754,7 +18754,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>2.4</v>
+        <v>8.4</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18791,14 +18791,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 22822-2024</t>
+          <t>A 36646-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45448</v>
+        <v>45153.55540509259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18848,14 +18848,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 19053-2024</t>
+          <t>A 22822-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45427</v>
+        <v>45448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18905,14 +18905,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 4603-2025</t>
+          <t>A 19053-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45687</v>
+        <v>45427</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18924,13 +18924,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F310" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G310" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18967,14 +18962,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 11601-2025</t>
+          <t>A 4603-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45727</v>
+        <v>45687</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18986,8 +18981,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G311" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19024,14 +19024,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 12175-2024</t>
+          <t>A 11601-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45377</v>
+        <v>45727</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19044,7 +19044,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19081,14 +19081,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 39145-2021</t>
+          <t>A 12175-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>44412</v>
+        <v>45377</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19101,7 +19101,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19138,14 +19138,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 29577-2024</t>
+          <t>A 39145-2021</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45484</v>
+        <v>44412</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19157,13 +19157,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G314" t="n">
-        <v>10.1</v>
+        <v>0.7</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19200,14 +19195,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 20784-2025</t>
+          <t>A 29577-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45776.61640046296</v>
+        <v>45484</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19219,8 +19214,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G315" t="n">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19257,14 +19257,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 8370-2023</t>
+          <t>A 20784-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44977.38424768519</v>
+        <v>45776.61640046296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.9</v>
+        <v>9.5</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19314,14 +19314,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 12217-2025</t>
+          <t>A 8370-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45729.5358912037</v>
+        <v>44977.38424768519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>4.6</v>
+        <v>0.9</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19371,116 +19371,173 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
+          <t>A 12217-2025</t>
+        </is>
+      </c>
+      <c r="B318" s="1" t="n">
+        <v>45729.5358912037</v>
+      </c>
+      <c r="C318" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H318" t="n">
+        <v>0</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0</v>
+      </c>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
+      <c r="N318" t="n">
+        <v>0</v>
+      </c>
+      <c r="O318" t="n">
+        <v>0</v>
+      </c>
+      <c r="P318" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
+      <c r="R318" s="2" t="inlineStr"/>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="A319" t="inlineStr">
+        <is>
           <t>A 22133-2025</t>
         </is>
       </c>
-      <c r="B318" s="1" t="n">
+      <c r="B319" s="1" t="n">
         <v>45785</v>
       </c>
-      <c r="C318" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D318" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E318" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G318" t="n">
+      <c r="C319" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
         <v>4.7</v>
       </c>
-      <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="n">
-        <v>0</v>
-      </c>
-      <c r="K318" t="n">
-        <v>0</v>
-      </c>
-      <c r="L318" t="n">
-        <v>0</v>
-      </c>
-      <c r="M318" t="n">
-        <v>0</v>
-      </c>
-      <c r="N318" t="n">
-        <v>0</v>
-      </c>
-      <c r="O318" t="n">
-        <v>0</v>
-      </c>
-      <c r="P318" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q318" t="n">
-        <v>0</v>
-      </c>
-      <c r="R318" s="2" t="inlineStr"/>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
+      <c r="H319" t="n">
+        <v>0</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0</v>
+      </c>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
+      <c r="N319" t="n">
+        <v>0</v>
+      </c>
+      <c r="O319" t="n">
+        <v>0</v>
+      </c>
+      <c r="P319" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
+      <c r="R319" s="2" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
         <is>
           <t>A 22537-2025</t>
         </is>
       </c>
-      <c r="B319" s="1" t="n">
+      <c r="B320" s="1" t="n">
         <v>45787</v>
       </c>
-      <c r="C319" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D319" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E319" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G319" t="n">
+      <c r="C320" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
         <v>0.8</v>
       </c>
-      <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="n">
-        <v>0</v>
-      </c>
-      <c r="K319" t="n">
-        <v>0</v>
-      </c>
-      <c r="L319" t="n">
-        <v>0</v>
-      </c>
-      <c r="M319" t="n">
-        <v>0</v>
-      </c>
-      <c r="N319" t="n">
-        <v>0</v>
-      </c>
-      <c r="O319" t="n">
-        <v>0</v>
-      </c>
-      <c r="P319" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q319" t="n">
-        <v>0</v>
-      </c>
-      <c r="R319" s="2" t="inlineStr"/>
+      <c r="H320" t="n">
+        <v>0</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0</v>
+      </c>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
+      <c r="N320" t="n">
+        <v>0</v>
+      </c>
+      <c r="O320" t="n">
+        <v>0</v>
+      </c>
+      <c r="P320" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
+      <c r="R320" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,14 +1284,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 15321-2023</t>
+          <t>A 40521-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45019</v>
+        <v>45896</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.2</v>
+        <v>2.6</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,220 +1338,220 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 26662-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45810</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Skogsklocka</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 15321-2023</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45019</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Vätteros</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 40521-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45896</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 26662-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45810</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 62973-2025</t>
+          <t>A 47146-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>46009</v>
+        <v>45929</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1563,11 +1563,16 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1598,565 +1603,560 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Duvhök</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 47146-2025 artfynd.xlsx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 47146-2025 karta.png", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 47146-2025 FSC-klagomål.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 47146-2025 FSC-klagomål mail.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 47146-2025 tillsynsbegäran.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 47146-2025 tillsynsbegäran mail.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 47146-2025 prioriterade fågelarter.docx", "A 47146-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 23860-2023</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="Z14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 37700-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45880</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 30406-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45827</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 66053-2021</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44517.63174768518</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 54042-2021</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="T18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="V18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="W18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="Y18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 62973-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y19">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 47146-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45929</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Duvhök</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 47146-2025 artfynd.xlsx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 47146-2025 karta.png", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 47146-2025 FSC-klagomål.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 47146-2025 FSC-klagomål mail.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 47146-2025 tillsynsbegäran.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 47146-2025 tillsynsbegäran mail.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 47146-2025 prioriterade fågelarter.docx", "A 47146-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 23860-2023</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 37700-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45880</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 30406-2025</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45827</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 66053-2021</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44517.63174768518</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 54042-2021</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>45708</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>45527</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44432</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44607.63090277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2738,14 +2738,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36506-2021</t>
+          <t>A 34652-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44391</v>
+        <v>44795</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>10.7</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2795,14 +2795,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 34652-2022</t>
+          <t>A 36506-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44795</v>
+        <v>44391</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>10.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>44782</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3251,14 +3251,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 23332-2021</t>
+          <t>A 15701-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44328</v>
+        <v>44286</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3308,14 +3308,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 15701-2021</t>
+          <t>A 23332-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44286</v>
+        <v>44328</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3372,7 +3372,7 @@
         <v>44844</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44690</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3655,14 +3655,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13140-2021</t>
+          <t>A 25970-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44271</v>
+        <v>44734</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3712,14 +3712,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 25970-2022</t>
+          <t>A 13140-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44734</v>
+        <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3776,7 +3776,7 @@
         <v>44694.44246527777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44292</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44369</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44467.47119212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4111,14 +4111,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 63964-2021</t>
+          <t>A 59760-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44509</v>
+        <v>44494.45789351852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4168,14 +4168,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 59760-2021</t>
+          <t>A 63964-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44494.45789351852</v>
+        <v>44509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>44498</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44267</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44762.46194444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>44620</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44627</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44258</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4805,14 +4805,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11103-2022</t>
+          <t>A 43960-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44628</v>
+        <v>44434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4862,14 +4862,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 43960-2021</t>
+          <t>A 11103-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44434</v>
+        <v>44628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>44735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44882.59195601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44649.65836805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44806</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44494.44803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44753</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5328,14 +5328,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 2089-2022</t>
+          <t>A 25694-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44577.00778935185</v>
+        <v>44732</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5385,14 +5385,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51203-2021</t>
+          <t>A 2089-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44460</v>
+        <v>44577.00778935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5404,13 +5404,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5447,14 +5442,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25694-2022</t>
+          <t>A 51203-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44732</v>
+        <v>44460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5466,8 +5461,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5511,7 +5511,7 @@
         <v>44498.66922453704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44292</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5682,7 +5682,7 @@
         <v>44312.36194444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5739,7 +5739,7 @@
         <v>44425</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44760.46356481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44547</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5910,7 +5910,7 @@
         <v>44958.56039351852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
         <v>44552</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>44596.6127662037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>45477</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6138,7 +6138,7 @@
         <v>44958</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6195,7 +6195,7 @@
         <v>45757</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6252,7 +6252,7 @@
         <v>45757.43275462963</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6309,7 +6309,7 @@
         <v>44550</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6366,7 +6366,7 @@
         <v>45387</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>45245.54427083334</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6480,7 +6480,7 @@
         <v>45245</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
         <v>44963.48369212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6594,7 +6594,7 @@
         <v>45201</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6644,14 +6644,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 26840-2023</t>
+          <t>A 29582-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45093.5540625</v>
+        <v>45484</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6663,8 +6663,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6701,14 +6706,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18341-2025</t>
+          <t>A 22133-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45762.51554398148</v>
+        <v>45785</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6721,7 +6726,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6758,14 +6763,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29582-2024</t>
+          <t>A 26840-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45484</v>
+        <v>45093.5540625</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6777,13 +6782,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6820,14 +6820,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 31561-2023</t>
+          <t>A 18341-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45117.39696759259</v>
+        <v>45762.51554398148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6877,14 +6877,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13121-2023</t>
+          <t>A 22537-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45002</v>
+        <v>45787</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6934,14 +6934,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 53209-2021</t>
+          <t>A 58514-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44468</v>
+        <v>44902.40304398148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6954,7 +6954,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>11.6</v>
+        <v>3.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6991,14 +6991,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 37119-2024</t>
+          <t>A 31561-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45539.53746527778</v>
+        <v>45117.39696759259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7011,7 +7011,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7048,14 +7048,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58514-2022</t>
+          <t>A 13121-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44902.40304398148</v>
+        <v>45002</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7105,14 +7105,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 17910-2024</t>
+          <t>A 53209-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45419</v>
+        <v>44468</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7125,7 +7125,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>6.8</v>
+        <v>11.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7162,14 +7162,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 2253-2024</t>
+          <t>A 37119-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45310.30798611111</v>
+        <v>45539.53746527778</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>6.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7219,14 +7219,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 6721-2025</t>
+          <t>A 39334-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45700</v>
+        <v>45889.49049768518</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7238,13 +7238,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>5.7</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7281,14 +7276,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 39334-2025</t>
+          <t>A 17910-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45889.49049768518</v>
+        <v>45419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7301,7 +7296,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7338,14 +7333,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 49300-2022</t>
+          <t>A 2253-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44861.47716435185</v>
+        <v>45310.30798611111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7358,7 +7353,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7395,14 +7390,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5957-2024</t>
+          <t>A 40029-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45336</v>
+        <v>45894</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7415,7 +7410,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7452,14 +7447,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13289-2025</t>
+          <t>A 40027-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45735</v>
+        <v>45894.36900462963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7472,7 +7467,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7509,14 +7504,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40029-2025</t>
+          <t>A 13289-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45894</v>
+        <v>45735</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7529,7 +7524,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7566,14 +7561,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 40027-2025</t>
+          <t>A 6721-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45894.36900462963</v>
+        <v>45700</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7585,8 +7580,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7623,14 +7623,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 27218-2023</t>
+          <t>A 49300-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45096.58238425926</v>
+        <v>44861.47716435185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7680,14 +7680,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 20238-2024</t>
+          <t>A 5957-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45434</v>
+        <v>45336</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7737,14 +7737,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36420-2023</t>
+          <t>A 41113-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45152</v>
+        <v>45898.46057870371</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7794,14 +7794,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41113-2025</t>
+          <t>A 17239-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45898.46057870371</v>
+        <v>45756.47972222222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7851,14 +7851,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17239-2025</t>
+          <t>A 27218-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45756.47972222222</v>
+        <v>45096.58238425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7908,14 +7908,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56219-2023</t>
+          <t>A 42143-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45240.77920138889</v>
+        <v>45904.36905092592</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7965,14 +7965,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 17399-2025</t>
+          <t>A 36420-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45757</v>
+        <v>45152</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8022,14 +8022,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 680-2024</t>
+          <t>A 20238-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45300</v>
+        <v>45434</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8079,14 +8079,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 30339-2022</t>
+          <t>A 17399-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44760.47674768518</v>
+        <v>45757</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8099,7 +8099,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>5.3</v>
+        <v>1.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8136,14 +8136,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12350-2023</t>
+          <t>A 44160-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44998</v>
+        <v>45915.59703703703</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8157,11 +8157,11 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Bergvik skog väst AB</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8198,14 +8198,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 42143-2025</t>
+          <t>A 56219-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45904.36905092592</v>
+        <v>45240.77920138889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8255,14 +8255,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 24543-2024</t>
+          <t>A 680-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45460</v>
+        <v>45300</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8274,13 +8274,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>5.8</v>
+        <v>0.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8317,14 +8312,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29256-2025</t>
+          <t>A 30339-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45824.38387731482</v>
+        <v>44760.47674768518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8337,7 +8332,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8374,14 +8369,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29260-2025</t>
+          <t>A 44497-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45824</v>
+        <v>45916.67107638889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8394,7 +8389,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8431,14 +8426,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 29645-2025</t>
+          <t>A 12350-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45825.46574074074</v>
+        <v>44998</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8450,8 +8445,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8488,14 +8488,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 975-2025</t>
+          <t>A 24543-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45665</v>
+        <v>45460</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,8 +8507,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8545,14 +8550,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44160-2025</t>
+          <t>A 29256-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45915.59703703703</v>
+        <v>45824.38387731482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8564,13 +8569,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>9.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8607,14 +8607,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 30411-2025</t>
+          <t>A 45728-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45827</v>
+        <v>45923.45925925926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8627,7 +8627,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8664,14 +8664,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62557-2022</t>
+          <t>A 45784-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44924.77230324074</v>
+        <v>45923.55923611111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8684,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8721,14 +8721,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 30563-2025</t>
+          <t>A 45868-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45831.40098379629</v>
+        <v>45923.65232638889</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8778,14 +8778,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31190-2025</t>
+          <t>A 29260-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45831</v>
+        <v>45824</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8798,7 +8798,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8835,14 +8835,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44497-2025</t>
+          <t>A 45898-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45916.67107638889</v>
+        <v>45923.67954861111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8855,7 +8855,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8892,14 +8892,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 21402-2024</t>
+          <t>A 29645-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45441</v>
+        <v>45825.46574074074</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8949,14 +8949,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45728-2025</t>
+          <t>A 45744-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45923.45925925926</v>
+        <v>45923.47619212963</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8969,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9006,14 +9006,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45784-2025</t>
+          <t>A 45750-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45923.55923611111</v>
+        <v>45923.48400462963</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9026,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9063,14 +9063,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 29736-2023</t>
+          <t>A 45812-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45107.45405092592</v>
+        <v>45923.58844907407</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9083,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9120,14 +9120,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45868-2025</t>
+          <t>A 43243-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45923.65232638889</v>
+        <v>45910</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9177,14 +9177,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 62967-2025</t>
+          <t>A 975-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>46009</v>
+        <v>45665</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9197,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9234,14 +9234,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45898-2025</t>
+          <t>A 30411-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45923.67954861111</v>
+        <v>45827</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9254,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9291,14 +9291,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45744-2025</t>
+          <t>A 62557-2022</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45923.47619212963</v>
+        <v>44924.77230324074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9348,14 +9348,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45750-2025</t>
+          <t>A 30563-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45923.48400462963</v>
+        <v>45831.40098379629</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9405,14 +9405,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45812-2025</t>
+          <t>A 31190-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45923.58844907407</v>
+        <v>45831</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9425,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9462,14 +9462,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 53138-2023</t>
+          <t>A 58751-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45229.34055555556</v>
+        <v>45986.64163194445</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9482,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9519,14 +9519,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 43243-2025</t>
+          <t>A 21402-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45910</v>
+        <v>45441</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9539,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9576,14 +9576,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 32327-2025</t>
+          <t>A 47507-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45836.44756944444</v>
+        <v>45930.86842592592</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9633,14 +9633,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 19566-2023</t>
+          <t>A 29736-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45049</v>
+        <v>45107.45405092592</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9690,14 +9690,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62941-2025</t>
+          <t>A 53138-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>46009</v>
+        <v>45229.34055555556</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9710,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9747,14 +9747,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 29762-2023</t>
+          <t>A 19566-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45107.47733796296</v>
+        <v>45049</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9767,7 +9767,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9804,14 +9804,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 16092-2021</t>
+          <t>A 29762-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44289</v>
+        <v>45107.47733796296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9824,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9861,14 +9861,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 8364-2025</t>
+          <t>A 32327-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45708</v>
+        <v>45836.44756944444</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9881,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9918,14 +9918,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 47507-2025</t>
+          <t>A 16092-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45930.86842592592</v>
+        <v>44289</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9938,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9975,14 +9975,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62896-2023</t>
+          <t>A 49422-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45272.42737268518</v>
+        <v>45938</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +9995,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>13.8</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10032,14 +10032,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 8359-2025</t>
+          <t>A 49425-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45708</v>
+        <v>45938</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10052,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10089,14 +10089,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 69847-2021</t>
+          <t>A 49507-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44532</v>
+        <v>45939.37804398148</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10109,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.3</v>
+        <v>5.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10146,14 +10146,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 35426-2025</t>
+          <t>A 8364-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45855</v>
+        <v>45708</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10166,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10203,14 +10203,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 35425-2025</t>
+          <t>A 62896-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45855</v>
+        <v>45272.42737268518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10223,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.5</v>
+        <v>13.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10260,14 +10260,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 58705-2024</t>
+          <t>A 69847-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45635</v>
+        <v>44532</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10279,13 +10279,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10322,14 +10317,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 49422-2025</t>
+          <t>A 8359-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45938</v>
+        <v>45708</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10342,7 +10337,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10379,14 +10374,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 22347-2023</t>
+          <t>A 58705-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45070.57208333333</v>
+        <v>45635</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10398,8 +10393,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1.7</v>
+        <v>4.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10436,14 +10436,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 49425-2025</t>
+          <t>A 58747-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45938</v>
+        <v>45986.63916666667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10456,7 +10456,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10493,14 +10493,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 38582-2024</t>
+          <t>A 22347-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45546</v>
+        <v>45070.57208333333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10512,13 +10512,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>5.7</v>
+        <v>1.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10555,14 +10550,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49507-2025</t>
+          <t>A 35426-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45939.37804398148</v>
+        <v>45855</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10575,7 +10570,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.7</v>
+        <v>2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10612,14 +10607,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 59391-2025</t>
+          <t>A 35425-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45989</v>
+        <v>45855</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10632,7 +10627,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10669,14 +10664,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 62955-2025</t>
+          <t>A 51509-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46009</v>
+        <v>45950</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10689,7 +10684,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10726,14 +10721,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 63063-2025</t>
+          <t>A 38582-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46009</v>
+        <v>45546</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10745,8 +10740,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10783,14 +10783,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 37515-2025</t>
+          <t>A 52699-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45877</v>
+        <v>45956.7752662037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10803,7 +10803,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10840,14 +10840,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 37495-2025</t>
+          <t>A 52700-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45877</v>
+        <v>45956.78072916667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10860,7 +10860,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10897,14 +10897,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 37517-2025</t>
+          <t>A 33081-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45877</v>
+        <v>44785</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10917,7 +10917,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10954,14 +10954,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 37696-2025</t>
+          <t>A 53863-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45880</v>
+        <v>45961.38152777778</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10974,7 +10974,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11011,14 +11011,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 51509-2025</t>
+          <t>A 53866-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45950</v>
+        <v>45961.385625</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11031,7 +11031,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11068,14 +11068,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 38002-2025</t>
+          <t>A 25840-2024</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45881.89586805556</v>
+        <v>45467</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11088,7 +11088,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11125,14 +11125,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52699-2025</t>
+          <t>A 37515-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45956.7752662037</v>
+        <v>45877</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11145,7 +11145,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11182,14 +11182,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 33081-2022</t>
+          <t>A 37495-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44785</v>
+        <v>45877</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11202,7 +11202,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11239,14 +11239,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 25840-2024</t>
+          <t>A 37517-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45467</v>
+        <v>45877</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11259,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11296,14 +11296,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 52700-2025</t>
+          <t>A 37676-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45956.78072916667</v>
+        <v>45159</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11316,7 +11316,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11353,14 +11353,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 37676-2023</t>
+          <t>A 37696-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45159</v>
+        <v>45880</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11373,7 +11373,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11410,14 +11410,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 53863-2025</t>
+          <t>A 6751-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45961.38152777778</v>
+        <v>45700.6130787037</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11467,14 +11467,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 6751-2025</t>
+          <t>A 50640-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45700.6130787037</v>
+        <v>45217.46871527778</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11524,14 +11524,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 53866-2025</t>
+          <t>A 34580-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45961.385625</v>
+        <v>44795</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11544,7 +11544,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11581,14 +11581,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 50640-2023</t>
+          <t>A 12000-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45217.46871527778</v>
+        <v>44635</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11601,7 +11601,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11638,14 +11638,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 34580-2022</t>
+          <t>A 42557-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44795</v>
+        <v>44831</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11658,7 +11658,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.9</v>
+        <v>13.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11695,14 +11695,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 12000-2022</t>
+          <t>A 38002-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44635</v>
+        <v>45881.89586805556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11752,14 +11752,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 42557-2022</t>
+          <t>A 40522-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44831</v>
+        <v>45896</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11772,7 +11772,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>13.7</v>
+        <v>0.9</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11809,14 +11809,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 35253-2022</t>
+          <t>A 40524-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44797</v>
+        <v>45896</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11866,14 +11866,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 10647-2024</t>
+          <t>A 35253-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45368.47725694445</v>
+        <v>44797</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11886,7 +11886,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11923,14 +11923,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 15545-2024</t>
+          <t>A 10647-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45401</v>
+        <v>45368.47725694445</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11942,13 +11942,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11985,14 +11980,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 5280-2022</t>
+          <t>A 59617-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44593</v>
+        <v>45992.37861111111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12004,13 +11999,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>37.1</v>
+        <v>1.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12047,14 +12037,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 13820-2024</t>
+          <t>A 15545-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45390</v>
+        <v>45401</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12066,8 +12056,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G191" t="n">
-        <v>7.2</v>
+        <v>3.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12104,14 +12099,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 17565-2025</t>
+          <t>A 5280-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45757.64024305555</v>
+        <v>44593</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12123,8 +12118,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>37.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12161,14 +12161,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 31362-2024</t>
+          <t>A 13820-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45505</v>
+        <v>45390</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12218,14 +12218,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 58751-2025</t>
+          <t>A 17565-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45986.64163194445</v>
+        <v>45757.64024305555</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12275,14 +12275,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 32302-2024</t>
+          <t>A 2581-2026</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45512</v>
+        <v>46037.53079861111</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12294,13 +12294,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12337,14 +12332,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 567-2026</t>
+          <t>A 31362-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>46029.46965277778</v>
+        <v>45505</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12357,7 +12352,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12394,14 +12389,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 58747-2025</t>
+          <t>A 60752-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45986.63916666667</v>
+        <v>45999.38148148148</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12451,14 +12446,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 614-2026</t>
+          <t>A 3054-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46024</v>
+        <v>46039.37369212963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12471,7 +12466,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12508,14 +12503,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 3065-2024</t>
+          <t>A 60656-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45316.40590277778</v>
+        <v>45996.47914351852</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12528,7 +12523,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12565,14 +12560,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 17081-2024</t>
+          <t>A 32302-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45412</v>
+        <v>45512</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12584,8 +12579,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12622,14 +12622,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 8732-2026</t>
+          <t>A 3065-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46066.49796296296</v>
+        <v>45316.40590277778</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>6.1</v>
+        <v>0.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12679,14 +12679,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 7993-2024</t>
+          <t>A 17081-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45350.63241898148</v>
+        <v>45412</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12699,7 +12699,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12736,14 +12736,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 45467-2022</t>
+          <t>A 7993-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44845</v>
+        <v>45350.63241898148</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12756,7 +12756,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12793,14 +12793,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 5011-2024</t>
+          <t>A 45467-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45329</v>
+        <v>44845</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12813,7 +12813,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>22</v>
+        <v>4.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12850,14 +12850,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 53137-2023</t>
+          <t>A 5011-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45229.33768518519</v>
+        <v>45329</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12870,7 +12870,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12907,14 +12907,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 40522-2025</t>
+          <t>A 53137-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45896</v>
+        <v>45229.33768518519</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12927,7 +12927,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12964,14 +12964,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 40524-2025</t>
+          <t>A 57233-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45896</v>
+        <v>45245.54103009259</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13021,14 +13021,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 59617-2025</t>
+          <t>A 9144-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45992.37861111111</v>
+        <v>45358.37327546296</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13041,7 +13041,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13078,14 +13078,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 57233-2023</t>
+          <t>A 62675-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45245.54103009259</v>
+        <v>45271</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13098,7 +13098,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13135,14 +13135,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 9144-2024</t>
+          <t>A 62682-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45358.37327546296</v>
+        <v>45271</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13192,14 +13192,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 62675-2023</t>
+          <t>A 5214-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45271</v>
+        <v>45691</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13212,7 +13212,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13249,14 +13249,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 62682-2023</t>
+          <t>A 4982-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45271</v>
+        <v>45329</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13269,7 +13269,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13306,14 +13306,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 5214-2025</t>
+          <t>A 62947-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45691</v>
+        <v>45272.54398148148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13363,14 +13363,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 2581-2026</t>
+          <t>A 31930-2024</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>46037.53079861111</v>
+        <v>45510</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13420,14 +13420,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 60752-2025</t>
+          <t>A 62967-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45999.38148148148</v>
+        <v>46009</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13477,14 +13477,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 3054-2026</t>
+          <t>A 71706-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46039.37369212963</v>
+        <v>44543.44349537037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13497,7 +13497,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13534,14 +13534,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 60656-2025</t>
+          <t>A 11597-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45996.47914351852</v>
+        <v>45727</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13554,7 +13554,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13591,14 +13591,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 4982-2024</t>
+          <t>A 40935-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45329</v>
+        <v>44823</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13610,8 +13610,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13648,14 +13653,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 62947-2023</t>
+          <t>A 62941-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45272.54398148148</v>
+        <v>46009</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13668,7 +13673,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13705,14 +13710,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 31930-2024</t>
+          <t>A 59391-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45510</v>
+        <v>45989</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13725,7 +13730,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>4.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13762,14 +13767,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 71706-2021</t>
+          <t>A 62955-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44543.44349537037</v>
+        <v>46009</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13782,7 +13787,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13819,14 +13824,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 11597-2025</t>
+          <t>A 63063-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45727</v>
+        <v>46009</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13839,7 +13844,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13876,14 +13881,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 40935-2022</t>
+          <t>A 6938-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44823</v>
+        <v>45343</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13895,13 +13900,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13938,14 +13938,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 6938-2024</t>
+          <t>A 14306-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45343</v>
+        <v>45011</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13958,7 +13958,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13995,14 +13995,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 14306-2023</t>
+          <t>A 18321-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45011</v>
+        <v>45762</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14015,7 +14015,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14052,14 +14052,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 18321-2025</t>
+          <t>A 17972-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45762</v>
+        <v>45761.36483796296</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14109,14 +14109,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 17972-2025</t>
+          <t>A 27222-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45761.36483796296</v>
+        <v>45096.58590277778</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14166,14 +14166,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 27222-2023</t>
+          <t>A 36644-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45096.58590277778</v>
+        <v>45153.55092592593</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14186,7 +14186,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14223,14 +14223,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 36644-2023</t>
+          <t>A 8788-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45153.55092592593</v>
+        <v>45356</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14280,14 +14280,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 8788-2024</t>
+          <t>A 7931-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45356</v>
+        <v>45706</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14299,8 +14299,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>0.9</v>
+        <v>13.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14337,14 +14342,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 7931-2025</t>
+          <t>A 62554-2022</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45706</v>
+        <v>44924</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14356,13 +14361,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>13.8</v>
+        <v>0.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14399,14 +14399,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 62554-2022</t>
+          <t>A 21528-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44924</v>
+        <v>45441.59262731481</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14456,14 +14456,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 21528-2024</t>
+          <t>A 20954-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45441.59262731481</v>
+        <v>45061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14513,14 +14513,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 20954-2023</t>
+          <t>A 614-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45061</v>
+        <v>46024</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14570,14 +14570,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 19052-2024</t>
+          <t>A 8732-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45427.76670138889</v>
+        <v>46066.49796296296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14627,14 +14627,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 10892-2022</t>
+          <t>A 19052-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44627.77988425926</v>
+        <v>45427.76670138889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.4</v>
+        <v>7.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14684,14 +14684,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 29426-2022</t>
+          <t>A 10892-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44753</v>
+        <v>44627.77988425926</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14703,13 +14703,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>14.4</v>
+        <v>1.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14746,14 +14741,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 12416-2023</t>
+          <t>A 29426-2022</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44998</v>
+        <v>44753</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14771,7 +14766,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2</v>
+        <v>14.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14808,14 +14803,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 44048-2023</t>
+          <t>A 12416-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45188.38348379629</v>
+        <v>44998</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14827,8 +14822,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G239" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14865,14 +14865,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 43242-2021</t>
+          <t>A 567-2026</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44432</v>
+        <v>46029.46965277778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14885,7 +14885,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14922,14 +14922,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 62905-2023</t>
+          <t>A 44048-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45272</v>
+        <v>45188.38348379629</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>13.8</v>
+        <v>2.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14979,14 +14979,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 21311-2024</t>
+          <t>A 43242-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45440</v>
+        <v>44432</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14998,13 +14998,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G242" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15041,14 +15036,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 37486-2022</t>
+          <t>A 62905-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44809.55424768518</v>
+        <v>45272</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15061,7 +15056,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>8.6</v>
+        <v>13.8</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15098,14 +15093,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 46299-2022</t>
+          <t>A 21311-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44847.75081018519</v>
+        <v>45440</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,8 +15112,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15155,14 +15155,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 5236-2023</t>
+          <t>A 37486-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44956</v>
+        <v>44809.55424768518</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>8.6</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15212,14 +15212,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 56220-2023</t>
+          <t>A 46299-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45240.78313657407</v>
+        <v>44847.75081018519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15269,14 +15269,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 53755-2024</t>
+          <t>A 5236-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45615.49748842593</v>
+        <v>44956</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>6.1</v>
+        <v>1</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15326,14 +15326,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 972-2025</t>
+          <t>A 56220-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45665</v>
+        <v>45240.78313657407</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15383,14 +15383,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 909-2025</t>
+          <t>A 53755-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45664</v>
+        <v>45615.49748842593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15440,14 +15440,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 13895-2024</t>
+          <t>A 972-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45391</v>
+        <v>45665</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,13 +15459,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G250" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15502,14 +15497,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 29724-2023</t>
+          <t>A 909-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45107</v>
+        <v>45664</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15522,7 +15517,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15559,14 +15554,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 56552-2022</t>
+          <t>A 13895-2024</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44887</v>
+        <v>45391</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15584,7 +15579,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15621,14 +15616,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 31974-2023</t>
+          <t>A 29724-2023</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
         <v>45107</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15641,7 +15636,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15678,14 +15673,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 19802-2024</t>
+          <t>A 56552-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45432</v>
+        <v>44887</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15703,7 +15698,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15740,14 +15735,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 16635-2024</t>
+          <t>A 31974-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45408.59462962963</v>
+        <v>45107</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15760,7 +15755,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15797,14 +15792,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 22319-2021</t>
+          <t>A 19802-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44326.48232638889</v>
+        <v>45432</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,8 +15811,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G256" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15854,14 +15854,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 4273-2025</t>
+          <t>A 16635-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45685</v>
+        <v>45408.59462962963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15911,14 +15911,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 7922-2022</t>
+          <t>A 22319-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44608.72004629629</v>
+        <v>44326.48232638889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15968,14 +15968,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 1556-2025</t>
+          <t>A 4273-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45670</v>
+        <v>45685</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16025,14 +16025,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 12311-2024</t>
+          <t>A 7922-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45378.63476851852</v>
+        <v>44608.72004629629</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16082,14 +16082,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 33948-2023</t>
+          <t>A 1556-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45124</v>
+        <v>45670</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16139,14 +16139,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 13320-2024</t>
+          <t>A 12311-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45386.77172453704</v>
+        <v>45378.63476851852</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16196,14 +16196,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 55227-2023</t>
+          <t>A 33948-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45231</v>
+        <v>45124</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16253,14 +16253,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 25014-2024</t>
+          <t>A 13320-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45461</v>
+        <v>45386.77172453704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>12.8</v>
+        <v>6</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16310,14 +16310,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 31964-2023</t>
+          <t>A 55227-2023</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45107</v>
+        <v>45231</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16367,14 +16367,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 12082-2024</t>
+          <t>A 25014-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45377.54760416667</v>
+        <v>45461</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.2</v>
+        <v>12.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16424,14 +16424,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 12084-2024</t>
+          <t>A 31964-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45377.55229166667</v>
+        <v>45107</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16444,7 +16444,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16481,14 +16481,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 4976-2024</t>
+          <t>A 12082-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45329</v>
+        <v>45377.54760416667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16501,7 +16501,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16538,14 +16538,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 64304-2023</t>
+          <t>A 12084-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45280</v>
+        <v>45377.55229166667</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16558,7 +16558,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16595,14 +16595,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 48553-2023</t>
+          <t>A 4976-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45208.40232638889</v>
+        <v>45329</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16615,7 +16615,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16652,14 +16652,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 26815-2023</t>
+          <t>A 64304-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45093.531875</v>
+        <v>45280</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16672,7 +16672,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16709,14 +16709,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 16772-2024</t>
+          <t>A 48553-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45411</v>
+        <v>45208.40232638889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16729,7 +16729,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16766,14 +16766,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 25443-2023</t>
+          <t>A 26815-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45089</v>
+        <v>45093.531875</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16786,7 +16786,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16823,14 +16823,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 66056-2021</t>
+          <t>A 16772-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44517.6359837963</v>
+        <v>45411</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16880,14 +16880,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 23189-2024</t>
+          <t>A 25443-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45450</v>
+        <v>45089</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16899,13 +16899,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G275" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16942,14 +16937,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 7991-2024</t>
+          <t>A 66056-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45350</v>
+        <v>44517.6359837963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16962,7 +16957,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16999,14 +16994,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 22289-2021</t>
+          <t>A 23189-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44326</v>
+        <v>45450</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17018,8 +17013,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G277" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17056,14 +17056,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 59542-2022</t>
+          <t>A 7991-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44907</v>
+        <v>45350</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17076,7 +17076,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17113,14 +17113,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 19155-2025</t>
+          <t>A 22289-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45769</v>
+        <v>44326</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17133,7 +17133,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17170,14 +17170,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 52848-2021</t>
+          <t>A 59542-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44467</v>
+        <v>44907</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17190,7 +17190,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17227,14 +17227,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 8361-2025</t>
+          <t>A 19155-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45708</v>
+        <v>45769</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17247,7 +17247,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17284,14 +17284,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 73310-2021</t>
+          <t>A 52848-2021</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44547</v>
+        <v>44467</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17304,7 +17304,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>6.2</v>
+        <v>3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17341,14 +17341,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 39635-2023</t>
+          <t>A 8361-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45167.52609953703</v>
+        <v>45708</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17361,7 +17361,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17398,14 +17398,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 37339-2022</t>
+          <t>A 73310-2021</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44806</v>
+        <v>44547</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17418,7 +17418,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17455,14 +17455,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 56386-2022</t>
+          <t>A 39635-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44890</v>
+        <v>45167.52609953703</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17475,7 +17475,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17512,14 +17512,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 71781-2021</t>
+          <t>A 37339-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44539</v>
+        <v>44806</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17531,13 +17531,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G286" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17574,14 +17569,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 6713-2025</t>
+          <t>A 56386-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45700</v>
+        <v>44890</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17593,13 +17588,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G287" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17636,14 +17626,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 8362-2025</t>
+          <t>A 71781-2021</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45708</v>
+        <v>44539</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17655,8 +17645,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G288" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17693,14 +17688,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 30527-2022</t>
+          <t>A 6713-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44762.44436342592</v>
+        <v>45700</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17712,8 +17707,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G289" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17750,14 +17750,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 17573-2025</t>
+          <t>A 8362-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45757.65053240741</v>
+        <v>45708</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17770,7 +17770,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.7</v>
+        <v>7.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17807,14 +17807,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 17122-2024</t>
+          <t>A 30527-2022</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45412</v>
+        <v>44762.44436342592</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17827,7 +17827,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17864,14 +17864,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 9837-2023</t>
+          <t>A 17573-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44984.85623842593</v>
+        <v>45757.65053240741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17884,7 +17884,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17921,14 +17921,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 41878-2024</t>
+          <t>A 17122-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45561</v>
+        <v>45412</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17940,13 +17940,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G293" t="n">
-        <v>15.9</v>
+        <v>1.7</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17983,14 +17978,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 19753-2024</t>
+          <t>A 9837-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45432</v>
+        <v>44984.85623842593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18003,7 +17998,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18040,14 +18035,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 27443-2024</t>
+          <t>A 41878-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45474</v>
+        <v>45561</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18059,8 +18054,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G295" t="n">
-        <v>1.8</v>
+        <v>15.9</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18097,14 +18097,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 32959-2022</t>
+          <t>A 19753-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44784</v>
+        <v>45432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18117,7 +18117,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18154,14 +18154,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 30914-2023</t>
+          <t>A 27443-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45113</v>
+        <v>45474</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18174,7 +18174,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18211,14 +18211,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 20369-2024</t>
+          <t>A 32959-2022</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45435</v>
+        <v>44784</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18231,7 +18231,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18268,14 +18268,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 7272-2022</t>
+          <t>A 30914-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44606.4540625</v>
+        <v>45113</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18288,7 +18288,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18325,14 +18325,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 26829-2023</t>
+          <t>A 20369-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45093.54527777778</v>
+        <v>45435</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18345,7 +18345,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18382,14 +18382,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 38517-2024</t>
+          <t>A 7272-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45546.56068287037</v>
+        <v>44606.4540625</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18402,7 +18402,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18439,14 +18439,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 16574-2025</t>
+          <t>A 26829-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45752.50203703704</v>
+        <v>45093.54527777778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18459,7 +18459,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18496,14 +18496,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 18184-2024</t>
+          <t>A 38517-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45420</v>
+        <v>45546.56068287037</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18515,13 +18515,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G303" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18558,14 +18553,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 19524-2024</t>
+          <t>A 16574-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45429.6306712963</v>
+        <v>45752.50203703704</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18578,7 +18573,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18615,14 +18610,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 3779-2025</t>
+          <t>A 18184-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45681</v>
+        <v>45420</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18636,11 +18631,11 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>BillerudKorsnäs AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18677,14 +18672,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 63919-2021</t>
+          <t>A 19524-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44509</v>
+        <v>45429.6306712963</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18697,7 +18692,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18734,14 +18729,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 4870-2024</t>
+          <t>A 3779-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45329</v>
+        <v>45681</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18753,8 +18748,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>BillerudKorsnäs AB</t>
+        </is>
+      </c>
       <c r="G307" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18791,14 +18791,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 36646-2023</t>
+          <t>A 63919-2021</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45153.55540509259</v>
+        <v>44509</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18848,14 +18848,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 22822-2024</t>
+          <t>A 4870-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45448</v>
+        <v>45329</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.3</v>
+        <v>8.4</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18905,14 +18905,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 19053-2024</t>
+          <t>A 36646-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45427</v>
+        <v>45153.55540509259</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18925,7 +18925,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18962,14 +18962,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 4603-2025</t>
+          <t>A 22822-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45687</v>
+        <v>45448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18981,13 +18981,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F311" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G311" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19024,14 +19019,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 11601-2025</t>
+          <t>A 19053-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45727</v>
+        <v>45427</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19044,7 +19039,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19081,14 +19076,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 12175-2024</t>
+          <t>A 4603-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45377</v>
+        <v>45687</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19100,8 +19095,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G313" t="n">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19138,14 +19138,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 39145-2021</t>
+          <t>A 11601-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44412</v>
+        <v>45727</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19195,14 +19195,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 29577-2024</t>
+          <t>A 12175-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45484</v>
+        <v>45377</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19214,13 +19214,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G315" t="n">
-        <v>10.1</v>
+        <v>5.6</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19257,14 +19252,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 20784-2025</t>
+          <t>A 39145-2021</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45776.61640046296</v>
+        <v>44412</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19277,7 +19272,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>9.5</v>
+        <v>0.7</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19314,14 +19309,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 8370-2023</t>
+          <t>A 29577-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>44977.38424768519</v>
+        <v>45484</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19333,8 +19328,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G317" t="n">
-        <v>0.9</v>
+        <v>10.1</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19371,14 +19371,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 12217-2025</t>
+          <t>A 20784-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45729.5358912037</v>
+        <v>45776.61640046296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>4.6</v>
+        <v>9.5</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19428,14 +19428,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 22133-2025</t>
+          <t>A 8370-2023</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45785</v>
+        <v>44977.38424768519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>4.7</v>
+        <v>0.9</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19485,14 +19485,14 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 22537-2025</t>
+          <t>A 12217-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45787</v>
+        <v>45729.5358912037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,14 +1284,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 40521-2025</t>
+          <t>A 30406-2025</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45896</v>
+        <v>45827</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,7 +1304,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1338,209 +1338,213 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Z10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 40521-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45896</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Fläcknycklar</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 40521-2025 artfynd.xlsx", "A 40521-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 40521-2025 karta.png", "A 40521-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 40521-2025 FSC-klagomål.docx", "A 40521-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 40521-2025 FSC-klagomål mail.docx", "A 40521-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 40521-2025 tillsynsbegäran.docx", "A 40521-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 40521-2025 tillsynsbegäran mail.docx", "A 40521-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 26662-2025</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>45810</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
         <is>
           <t>Bergvik skog väst AB</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G12" t="n">
         <v>1.5</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 15321-2023</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45019</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Vätteros</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1551,7 +1555,7 @@
         <v>45929</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1638,14 +1642,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 23860-2023</t>
+          <t>A 37700-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45078</v>
+        <v>45880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1658,7 +1662,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1667,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1682,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1692,645 +1696,641 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Revlummer</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 15321-2023</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45019</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Vätteros</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 62973-2025</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>Motaggsvamp</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 23860-2023</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
           <t>Gulsparv</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
         <v/>
       </c>
-      <c r="Z14">
+      <c r="Z17">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 37700-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45880</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 66053-2021</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44517.63174768518</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Revlummer</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 37700-2025 artfynd.xlsx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 37700-2025 karta.png", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 37700-2025 FSC-klagomål.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 37700-2025 FSC-klagomål mail.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 37700-2025 tillsynsbegäran.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 37700-2025 tillsynsbegäran mail.docx", "A 37700-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 30406-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45827</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Talltita</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 66053-2021</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>44517.63174768518</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Björksplintborre</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>A 8363-2025</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>45708</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>Mandelriska</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 8363-2025 artfynd.xlsx", "A 8363-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 8363-2025 karta.png", "A 8363-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 8363-2025 FSC-klagomål.docx", "A 8363-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 8363-2025 FSC-klagomål mail.docx", "A 8363-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 8363-2025 tillsynsbegäran.docx", "A 8363-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 8363-2025 tillsynsbegäran mail.docx", "A 8363-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 35077-2024</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45527</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 35077-2024 artfynd.xlsx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 35077-2024 karta.png", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="U20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/knärot/A 35077-2024 karta knärot.png", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 35077-2024 FSC-klagomål.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 35077-2024 FSC-klagomål mail.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 35077-2024 tillsynsbegäran.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 35077-2024 tillsynsbegäran mail.docx", "A 35077-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 54042-2021</t>
         </is>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>44470</v>
       </c>
-      <c r="C18" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
+      <c r="C21" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>7.8</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1</v>
       </c>
-      <c r="R18" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Spillkråka</t>
         </is>
       </c>
-      <c r="S18">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="T18">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="V18">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="W18">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="X18">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="Y18">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
         <v/>
       </c>
-      <c r="Z18">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>A 62973-2025</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>46009</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" s="2" t="inlineStr">
-        <is>
-          <t>Motaggsvamp</t>
-        </is>
-      </c>
-      <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-      <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 8363-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45708</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Mandelriska</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 8363-2025 artfynd.xlsx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 8363-2025 karta.png", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 8363-2025 FSC-klagomål.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 8363-2025 FSC-klagomål mail.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 8363-2025 tillsynsbegäran.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 8363-2025 tillsynsbegäran mail.docx", "A 8363-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 35077-2024</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45527</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Knärot</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 35077-2024 artfynd.xlsx", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 35077-2024 karta.png", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="U21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/knärot/A 35077-2024 karta knärot.png", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 35077-2024 FSC-klagomål.docx", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 35077-2024 FSC-klagomål mail.docx", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 35077-2024 tillsynsbegäran.docx", "A 35077-2024")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 35077-2024 tillsynsbegäran mail.docx", "A 35077-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44432</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44607.63090277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2738,14 +2738,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 34652-2022</t>
+          <t>A 36506-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44795</v>
+        <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.2</v>
+        <v>10.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2795,14 +2795,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 36506-2021</t>
+          <t>A 34652-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44391</v>
+        <v>44795</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>10.7</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2859,7 +2859,7 @@
         <v>44782</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44286</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44328</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44844</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44690</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44734</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>44694.44246527777</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>44743</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3940,14 +3940,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 16467-2021</t>
+          <t>A 31488-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44292</v>
+        <v>44369</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3960,7 +3960,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3997,14 +3997,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 31488-2021</t>
+          <t>A 16467-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44369</v>
+        <v>44292</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>44467.47119212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>44494.45789351852</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>44509</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>44498</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44267</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44762.46194444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>44620</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44627</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44258</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         <v>44434</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         <v>44628</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         <v>44735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44882.59195601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44649.65836805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44806</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44494.44803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44753</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44732</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44577.00778935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44498.66922453704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44292</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5675,14 +5675,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 19508-2021</t>
+          <t>A 41810-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44312.36194444444</v>
+        <v>44425</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5732,14 +5732,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 41810-2021</t>
+          <t>A 19508-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44425</v>
+        <v>44312.36194444444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>44760.46356481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44547</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5903,14 +5903,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5025-2023</t>
+          <t>A 37339-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44958.56039351852</v>
+        <v>44806</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 73901-2021</t>
+          <t>A 15545-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44552</v>
+        <v>45401</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5979,8 +5979,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6017,14 +6022,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5841-2022</t>
+          <t>A 12311-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44596.6127662037</v>
+        <v>45378.63476851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6037,7 +6042,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6074,14 +6079,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 28228-2024</t>
+          <t>A 47507-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45477</v>
+        <v>45930.86842592592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6094,7 +6099,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6131,14 +6136,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 5126-2023</t>
+          <t>A 37486-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44958</v>
+        <v>44809.55424768518</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6151,7 +6156,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>14.3</v>
+        <v>8.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6188,14 +6193,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 17437-2025</t>
+          <t>A 44048-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45757</v>
+        <v>45188.38348379629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6208,7 +6213,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6245,14 +6250,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 17443-2025</t>
+          <t>A 30914-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45757.43275462963</v>
+        <v>45113</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6265,7 +6270,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6302,14 +6307,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 73033-2021</t>
+          <t>A 10647-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44550</v>
+        <v>45368.47725694445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6322,7 +6327,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6359,14 +6364,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 13382-2024</t>
+          <t>A 20784-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45387</v>
+        <v>45776.61640046296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6379,7 +6384,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>9.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6416,14 +6421,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57236-2023</t>
+          <t>A 20238-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45245.54427083334</v>
+        <v>45434</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6436,7 +6441,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6473,14 +6478,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 57237-2023</t>
+          <t>A 21528-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45245</v>
+        <v>45441.59262731481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6493,7 +6498,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>18.2</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6530,14 +6535,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5810-2023</t>
+          <t>A 19053-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44963.48369212963</v>
+        <v>45427</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6550,7 +6555,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6587,14 +6592,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 47152-2023</t>
+          <t>A 42557-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45201</v>
+        <v>44831</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6607,7 +6612,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>13.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6644,14 +6649,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29582-2024</t>
+          <t>A 23189-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45484</v>
+        <v>45450</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6669,7 +6674,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6706,14 +6711,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 22133-2025</t>
+          <t>A 49425-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45785</v>
+        <v>45938</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6726,7 +6731,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.7</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6763,14 +6768,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26840-2023</t>
+          <t>A 8370-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45093.5540625</v>
+        <v>44977.38424768519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6783,7 +6788,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6820,14 +6825,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 18341-2025</t>
+          <t>A 12217-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45762.51554398148</v>
+        <v>45729.5358912037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6840,7 +6845,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6877,14 +6882,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 22537-2025</t>
+          <t>A 24543-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45787</v>
+        <v>45460</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6896,8 +6901,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6934,14 +6944,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58514-2022</t>
+          <t>A 39334-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44902.40304398148</v>
+        <v>45889.49049768518</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6954,7 +6964,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6991,14 +7001,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 31561-2023</t>
+          <t>A 22133-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45117.39696759259</v>
+        <v>45785</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7011,7 +7021,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>4.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7048,14 +7058,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13121-2023</t>
+          <t>A 13382-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45002</v>
+        <v>45387</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7068,7 +7078,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7105,14 +7115,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53209-2021</t>
+          <t>A 21311-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44468</v>
+        <v>45440</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7124,8 +7134,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>11.6</v>
+        <v>4.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7162,14 +7177,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37119-2024</t>
+          <t>A 40027-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45539.53746527778</v>
+        <v>45894.36900462963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7182,7 +7197,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>6.7</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7219,14 +7234,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 39334-2025</t>
+          <t>A 40029-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45889.49049768518</v>
+        <v>45894</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7239,7 +7254,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7276,14 +7291,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 17910-2024</t>
+          <t>A 22537-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45419</v>
+        <v>45787</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7296,7 +7311,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>6.8</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7333,14 +7348,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 2253-2024</t>
+          <t>A 32302-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45310.30798611111</v>
+        <v>45512</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7352,8 +7367,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7390,14 +7410,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 40029-2025</t>
+          <t>A 49422-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45894</v>
+        <v>45938</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7410,7 +7430,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7447,14 +7467,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 40027-2025</t>
+          <t>A 25840-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45894.36900462963</v>
+        <v>45467</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7467,7 +7487,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7504,14 +7524,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 13289-2025</t>
+          <t>A 22289-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45735</v>
+        <v>44326</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7524,7 +7544,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7561,14 +7581,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 6721-2025</t>
+          <t>A 28228-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45700</v>
+        <v>45477</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7580,13 +7600,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>5.7</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7623,14 +7638,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 49300-2022</t>
+          <t>A 17239-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44861.47716435185</v>
+        <v>45756.47972222222</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7680,14 +7695,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 5957-2024</t>
+          <t>A 41113-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45336</v>
+        <v>45898.46057870371</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7700,7 +7715,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7737,14 +7752,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 41113-2025</t>
+          <t>A 25014-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45898.46057870371</v>
+        <v>45461</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7757,7 +7772,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.2</v>
+        <v>12.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7794,14 +7809,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17239-2025</t>
+          <t>A 49507-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45756.47972222222</v>
+        <v>45939.37804398148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7814,7 +7829,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>5.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7851,14 +7866,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 27218-2023</t>
+          <t>A 17081-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45096.58238425926</v>
+        <v>45412</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7871,7 +7886,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7908,14 +7923,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42143-2025</t>
+          <t>A 62682-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45904.36905092592</v>
+        <v>45271</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7928,7 +7943,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7965,14 +7980,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36420-2023</t>
+          <t>A 42143-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45152</v>
+        <v>45904.36905092592</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7985,7 +8000,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8022,14 +8037,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 20238-2024</t>
+          <t>A 51509-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45434</v>
+        <v>45950</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8042,7 +8057,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8079,14 +8094,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 17399-2025</t>
+          <t>A 13289-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45757</v>
+        <v>45735</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8099,7 +8114,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8136,14 +8151,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 44160-2025</t>
+          <t>A 53209-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45915.59703703703</v>
+        <v>44468</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8155,13 +8170,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>9.699999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8198,14 +8208,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 56219-2023</t>
+          <t>A 73310-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45240.77920138889</v>
+        <v>44547</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8218,7 +8228,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8255,14 +8265,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 680-2024</t>
+          <t>A 52700-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45300</v>
+        <v>45956.78072916667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8275,7 +8285,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8312,14 +8322,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 30339-2022</t>
+          <t>A 52699-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44760.47674768518</v>
+        <v>45956.7752662037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8332,7 +8342,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8369,14 +8379,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44497-2025</t>
+          <t>A 45467-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45916.67107638889</v>
+        <v>44845</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8389,7 +8399,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8426,14 +8436,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 12350-2023</t>
+          <t>A 58705-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44998</v>
+        <v>45635</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8451,7 +8461,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8488,14 +8498,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 24543-2024</t>
+          <t>A 53866-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45460</v>
+        <v>45961.385625</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8507,13 +8517,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>5.8</v>
+        <v>2.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8550,14 +8555,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 29256-2025</t>
+          <t>A 12416-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45824.38387731482</v>
+        <v>44998</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8569,8 +8574,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8607,14 +8617,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45728-2025</t>
+          <t>A 53863-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45923.45925925926</v>
+        <v>45961.38152777778</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8664,14 +8674,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45784-2025</t>
+          <t>A 44497-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45923.55923611111</v>
+        <v>45916.67107638889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8684,7 +8694,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8721,14 +8731,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 45868-2025</t>
+          <t>A 44160-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45923.65232638889</v>
+        <v>45915.59703703703</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8740,8 +8750,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8778,14 +8793,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 29260-2025</t>
+          <t>A 56552-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45824</v>
+        <v>44887</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8797,8 +8812,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8835,14 +8855,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 45898-2025</t>
+          <t>A 27218-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45923.67954861111</v>
+        <v>45096.58238425926</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8892,14 +8912,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 29645-2025</t>
+          <t>A 36644-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45825.46574074074</v>
+        <v>45153.55092592593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8912,7 +8932,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8949,14 +8969,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45744-2025</t>
+          <t>A 7922-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45923.47619212963</v>
+        <v>44608.72004629629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8969,7 +8989,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9006,14 +9026,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 45750-2025</t>
+          <t>A 36420-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45923.48400462963</v>
+        <v>45152</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9026,7 +9046,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9063,14 +9083,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45812-2025</t>
+          <t>A 45868-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45923.58844907407</v>
+        <v>45923.65232638889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9083,7 +9103,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9120,14 +9140,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 43243-2025</t>
+          <t>A 45812-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45910</v>
+        <v>45923.58844907407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9140,7 +9160,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9177,14 +9197,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 975-2025</t>
+          <t>A 43243-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45665</v>
+        <v>45910</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9197,7 +9217,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9234,14 +9254,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 30411-2025</t>
+          <t>A 45784-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45827</v>
+        <v>45923.55923611111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9254,7 +9274,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9291,14 +9311,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 62557-2022</t>
+          <t>A 45728-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44924.77230324074</v>
+        <v>45923.45925925926</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9311,7 +9331,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9348,14 +9368,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 30563-2025</t>
+          <t>A 45898-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45831.40098379629</v>
+        <v>45923.67954861111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9368,7 +9388,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9405,14 +9425,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 31190-2025</t>
+          <t>A 45750-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45831</v>
+        <v>45923.48400462963</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9425,7 +9445,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9462,14 +9482,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 58751-2025</t>
+          <t>A 45744-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45986.64163194445</v>
+        <v>45923.47619212963</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9482,7 +9502,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9519,14 +9539,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 21402-2024</t>
+          <t>A 62905-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45441</v>
+        <v>45272</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9539,7 +9559,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.3</v>
+        <v>13.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9576,14 +9596,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 47507-2025</t>
+          <t>A 5126-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45930.86842592592</v>
+        <v>44958</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9596,7 +9616,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.9</v>
+        <v>14.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9633,14 +9653,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 29736-2023</t>
+          <t>A 17399-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45107.45405092592</v>
+        <v>45757</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9653,7 +9673,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9690,14 +9710,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 53138-2023</t>
+          <t>A 10892-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45229.34055555556</v>
+        <v>44627.77988425926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9710,7 +9730,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9747,14 +9767,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 19566-2023</t>
+          <t>A 41878-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45049</v>
+        <v>45561</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9766,8 +9786,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>3.5</v>
+        <v>15.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9804,14 +9829,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 29762-2023</t>
+          <t>A 31362-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45107.47733796296</v>
+        <v>45505</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9824,7 +9849,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9861,14 +9886,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 32327-2025</t>
+          <t>A 29260-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45836.44756944444</v>
+        <v>45824</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9881,7 +9906,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9918,14 +9943,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 16092-2021</t>
+          <t>A 17122-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44289</v>
+        <v>45412</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9938,7 +9963,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9975,14 +10000,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 49422-2025</t>
+          <t>A 29256-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45938</v>
+        <v>45824.38387731482</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9995,7 +10020,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10032,14 +10057,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 49425-2025</t>
+          <t>A 29645-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45938</v>
+        <v>45825.46574074074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10052,7 +10077,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10089,14 +10114,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 49507-2025</t>
+          <t>A 62557-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45939.37804398148</v>
+        <v>44924.77230324074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10109,7 +10134,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10146,14 +10171,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 8364-2025</t>
+          <t>A 7991-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45708</v>
+        <v>45350</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10166,7 +10191,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10203,14 +10228,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 62896-2023</t>
+          <t>A 30411-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45272.42737268518</v>
+        <v>45827</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10223,7 +10248,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>13.8</v>
+        <v>1.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10260,14 +10285,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 69847-2021</t>
+          <t>A 30563-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44532</v>
+        <v>45831.40098379629</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10280,7 +10305,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10317,14 +10342,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 8359-2025</t>
+          <t>A 31190-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45708</v>
+        <v>45831</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10337,7 +10362,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10374,14 +10399,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 58705-2024</t>
+          <t>A 5810-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45635</v>
+        <v>44963.48369212963</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10393,13 +10418,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10443,7 +10463,7 @@
         <v>45986.63916666667</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10493,14 +10513,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 22347-2023</t>
+          <t>A 32327-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45070.57208333333</v>
+        <v>45836.44756944444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10513,7 +10533,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10550,14 +10570,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 35426-2025</t>
+          <t>A 58751-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45855</v>
+        <v>45986.64163194445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10570,7 +10590,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10607,14 +10627,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 35425-2025</t>
+          <t>A 43242-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45855</v>
+        <v>44432</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10627,7 +10647,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10664,14 +10684,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 51509-2025</t>
+          <t>A 5236-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45950</v>
+        <v>44956</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10684,7 +10704,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10721,14 +10741,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 38582-2024</t>
+          <t>A 19524-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45546</v>
+        <v>45429.6306712963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10740,13 +10760,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>5.7</v>
+        <v>3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10783,14 +10798,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 52699-2025</t>
+          <t>A 62947-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45956.7752662037</v>
+        <v>45272.54398148148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10803,7 +10818,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10840,14 +10855,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 52700-2025</t>
+          <t>A 12350-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45956.78072916667</v>
+        <v>44998</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10859,8 +10874,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10897,14 +10917,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 33081-2022</t>
+          <t>A 59617-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44785</v>
+        <v>45992.37861111111</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10917,7 +10937,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10954,14 +10974,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 53863-2025</t>
+          <t>A 8359-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45961.38152777778</v>
+        <v>45708</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10974,7 +10994,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11011,14 +11031,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 53866-2025</t>
+          <t>A 40522-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45961.385625</v>
+        <v>45896</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11031,7 +11051,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11068,14 +11088,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 25840-2024</t>
+          <t>A 40524-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45467</v>
+        <v>45896</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11088,7 +11108,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11125,14 +11145,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 37515-2025</t>
+          <t>A 7993-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45877</v>
+        <v>45350.63241898148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11145,7 +11165,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11182,14 +11202,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 37495-2025</t>
+          <t>A 33081-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45877</v>
+        <v>44785</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11202,7 +11222,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11239,14 +11259,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 37517-2025</t>
+          <t>A 35425-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45877</v>
+        <v>45855</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11259,7 +11279,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11296,14 +11316,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 37676-2023</t>
+          <t>A 35426-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45159</v>
+        <v>45855</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11316,7 +11336,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11353,14 +11373,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 37696-2025</t>
+          <t>A 38582-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45880</v>
+        <v>45546</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11372,8 +11392,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11410,14 +11435,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 6751-2025</t>
+          <t>A 29762-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45700.6130787037</v>
+        <v>45107.47733796296</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11430,7 +11455,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11467,14 +11492,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 50640-2023</t>
+          <t>A 29736-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45217.46871527778</v>
+        <v>45107.45405092592</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11487,7 +11512,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11524,14 +11549,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 34580-2022</t>
+          <t>A 60656-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44795</v>
+        <v>45996.47914351852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11544,7 +11569,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11581,14 +11606,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 12000-2022</t>
+          <t>A 2581-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44635</v>
+        <v>46037.53079861111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11601,7 +11626,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11638,14 +11663,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 42557-2022</t>
+          <t>A 19052-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44831</v>
+        <v>45427.76670138889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11658,7 +11683,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>13.7</v>
+        <v>7.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11695,14 +11720,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 38002-2025</t>
+          <t>A 50640-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45881.89586805556</v>
+        <v>45217.46871527778</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11715,7 +11740,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11752,14 +11777,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 40522-2025</t>
+          <t>A 37696-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45896</v>
+        <v>45880</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11772,7 +11797,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11809,14 +11834,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 40524-2025</t>
+          <t>A 37517-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45896</v>
+        <v>45877</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11829,7 +11854,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11866,14 +11891,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 35253-2022</t>
+          <t>A 17910-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44797</v>
+        <v>45419</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11886,7 +11911,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.7</v>
+        <v>6.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11923,14 +11948,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 10647-2024</t>
+          <t>A 37515-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45368.47725694445</v>
+        <v>45877</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11943,7 +11968,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11980,14 +12005,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 59617-2025</t>
+          <t>A 60752-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45992.37861111111</v>
+        <v>45999.38148148148</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12000,7 +12025,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12037,14 +12062,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 15545-2024</t>
+          <t>A 37495-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45401</v>
+        <v>45877</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12056,13 +12081,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12099,14 +12119,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 5280-2022</t>
+          <t>A 22319-2021</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44593</v>
+        <v>44326.48232638889</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12118,13 +12138,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>37.1</v>
+        <v>0.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12161,14 +12176,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 13820-2024</t>
+          <t>A 8361-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45390</v>
+        <v>45708</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12181,7 +12196,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>7.2</v>
+        <v>2.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12218,14 +12233,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17565-2025</t>
+          <t>A 38002-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45757.64024305555</v>
+        <v>45881.89586805556</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12238,7 +12253,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12275,14 +12290,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 2581-2026</t>
+          <t>A 11597-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>46037.53079861111</v>
+        <v>45727</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12295,7 +12310,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12332,14 +12347,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 31362-2024</t>
+          <t>A 31964-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45505</v>
+        <v>45107</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12352,7 +12367,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12389,14 +12404,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 60752-2025</t>
+          <t>A 35253-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45999.38148148148</v>
+        <v>44797</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12409,7 +12424,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12453,7 +12468,7 @@
         <v>46039.37369212963</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12503,14 +12518,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 60656-2025</t>
+          <t>A 29426-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45996.47914351852</v>
+        <v>44753</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12522,8 +12537,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>2.5</v>
+        <v>14.4</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12560,14 +12580,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 32302-2024</t>
+          <t>A 30339-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45512</v>
+        <v>44760.47674768518</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12579,13 +12599,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12622,14 +12637,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 3065-2024</t>
+          <t>A 6751-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45316.40590277778</v>
+        <v>45700.6130787037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12642,7 +12657,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12679,14 +12694,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 17081-2024</t>
+          <t>A 975-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45412</v>
+        <v>45665</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12699,7 +12714,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12736,14 +12751,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7993-2024</t>
+          <t>A 63919-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45350.63241898148</v>
+        <v>44509</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12756,7 +12771,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.1</v>
+        <v>5.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12793,14 +12808,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 45467-2022</t>
+          <t>A 9144-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44845</v>
+        <v>45358.37327546296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12813,7 +12828,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12850,14 +12865,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 5011-2024</t>
+          <t>A 13121-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45329</v>
+        <v>45002</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12870,7 +12885,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>22</v>
+        <v>0.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12907,14 +12922,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 53137-2023</t>
+          <t>A 63063-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45229.33768518519</v>
+        <v>46009</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12927,7 +12942,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12964,14 +12979,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 57233-2023</t>
+          <t>A 62967-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45245.54103009259</v>
+        <v>46009</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13021,14 +13036,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 9144-2024</t>
+          <t>A 6713-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45358.37327546296</v>
+        <v>45700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13040,8 +13055,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G208" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13078,14 +13098,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 62675-2023</t>
+          <t>A 62941-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45271</v>
+        <v>46009</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13098,7 +13118,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -13135,14 +13155,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 62682-2023</t>
+          <t>A 62955-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45271</v>
+        <v>46009</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13155,7 +13175,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13192,14 +13212,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 5214-2025</t>
+          <t>A 33948-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45691</v>
+        <v>45124</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13212,7 +13232,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13249,14 +13269,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 4982-2024</t>
+          <t>A 27222-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45329</v>
+        <v>45096.58590277778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13269,7 +13289,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13306,14 +13326,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 62947-2023</t>
+          <t>A 59391-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45272.54398148148</v>
+        <v>45989</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13326,7 +13346,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13363,14 +13383,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 31930-2024</t>
+          <t>A 17972-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45510</v>
+        <v>45761.36483796296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13383,7 +13403,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13420,14 +13440,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 62967-2025</t>
+          <t>A 62896-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46009</v>
+        <v>45272.42737268518</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13440,7 +13460,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.4</v>
+        <v>13.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13477,14 +13497,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 71706-2021</t>
+          <t>A 6938-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44543.44349537037</v>
+        <v>45343</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13497,7 +13517,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13534,14 +13554,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 11597-2025</t>
+          <t>A 26829-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45727</v>
+        <v>45093.54527777778</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13554,7 +13574,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13591,14 +13611,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 40935-2022</t>
+          <t>A 13895-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44823</v>
+        <v>45391</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13616,7 +13636,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13653,14 +13673,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 62941-2025</t>
+          <t>A 26815-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>46009</v>
+        <v>45093.531875</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13673,7 +13693,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13710,14 +13730,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 59391-2025</t>
+          <t>A 17565-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45989</v>
+        <v>45757.64024305555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13730,7 +13750,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13767,14 +13787,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 62955-2025</t>
+          <t>A 25443-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46009</v>
+        <v>45089</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13787,7 +13807,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13824,14 +13844,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 63063-2025</t>
+          <t>A 14306-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46009</v>
+        <v>45011</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13844,7 +13864,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13881,14 +13901,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 6938-2024</t>
+          <t>A 5025-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45343</v>
+        <v>44958.56039351852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13901,7 +13921,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13938,14 +13958,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 14306-2023</t>
+          <t>A 31974-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45011</v>
+        <v>45107</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13958,7 +13978,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13995,14 +14015,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 18321-2025</t>
+          <t>A 5957-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45762</v>
+        <v>45336</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14015,7 +14035,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14052,14 +14072,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 17972-2025</t>
+          <t>A 8732-2026</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45761.36483796296</v>
+        <v>46066.49796296296</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14072,7 +14092,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14109,14 +14129,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 27222-2023</t>
+          <t>A 2253-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45096.58590277778</v>
+        <v>45310.30798611111</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14129,7 +14149,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14166,14 +14186,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 36644-2023</t>
+          <t>A 4870-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45153.55092592593</v>
+        <v>45329</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14186,7 +14206,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>8.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14223,14 +14243,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 8788-2024</t>
+          <t>A 69847-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45356</v>
+        <v>44532</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14243,7 +14263,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14280,14 +14300,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 7931-2025</t>
+          <t>A 58514-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45706</v>
+        <v>44902.40304398148</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14299,13 +14319,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>13.8</v>
+        <v>3.1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14342,14 +14357,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 62554-2022</t>
+          <t>A 614-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44924</v>
+        <v>46024</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14362,7 +14377,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>5.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14399,14 +14414,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 21528-2024</t>
+          <t>A 71706-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45441.59262731481</v>
+        <v>44543.44349537037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14419,7 +14434,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14456,14 +14471,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 20954-2023</t>
+          <t>A 39145-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45061</v>
+        <v>44412</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14476,7 +14491,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14513,14 +14528,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 614-2026</t>
+          <t>A 47152-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46024</v>
+        <v>45201</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14533,7 +14548,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14570,14 +14585,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 8732-2026</t>
+          <t>A 53755-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46066.49796296296</v>
+        <v>45615.49748842593</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14627,14 +14642,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 19052-2024</t>
+          <t>A 53138-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45427.76670138889</v>
+        <v>45229.34055555556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14647,7 +14662,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>7.7</v>
+        <v>3.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14684,14 +14699,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 10892-2022</t>
+          <t>A 16772-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44627.77988425926</v>
+        <v>45411</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14704,7 +14719,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14741,14 +14756,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 29426-2022</t>
+          <t>A 567-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44753</v>
+        <v>46029.46965277778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14760,13 +14775,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>14.4</v>
+        <v>2.6</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14803,14 +14813,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 12416-2023</t>
+          <t>A 39635-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44998</v>
+        <v>45167.52609953703</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14822,13 +14832,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14865,14 +14870,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 567-2026</t>
+          <t>A 66056-2021</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46029.46965277778</v>
+        <v>44517.6359837963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14885,7 +14890,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14922,14 +14927,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 44048-2023</t>
+          <t>A 16574-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45188.38348379629</v>
+        <v>45752.50203703704</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14942,7 +14947,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14979,14 +14984,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 43242-2021</t>
+          <t>A 3065-2024</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44432</v>
+        <v>45316.40590277778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14999,7 +15004,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15036,14 +15041,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 62905-2023</t>
+          <t>A 12082-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45272</v>
+        <v>45377.54760416667</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15056,7 +15061,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>13.8</v>
+        <v>1.2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15093,14 +15098,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 21311-2024</t>
+          <t>A 12084-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45440</v>
+        <v>45377.55229166667</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15112,13 +15117,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G244" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15155,14 +15155,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 37486-2022</t>
+          <t>A 20954-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44809.55424768518</v>
+        <v>45061</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>8.6</v>
+        <v>1.8</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15212,14 +15212,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 46299-2022</t>
+          <t>A 17443-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44847.75081018519</v>
+        <v>45757.43275462963</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15269,14 +15269,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 5236-2023</t>
+          <t>A 20369-2024</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44956</v>
+        <v>45435</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15326,14 +15326,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 56220-2023</t>
+          <t>A 11601-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45240.78313657407</v>
+        <v>45727</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15383,14 +15383,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 53755-2024</t>
+          <t>A 4976-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45615.49748842593</v>
+        <v>45329</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15440,14 +15440,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 972-2025</t>
+          <t>A 12175-2024</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45665</v>
+        <v>45377</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15497,14 +15497,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 909-2025</t>
+          <t>A 30527-2022</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45664</v>
+        <v>44762.44436342592</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15517,7 +15517,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15554,14 +15554,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 13895-2024</t>
+          <t>A 22347-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45391</v>
+        <v>45070.57208333333</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15573,13 +15573,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15616,14 +15611,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 29724-2023</t>
+          <t>A 4603-2025</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45107</v>
+        <v>45687</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15635,8 +15630,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G253" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15673,14 +15673,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 56552-2022</t>
+          <t>A 4273-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44887</v>
+        <v>45685</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15692,13 +15692,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G254" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15735,14 +15730,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 31974-2023</t>
+          <t>A 56220-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45107</v>
+        <v>45240.78313657407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15755,7 +15750,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15792,14 +15787,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 19802-2024</t>
+          <t>A 56219-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45432</v>
+        <v>45240.77920138889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15811,13 +15806,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G256" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15854,14 +15844,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 16635-2024</t>
+          <t>A 6721-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45408.59462962963</v>
+        <v>45700</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,8 +15863,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G257" t="n">
-        <v>0.7</v>
+        <v>5.7</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15911,14 +15906,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 22319-2021</t>
+          <t>A 17437-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44326.48232638889</v>
+        <v>45757</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15931,7 +15926,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15968,14 +15963,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 4273-2025</t>
+          <t>A 5841-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45685</v>
+        <v>44596.6127662037</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15988,7 +15983,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16025,14 +16020,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 7922-2022</t>
+          <t>A 12000-2022</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44608.72004629629</v>
+        <v>44635</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16045,7 +16040,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16082,14 +16077,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 1556-2025</t>
+          <t>A 40935-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45670</v>
+        <v>44823</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,8 +16096,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G261" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16139,14 +16139,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 12311-2024</t>
+          <t>A 36646-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45378.63476851852</v>
+        <v>45153.55540509259</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16196,14 +16196,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 33948-2023</t>
+          <t>A 3779-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45124</v>
+        <v>45681</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,8 +16215,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>BillerudKorsnäs AB</t>
+        </is>
+      </c>
       <c r="G263" t="n">
-        <v>5.5</v>
+        <v>7.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16253,14 +16258,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 13320-2024</t>
+          <t>A 29724-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45386.77172453704</v>
+        <v>45107</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16273,7 +16278,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16310,14 +16315,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 55227-2023</t>
+          <t>A 8362-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45231</v>
+        <v>45708</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16330,7 +16335,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.4</v>
+        <v>7.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16367,14 +16372,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 25014-2024</t>
+          <t>A 972-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45461</v>
+        <v>45665</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16387,7 +16392,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>12.8</v>
+        <v>1.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16424,14 +16429,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 31964-2023</t>
+          <t>A 49300-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45107</v>
+        <v>44861.47716435185</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16444,7 +16449,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16481,14 +16486,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 12082-2024</t>
+          <t>A 16635-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45377.54760416667</v>
+        <v>45408.59462962963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16501,7 +16506,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16538,14 +16543,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 12084-2024</t>
+          <t>A 37676-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45377.55229166667</v>
+        <v>45159</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16558,7 +16563,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16595,14 +16600,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 4976-2024</t>
+          <t>A 53137-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45329</v>
+        <v>45229.33768518519</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16615,7 +16620,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>5.1</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16652,14 +16657,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 64304-2023</t>
+          <t>A 8788-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45280</v>
+        <v>45356</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16672,7 +16677,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16709,14 +16714,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 48553-2023</t>
+          <t>A 680-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45208.40232638889</v>
+        <v>45300</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16729,7 +16734,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16766,14 +16771,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 26815-2023</t>
+          <t>A 46299-2022</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45093.531875</v>
+        <v>44847.75081018519</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16786,7 +16791,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16823,14 +16828,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 16772-2024</t>
+          <t>A 62554-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45411</v>
+        <v>44924</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16843,7 +16848,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16880,14 +16885,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 25443-2023</t>
+          <t>A 57236-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45089</v>
+        <v>45245.54427083334</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16900,7 +16905,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16937,14 +16942,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 66056-2021</t>
+          <t>A 57237-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44517.6359837963</v>
+        <v>45245</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16957,7 +16962,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>0.7</v>
+        <v>18.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16994,14 +16999,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 23189-2024</t>
+          <t>A 5280-2022</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45450</v>
+        <v>44593</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17019,7 +17024,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.9</v>
+        <v>37.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17056,14 +17061,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 7991-2024</t>
+          <t>A 29577-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45350</v>
+        <v>45484</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17075,8 +17080,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G278" t="n">
-        <v>1.1</v>
+        <v>10.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17113,14 +17123,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 22289-2021</t>
+          <t>A 27443-2024</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44326</v>
+        <v>45474</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17133,7 +17143,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17170,14 +17180,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 59542-2022</t>
+          <t>A 32959-2022</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44907</v>
+        <v>44784</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17190,7 +17200,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17227,14 +17237,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 19155-2025</t>
+          <t>A 13320-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45769</v>
+        <v>45386.77172453704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17247,7 +17257,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.9</v>
+        <v>6</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17284,14 +17294,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 52848-2021</t>
+          <t>A 38517-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>44467</v>
+        <v>45546.56068287037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17304,7 +17314,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17341,14 +17351,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 8361-2025</t>
+          <t>A 19155-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45708</v>
+        <v>45769</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17361,7 +17371,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17398,14 +17408,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 73310-2021</t>
+          <t>A 37119-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44547</v>
+        <v>45539.53746527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17418,7 +17428,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17455,14 +17465,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 39635-2023</t>
+          <t>A 56386-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45167.52609953703</v>
+        <v>44890</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17475,7 +17485,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17512,14 +17522,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 37339-2022</t>
+          <t>A 19802-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44806</v>
+        <v>45432</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17531,8 +17541,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G286" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17569,14 +17584,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 56386-2022</t>
+          <t>A 34580-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44890</v>
+        <v>44795</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17589,7 +17604,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17626,14 +17641,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 71781-2021</t>
+          <t>A 19566-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>44539</v>
+        <v>45049</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17645,13 +17660,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G288" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17688,14 +17698,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 6713-2025</t>
+          <t>A 7272-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45700</v>
+        <v>44606.4540625</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17707,13 +17717,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G289" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17750,14 +17755,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 8362-2025</t>
+          <t>A 22822-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45708</v>
+        <v>45448</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17770,7 +17775,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>7.7</v>
+        <v>1.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17807,14 +17812,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 30527-2022</t>
+          <t>A 59542-2022</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44762.44436342592</v>
+        <v>44907</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17827,7 +17832,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17864,14 +17869,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 17573-2025</t>
+          <t>A 21402-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45757.65053240741</v>
+        <v>45441</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17884,7 +17889,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17921,14 +17926,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 17122-2024</t>
+          <t>A 16092-2021</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45412</v>
+        <v>44289</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17941,7 +17946,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17978,14 +17983,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 9837-2023</t>
+          <t>A 57233-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44984.85623842593</v>
+        <v>45245.54103009259</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17998,7 +18003,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18035,14 +18040,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 41878-2024</t>
+          <t>A 71781-2021</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45561</v>
+        <v>44539</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18060,7 +18065,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>15.9</v>
+        <v>7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18097,14 +18102,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 19753-2024</t>
+          <t>A 31930-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45432</v>
+        <v>45510</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18117,7 +18122,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18154,14 +18159,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 27443-2024</t>
+          <t>A 73901-2021</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45474</v>
+        <v>44552</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18174,7 +18179,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18211,14 +18216,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 32959-2022</t>
+          <t>A 5214-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44784</v>
+        <v>45691</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18231,7 +18236,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18268,14 +18273,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 30914-2023</t>
+          <t>A 26840-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45113</v>
+        <v>45093.5540625</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18288,7 +18293,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18325,14 +18330,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 20369-2024</t>
+          <t>A 13820-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45435</v>
+        <v>45390</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18345,7 +18350,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.4</v>
+        <v>7.2</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18382,14 +18387,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 7272-2022</t>
+          <t>A 5011-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44606.4540625</v>
+        <v>45329</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18402,7 +18407,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.4</v>
+        <v>22</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18439,14 +18444,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 26829-2023</t>
+          <t>A 18341-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45093.54527777778</v>
+        <v>45762.51554398148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18459,7 +18464,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18496,14 +18501,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 38517-2024</t>
+          <t>A 52848-2021</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45546.56068287037</v>
+        <v>44467</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18516,7 +18521,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18553,14 +18558,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 16574-2025</t>
+          <t>A 19753-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45752.50203703704</v>
+        <v>45432</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18573,7 +18578,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18610,14 +18615,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 18184-2024</t>
+          <t>A 4982-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45420</v>
+        <v>45329</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18629,13 +18634,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F305" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G305" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18672,14 +18672,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 19524-2024</t>
+          <t>A 18321-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45429.6306712963</v>
+        <v>45762</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18692,7 +18692,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18729,14 +18729,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 3779-2025</t>
+          <t>A 18184-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45681</v>
+        <v>45420</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18750,11 +18750,11 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>BillerudKorsnäs AB</t>
+          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18791,14 +18791,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 63919-2021</t>
+          <t>A 55227-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44509</v>
+        <v>45231</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18811,7 +18811,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18848,14 +18848,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 4870-2024</t>
+          <t>A 9837-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45329</v>
+        <v>44984.85623842593</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18868,7 +18868,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>8.4</v>
+        <v>0.6</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18905,14 +18905,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 36646-2023</t>
+          <t>A 7931-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45153.55540509259</v>
+        <v>45706</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18924,8 +18924,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G310" t="n">
-        <v>2.4</v>
+        <v>13.8</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18962,14 +18967,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 22822-2024</t>
+          <t>A 1556-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45448</v>
+        <v>45670</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18982,7 +18987,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -19019,14 +19024,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 19053-2024</t>
+          <t>A 73033-2021</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45427</v>
+        <v>44550</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19039,7 +19044,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -19076,14 +19081,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 4603-2025</t>
+          <t>A 909-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45687</v>
+        <v>45664</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19095,13 +19100,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G313" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -19138,14 +19138,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 11601-2025</t>
+          <t>A 64304-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45727</v>
+        <v>45280</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -19195,14 +19195,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 12175-2024</t>
+          <t>A 29582-2024</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45377</v>
+        <v>45484</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19214,8 +19214,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G315" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -19252,14 +19257,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 39145-2021</t>
+          <t>A 8364-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>44412</v>
+        <v>45708</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19272,7 +19277,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19309,14 +19314,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 29577-2024</t>
+          <t>A 62675-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45484</v>
+        <v>45271</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19328,13 +19333,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F317" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G317" t="n">
-        <v>10.1</v>
+        <v>3.4</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19371,14 +19371,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 20784-2025</t>
+          <t>A 48553-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45776.61640046296</v>
+        <v>45208.40232638889</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>9.5</v>
+        <v>1.7</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19428,14 +19428,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 8370-2023</t>
+          <t>A 17573-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>44977.38424768519</v>
+        <v>45757.65053240741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19485,14 +19485,14 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 12217-2025</t>
+          <t>A 31561-2023</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45729.5358912037</v>
+        <v>45117.39696759259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19505,7 +19505,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>

--- a/Översikt GRUMS.xlsx
+++ b/Översikt GRUMS.xlsx
@@ -575,7 +575,7 @@
         <v>44417</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>45775</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44788</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>45929.66947916667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         <v>44470</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>45995.39299768519</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         <v>44792</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
         <v>44819</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1284,14 +1284,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 30406-2025</t>
+          <t>A 15321-2023</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45827</v>
+        <v>45019</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1304,16 +1304,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1338,35 +1338,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vätteros</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
-        <v/>
-      </c>
-      <c r="Z10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1376,7 @@
         <v>45896</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1458,14 +1454,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 26662-2025</t>
+          <t>A 23860-2023</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45810</v>
+        <v>45078</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,16 +1473,11 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1517,31 +1508,35 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>Skogsklocka</t>
+          <t>Gulsparv</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
         <v/>
       </c>
     </row>
@@ -1555,7 +1550,7 @@
         <v>45929</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1649,7 +1644,7 @@
         <v>45880</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1727,14 +1722,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 15321-2023</t>
+          <t>A 30406-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45019</v>
+        <v>45827</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1747,17 +1742,17 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -1771,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1781,45 +1776,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Vätteros</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 15321-2023 artfynd.xlsx", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 30406-2025 artfynd.xlsx", "A 30406-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 15321-2023 karta.png", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 30406-2025 karta.png", "A 30406-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 15321-2023 FSC-klagomål.docx", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 30406-2025 FSC-klagomål.docx", "A 30406-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 15321-2023 FSC-klagomål mail.docx", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 30406-2025 FSC-klagomål mail.docx", "A 30406-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 15321-2023 tillsynsbegäran.docx", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 30406-2025 tillsynsbegäran.docx", "A 30406-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 15321-2023 tillsynsbegäran mail.docx", "A 15321-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 30406-2025 tillsynsbegäran mail.docx", "A 30406-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 30406-2025 prioriterade fågelarter.docx", "A 30406-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 62973-2025</t>
+          <t>A 66053-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>46009</v>
+        <v>44517.63174768518</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1832,16 +1831,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>7.8</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1856,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1866,208 +1865,208 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
+          <t>Björksplintborre</t>
+        </is>
+      </c>
+      <c r="S16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
+        <v/>
+      </c>
+      <c r="T16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
+        <v/>
+      </c>
+      <c r="V16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
+        <v/>
+      </c>
+      <c r="W16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
+        <v/>
+      </c>
+      <c r="Y16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>A 54042-2021</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 62973-2025</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>46009</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VÄRMLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>GRUMS</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
           <t>Motaggsvamp</t>
         </is>
       </c>
-      <c r="S16">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 62973-2025 artfynd.xlsx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="T16">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 62973-2025 karta.png", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="V16">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 62973-2025 FSC-klagomål.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="W16">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 62973-2025 FSC-klagomål mail.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="X16">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 62973-2025 tillsynsbegäran.docx", "A 62973-2025")</f>
         <v/>
       </c>
-      <c r="Y16">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 62973-2025 tillsynsbegäran mail.docx", "A 62973-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>A 23860-2023</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>45078</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv</t>
-        </is>
-      </c>
-      <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 23860-2023 artfynd.xlsx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 23860-2023 karta.png", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 23860-2023 FSC-klagomål.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 23860-2023 FSC-klagomål mail.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 23860-2023 tillsynsbegäran.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 23860-2023 tillsynsbegäran mail.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 23860-2023 prioriterade fågelarter.docx", "A 23860-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 66053-2021</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>44517.63174768518</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>VÄRMLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Björksplintborre</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 66053-2021 artfynd.xlsx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 66053-2021 karta.png", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 66053-2021 FSC-klagomål.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 66053-2021 FSC-klagomål mail.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 66053-2021 tillsynsbegäran.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 66053-2021 tillsynsbegäran mail.docx", "A 66053-2021")</f>
-        <v/>
-      </c>
-    </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
@@ -2078,7 +2077,7 @@
         <v>45708</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2163,7 +2162,7 @@
         <v>45527</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2245,14 +2244,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 54042-2021</t>
+          <t>A 26662-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44470</v>
+        <v>45810</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2264,11 +2263,16 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2299,35 +2303,31 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Skogsklocka</t>
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 54042-2021 artfynd.xlsx", "A 54042-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/artfynd/A 26662-2025 artfynd.xlsx", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 54042-2021 karta.png", "A 54042-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/kartor/A 26662-2025 karta.png", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 54042-2021 FSC-klagomål.docx", "A 54042-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomål/A 26662-2025 FSC-klagomål.docx", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 54042-2021 FSC-klagomål mail.docx", "A 54042-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/klagomålsmail/A 26662-2025 FSC-klagomål mail.docx", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 54042-2021 tillsynsbegäran.docx", "A 54042-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsyn/A 26662-2025 tillsynsbegäran.docx", "A 26662-2025")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 54042-2021 tillsynsbegäran mail.docx", "A 54042-2021")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1764/fåglar/A 54042-2021 prioriterade fågelarter.docx", "A 54042-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1764/tillsynsmail/A 26662-2025 tillsynsbegäran mail.docx", "A 26662-2025")</f>
         <v/>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
         <v>44441</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>44432</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,7 +2455,7 @@
         <v>44607.63090277778</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>44509</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>44299</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44575.37143518519</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44391</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44795</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44782</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44543</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44860</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44405</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44439</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>44494</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>44364</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>44286</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>44328</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>44844</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44838</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44705.39193287037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>44690</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>44734</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>44271</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3769,14 +3769,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 19669-2022</t>
+          <t>A 27729-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44694.44246527777</v>
+        <v>44743</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3789,7 +3789,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3826,14 +3826,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 27729-2022</t>
+          <t>A 19669-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44743</v>
+        <v>44694.44246527777</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3890,7 +3890,7 @@
         <v>44385.40909722223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>44369</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>44292</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>44467.47119212963</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4111,14 +4111,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 59760-2021</t>
+          <t>A 63964-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44494.45789351852</v>
+        <v>44509</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4168,14 +4168,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 63964-2021</t>
+          <t>A 59760-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44509</v>
+        <v>44494.45789351852</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4232,7 +4232,7 @@
         <v>44498</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>44798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4351,7 +4351,7 @@
         <v>44413</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4408,7 +4408,7 @@
         <v>44267</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4465,7 +4465,7 @@
         <v>44762.46194444445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>44620</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4579,7 +4579,7 @@
         <v>44588</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4636,7 +4636,7 @@
         <v>44627</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         <v>44258</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4750,7 +4750,7 @@
         <v>44383</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4805,14 +4805,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43960-2021</t>
+          <t>A 11103-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44434</v>
+        <v>44628</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4862,14 +4862,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11103-2022</t>
+          <t>A 43960-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44628</v>
+        <v>44434</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5.7</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>44735</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         <v>44882.59195601852</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         <v>44649.65836805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5102,7 +5102,7 @@
         <v>44806</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5159,7 +5159,7 @@
         <v>44494.44803240741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>44753</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>44467</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>44732</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>44577.00778935185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5449,7 +5449,7 @@
         <v>44460</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5511,7 +5511,7 @@
         <v>44498.66922453704</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5568,7 +5568,7 @@
         <v>44755</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5625,7 +5625,7 @@
         <v>44292</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5675,14 +5675,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41810-2021</t>
+          <t>A 19508-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44425</v>
+        <v>44312.36194444444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5732,14 +5732,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19508-2021</t>
+          <t>A 41810-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44312.36194444444</v>
+        <v>44425</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5796,7 +5796,7 @@
         <v>44760.46356481482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5853,7 +5853,7 @@
         <v>44547</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5903,14 +5903,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 37339-2022</t>
+          <t>A 5841-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44806</v>
+        <v>44596.6127662037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5960,14 +5960,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 15545-2024</t>
+          <t>A 5126-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45401</v>
+        <v>44958</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5979,13 +5979,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3.8</v>
+        <v>14.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6022,14 +6017,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12311-2024</t>
+          <t>A 5025-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45378.63476851852</v>
+        <v>44958.56039351852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6042,7 +6037,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6079,14 +6074,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 47507-2025</t>
+          <t>A 73901-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45930.86842592592</v>
+        <v>44552</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6099,7 +6094,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>1.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6136,14 +6131,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 37486-2022</t>
+          <t>A 28228-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44809.55424768518</v>
+        <v>45477</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6156,7 +6151,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.6</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6193,14 +6188,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 44048-2023</t>
+          <t>A 73033-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45188.38348379629</v>
+        <v>44550</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6213,7 +6208,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6250,14 +6245,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30914-2023</t>
+          <t>A 13382-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45113</v>
+        <v>45387</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6270,7 +6265,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6307,14 +6302,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10647-2024</t>
+          <t>A 57236-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45368.47725694445</v>
+        <v>45245.54427083334</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6327,7 +6322,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6364,14 +6359,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 20784-2025</t>
+          <t>A 57237-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45776.61640046296</v>
+        <v>45245</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6384,7 +6379,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>9.5</v>
+        <v>18.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6421,14 +6416,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 20238-2024</t>
+          <t>A 5810-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45434</v>
+        <v>44963.48369212963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6441,7 +6436,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6478,14 +6473,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21528-2024</t>
+          <t>A 17437-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45441.59262731481</v>
+        <v>45757</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6498,7 +6493,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6535,14 +6530,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 19053-2024</t>
+          <t>A 17443-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45427</v>
+        <v>45757.43275462963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6555,7 +6550,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6592,14 +6587,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42557-2022</t>
+          <t>A 47152-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44831</v>
+        <v>45201</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6612,7 +6607,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>13.7</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6649,14 +6644,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 23189-2024</t>
+          <t>A 26840-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45450</v>
+        <v>45093.5540625</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6668,13 +6663,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6711,14 +6701,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 49425-2025</t>
+          <t>A 18341-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45938</v>
+        <v>45762.51554398148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6731,7 +6721,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6768,14 +6758,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 8370-2023</t>
+          <t>A 29582-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44977.38424768519</v>
+        <v>45484</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6787,8 +6777,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6825,14 +6820,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 12217-2025</t>
+          <t>A 31561-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45729.5358912037</v>
+        <v>45117.39696759259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6845,7 +6840,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6882,14 +6877,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24543-2024</t>
+          <t>A 13121-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45460</v>
+        <v>45002</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6901,13 +6896,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6944,14 +6934,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 39334-2025</t>
+          <t>A 58514-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45889.49049768518</v>
+        <v>44902.40304398148</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6964,7 +6954,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7001,14 +6991,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 22133-2025</t>
+          <t>A 53209-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45785</v>
+        <v>44468</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7021,7 +7011,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.7</v>
+        <v>11.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7058,14 +7048,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13382-2024</t>
+          <t>A 37119-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45387</v>
+        <v>45539.53746527778</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7078,7 +7068,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7115,14 +7105,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 21311-2024</t>
+          <t>A 17910-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45440</v>
+        <v>45419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7134,13 +7124,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7177,14 +7162,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 40027-2025</t>
+          <t>A 2253-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45894.36900462963</v>
+        <v>45310.30798611111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7182,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7234,14 +7219,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 40029-2025</t>
+          <t>A 6721-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45894</v>
+        <v>45700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,8 +7238,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>5.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7291,14 +7281,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 22537-2025</t>
+          <t>A 5957-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45787</v>
+        <v>45336</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7301,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7348,14 +7338,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32302-2024</t>
+          <t>A 49300-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45512</v>
+        <v>44861.47716435185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7367,13 +7357,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7410,14 +7395,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 49422-2025</t>
+          <t>A 20238-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45938</v>
+        <v>45434</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7430,7 +7415,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7467,14 +7452,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 25840-2024</t>
+          <t>A 56219-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45467</v>
+        <v>45240.77920138889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7487,7 +7472,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7524,14 +7509,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 22289-2021</t>
+          <t>A 680-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44326</v>
+        <v>45300</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7544,7 +7529,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7581,14 +7566,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 28228-2024</t>
+          <t>A 30339-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45477</v>
+        <v>44760.47674768518</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7601,7 +7586,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7638,14 +7623,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 17239-2025</t>
+          <t>A 12350-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45756.47972222222</v>
+        <v>44998</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7657,8 +7642,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7695,14 +7685,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41113-2025</t>
+          <t>A 24543-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45898.46057870371</v>
+        <v>45460</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7714,8 +7704,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7752,14 +7747,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 25014-2024</t>
+          <t>A 17399-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45461</v>
+        <v>45757</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7772,7 +7767,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>12.8</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7809,14 +7804,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 49507-2025</t>
+          <t>A 975-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45939.37804398148</v>
+        <v>45665</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7829,7 +7824,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.7</v>
+        <v>2.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7866,14 +7861,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 17081-2024</t>
+          <t>A 62557-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45412</v>
+        <v>44924.77230324074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7923,14 +7918,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 62682-2023</t>
+          <t>A 21402-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45271</v>
+        <v>45441</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7943,7 +7938,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7980,14 +7975,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 42143-2025</t>
+          <t>A 29256-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45904.36905092592</v>
+        <v>45824.38387731482</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8000,7 +7995,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8037,14 +8032,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 51509-2025</t>
+          <t>A 39334-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45950</v>
+        <v>45889.49049768518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8057,7 +8052,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8094,14 +8089,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 13289-2025</t>
+          <t>A 29260-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45735</v>
+        <v>45824</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8114,7 +8109,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -8151,14 +8146,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 53209-2021</t>
+          <t>A 29645-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44468</v>
+        <v>45825.46574074074</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8171,7 +8166,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>11.6</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -8208,14 +8203,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 73310-2021</t>
+          <t>A 29736-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44547</v>
+        <v>45107.45405092592</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8228,7 +8223,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6.2</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8265,14 +8260,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 52700-2025</t>
+          <t>A 53138-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45956.78072916667</v>
+        <v>45229.34055555556</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8285,7 +8280,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8322,14 +8317,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 52699-2025</t>
+          <t>A 30411-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45956.7752662037</v>
+        <v>45827</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8342,7 +8337,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8379,14 +8374,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45467-2022</t>
+          <t>A 19566-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44845</v>
+        <v>45049</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8399,7 +8394,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8436,14 +8431,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 58705-2024</t>
+          <t>A 29762-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45635</v>
+        <v>45107.47733796296</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8455,13 +8450,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8498,14 +8488,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 53866-2025</t>
+          <t>A 40029-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45961.385625</v>
+        <v>45894</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8518,7 +8508,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8555,14 +8545,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 12416-2023</t>
+          <t>A 40027-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44998</v>
+        <v>45894.36900462963</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8574,13 +8564,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8617,14 +8602,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53863-2025</t>
+          <t>A 30563-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45961.38152777778</v>
+        <v>45831.40098379629</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8637,7 +8622,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8674,14 +8659,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44497-2025</t>
+          <t>A 31190-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45916.67107638889</v>
+        <v>45831</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8694,7 +8679,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8731,14 +8716,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44160-2025</t>
+          <t>A 16092-2021</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45915.59703703703</v>
+        <v>44289</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8750,13 +8735,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>9.699999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8793,14 +8773,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 56552-2022</t>
+          <t>A 8364-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44887</v>
+        <v>45708</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,13 +8792,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8855,14 +8830,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 27218-2023</t>
+          <t>A 41113-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45096.58238425926</v>
+        <v>45898.46057870371</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8875,7 +8850,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8912,14 +8887,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 36644-2023</t>
+          <t>A 62896-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45153.55092592593</v>
+        <v>45272.42737268518</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8932,7 +8907,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.5</v>
+        <v>13.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8969,14 +8944,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 7922-2022</t>
+          <t>A 17239-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44608.72004629629</v>
+        <v>45756.47972222222</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8989,7 +8964,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -9026,14 +9001,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 36420-2023</t>
+          <t>A 69847-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45152</v>
+        <v>44532</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9046,7 +9021,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -9083,14 +9058,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45868-2025</t>
+          <t>A 32327-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45923.65232638889</v>
+        <v>45836.44756944444</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9103,7 +9078,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -9140,14 +9115,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45812-2025</t>
+          <t>A 42143-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45923.58844907407</v>
+        <v>45904.36905092592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9160,7 +9135,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -9197,14 +9172,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 43243-2025</t>
+          <t>A 58705-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45910</v>
+        <v>45635</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9216,8 +9191,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9254,14 +9234,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45784-2025</t>
+          <t>A 22347-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45923.55923611111</v>
+        <v>45070.57208333333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9274,7 +9254,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9311,14 +9291,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45728-2025</t>
+          <t>A 44160-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45923.45925925926</v>
+        <v>45915.59703703703</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9330,8 +9310,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9368,14 +9353,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45898-2025</t>
+          <t>A 8359-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45923.67954861111</v>
+        <v>45708</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9388,7 +9373,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9425,14 +9410,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 45750-2025</t>
+          <t>A 44497-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45923.48400462963</v>
+        <v>45916.67107638889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9445,7 +9430,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9482,14 +9467,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 45744-2025</t>
+          <t>A 35426-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45923.47619212963</v>
+        <v>45855</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9502,7 +9487,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.8</v>
+        <v>2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9539,14 +9524,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 62905-2023</t>
+          <t>A 35425-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45272</v>
+        <v>45855</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9559,7 +9544,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>13.8</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9596,14 +9581,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 5126-2023</t>
+          <t>A 45728-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44958</v>
+        <v>45923.45925925926</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9616,7 +9601,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>14.3</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9653,14 +9638,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 17399-2025</t>
+          <t>A 45784-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45757</v>
+        <v>45923.55923611111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9673,7 +9658,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9710,14 +9695,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 10892-2022</t>
+          <t>A 45868-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44627.77988425926</v>
+        <v>45923.65232638889</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9730,7 +9715,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9767,14 +9752,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 41878-2024</t>
+          <t>A 45898-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45561</v>
+        <v>45923.67954861111</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9786,13 +9771,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>15.9</v>
+        <v>1.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9829,14 +9809,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 31362-2024</t>
+          <t>A 45744-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45505</v>
+        <v>45923.47619212963</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9849,7 +9829,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9886,14 +9866,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 29260-2025</t>
+          <t>A 38582-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45824</v>
+        <v>45546</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9905,8 +9885,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G153" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9943,14 +9928,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 17122-2024</t>
+          <t>A 45750-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45412</v>
+        <v>45923.48400462963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9963,7 +9948,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -10000,14 +9985,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 29256-2025</t>
+          <t>A 33081-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45824.38387731482</v>
+        <v>44785</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10020,7 +10005,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -10057,14 +10042,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 29645-2025</t>
+          <t>A 45812-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45825.46574074074</v>
+        <v>45923.58844907407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10077,7 +10062,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -10114,14 +10099,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 62557-2022</t>
+          <t>A 43243-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44924.77230324074</v>
+        <v>45910</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10134,7 +10119,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -10171,14 +10156,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 7991-2024</t>
+          <t>A 25840-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45350</v>
+        <v>45467</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10191,7 +10176,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -10228,14 +10213,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 30411-2025</t>
+          <t>A 37676-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45827</v>
+        <v>45159</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10248,7 +10233,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10285,14 +10270,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 30563-2025</t>
+          <t>A 6751-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45831.40098379629</v>
+        <v>45700.6130787037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10305,7 +10290,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10342,14 +10327,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 31190-2025</t>
+          <t>A 50640-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45831</v>
+        <v>45217.46871527778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10362,7 +10347,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10399,14 +10384,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 5810-2023</t>
+          <t>A 34580-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44963.48369212963</v>
+        <v>44795</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10419,7 +10404,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10456,14 +10441,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 58747-2025</t>
+          <t>A 12000-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45986.63916666667</v>
+        <v>44635</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10476,7 +10461,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10513,14 +10498,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 32327-2025</t>
+          <t>A 42557-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45836.44756944444</v>
+        <v>44831</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10533,7 +10518,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.1</v>
+        <v>13.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10570,14 +10555,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 58751-2025</t>
+          <t>A 35253-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45986.64163194445</v>
+        <v>44797</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10590,7 +10575,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10627,14 +10612,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 43242-2021</t>
+          <t>A 47507-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44432</v>
+        <v>45930.86842592592</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10647,7 +10632,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10684,14 +10669,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 5236-2023</t>
+          <t>A 10647-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44956</v>
+        <v>45368.47725694445</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10704,7 +10689,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10741,14 +10726,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 19524-2024</t>
+          <t>A 37515-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45429.6306712963</v>
+        <v>45877</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10761,7 +10746,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10798,14 +10783,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62947-2023</t>
+          <t>A 37495-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45272.54398148148</v>
+        <v>45877</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10818,7 +10803,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10855,14 +10840,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 12350-2023</t>
+          <t>A 15545-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44998</v>
+        <v>45401</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10880,7 +10865,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10917,14 +10902,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 59617-2025</t>
+          <t>A 37517-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45992.37861111111</v>
+        <v>45877</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10937,7 +10922,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10974,14 +10959,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 8359-2025</t>
+          <t>A 37696-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45708</v>
+        <v>45880</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10994,7 +10979,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -11031,14 +11016,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 40522-2025</t>
+          <t>A 5280-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45896</v>
+        <v>44593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11050,8 +11035,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>0.9</v>
+        <v>37.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -11088,14 +11078,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 40524-2025</t>
+          <t>A 49422-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45896</v>
+        <v>45938</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11108,7 +11098,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -11145,14 +11135,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 7993-2024</t>
+          <t>A 38002-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45350.63241898148</v>
+        <v>45881.89586805556</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11165,7 +11155,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -11202,14 +11192,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 33081-2022</t>
+          <t>A 49425-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44785</v>
+        <v>45938</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11222,7 +11212,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11259,14 +11249,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 35425-2025</t>
+          <t>A 13820-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45855</v>
+        <v>45390</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11279,7 +11269,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>7.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11316,14 +11306,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35426-2025</t>
+          <t>A 17565-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45855</v>
+        <v>45757.64024305555</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11336,7 +11326,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11373,14 +11363,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 38582-2024</t>
+          <t>A 49507-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45546</v>
+        <v>45939.37804398148</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11390,11 +11380,6 @@
       <c r="E179" t="inlineStr">
         <is>
           <t>GRUMS</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
         </is>
       </c>
       <c r="G179" t="n">
@@ -11435,14 +11420,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 29762-2023</t>
+          <t>A 31362-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45107.47733796296</v>
+        <v>45505</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11455,7 +11440,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11492,14 +11477,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 29736-2023</t>
+          <t>A 32302-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45107.45405092592</v>
+        <v>45512</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11511,8 +11496,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11549,14 +11539,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 60656-2025</t>
+          <t>A 3065-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45996.47914351852</v>
+        <v>45316.40590277778</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11569,7 +11559,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11606,14 +11596,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 2581-2026</t>
+          <t>A 17081-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46037.53079861111</v>
+        <v>45412</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11626,7 +11616,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11663,14 +11653,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 19052-2024</t>
+          <t>A 51509-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45427.76670138889</v>
+        <v>45950</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11683,7 +11673,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>7.7</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11720,14 +11710,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 50640-2023</t>
+          <t>A 7993-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45217.46871527778</v>
+        <v>45350.63241898148</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11740,7 +11730,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11777,14 +11767,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 37696-2025</t>
+          <t>A 45467-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45880</v>
+        <v>44845</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11797,7 +11787,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11834,14 +11824,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 37517-2025</t>
+          <t>A 52699-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45877</v>
+        <v>45956.7752662037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11854,7 +11844,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11891,14 +11881,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 17910-2024</t>
+          <t>A 5011-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45419</v>
+        <v>45329</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11911,7 +11901,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>6.8</v>
+        <v>22</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11948,14 +11938,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 37515-2025</t>
+          <t>A 53137-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45877</v>
+        <v>45229.33768518519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11968,7 +11958,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -12005,14 +11995,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 60752-2025</t>
+          <t>A 52700-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45999.38148148148</v>
+        <v>45956.78072916667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12025,7 +12015,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -12062,14 +12052,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 37495-2025</t>
+          <t>A 57233-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45877</v>
+        <v>45245.54103009259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12082,7 +12072,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -12119,14 +12109,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 22319-2021</t>
+          <t>A 9144-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44326.48232638889</v>
+        <v>45358.37327546296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12139,7 +12129,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -12176,14 +12166,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8361-2025</t>
+          <t>A 62675-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45708</v>
+        <v>45271</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12196,7 +12186,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -12233,14 +12223,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 38002-2025</t>
+          <t>A 62682-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45881.89586805556</v>
+        <v>45271</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12253,7 +12243,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12290,14 +12280,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 11597-2025</t>
+          <t>A 53863-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45727</v>
+        <v>45961.38152777778</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12310,7 +12300,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12347,14 +12337,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 31964-2023</t>
+          <t>A 53866-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45107</v>
+        <v>45961.385625</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12367,7 +12357,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12404,14 +12394,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 35253-2022</t>
+          <t>A 5214-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44797</v>
+        <v>45691</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12424,7 +12414,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12461,14 +12451,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 3054-2026</t>
+          <t>A 4982-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46039.37369212963</v>
+        <v>45329</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12481,7 +12471,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12518,14 +12508,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 29426-2022</t>
+          <t>A 62947-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44753</v>
+        <v>45272.54398148148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12537,13 +12527,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>14.4</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12580,14 +12565,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 30339-2022</t>
+          <t>A 31930-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44760.47674768518</v>
+        <v>45510</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12600,7 +12585,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>5.3</v>
+        <v>0.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12637,14 +12622,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 6751-2025</t>
+          <t>A 71706-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45700.6130787037</v>
+        <v>44543.44349537037</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12657,7 +12642,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12694,14 +12679,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 975-2025</t>
+          <t>A 11597-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45665</v>
+        <v>45727</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12714,7 +12699,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12751,14 +12736,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 63919-2021</t>
+          <t>A 40935-2022</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44509</v>
+        <v>44823</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12770,8 +12755,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G203" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12808,14 +12798,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 9144-2024</t>
+          <t>A 6938-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45358.37327546296</v>
+        <v>45343</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12828,7 +12818,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12865,14 +12855,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13121-2023</t>
+          <t>A 14306-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45002</v>
+        <v>45011</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12885,7 +12875,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.6</v>
+        <v>4.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12922,14 +12912,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 63063-2025</t>
+          <t>A 18321-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>46009</v>
+        <v>45762</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12942,7 +12932,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12979,14 +12969,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 62967-2025</t>
+          <t>A 58751-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>46009</v>
+        <v>45986.64163194445</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12999,7 +12989,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -13036,14 +13026,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 6713-2025</t>
+          <t>A 17972-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45700</v>
+        <v>45761.36483796296</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13055,13 +13045,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G208" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -13098,14 +13083,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 62941-2025</t>
+          <t>A 58747-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46009</v>
+        <v>45986.63916666667</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13155,14 +13140,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 62955-2025</t>
+          <t>A 27222-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46009</v>
+        <v>45096.58590277778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13175,7 +13160,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -13212,14 +13197,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 33948-2023</t>
+          <t>A 40522-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45124</v>
+        <v>45896</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13232,7 +13217,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13269,14 +13254,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 27222-2023</t>
+          <t>A 40524-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45096.58590277778</v>
+        <v>45896</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13289,7 +13274,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13326,14 +13311,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 59391-2025</t>
+          <t>A 36644-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45989</v>
+        <v>45153.55092592593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13346,7 +13331,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13383,14 +13368,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 17972-2025</t>
+          <t>A 59617-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45761.36483796296</v>
+        <v>45992.37861111111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13403,7 +13388,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13440,14 +13425,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 62896-2023</t>
+          <t>A 8788-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45272.42737268518</v>
+        <v>45356</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13460,7 +13445,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>13.8</v>
+        <v>0.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13497,14 +13482,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 6938-2024</t>
+          <t>A 7931-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45343</v>
+        <v>45706</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,8 +13501,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>2.8</v>
+        <v>13.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13554,14 +13544,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 26829-2023</t>
+          <t>A 62554-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45093.54527777778</v>
+        <v>44924</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13574,7 +13564,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13611,14 +13601,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13895-2024</t>
+          <t>A 21528-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45391</v>
+        <v>45441.59262731481</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,13 +13620,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13673,14 +13658,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 26815-2023</t>
+          <t>A 20954-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45093.531875</v>
+        <v>45061</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13693,7 +13678,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13730,14 +13715,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 17565-2025</t>
+          <t>A 2581-2026</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45757.64024305555</v>
+        <v>46037.53079861111</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13750,7 +13735,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13787,14 +13772,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 25443-2023</t>
+          <t>A 60752-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45089</v>
+        <v>45999.38148148148</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13807,7 +13792,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13844,14 +13829,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 14306-2023</t>
+          <t>A 3054-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45011</v>
+        <v>46039.37369212963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13864,7 +13849,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>4.3</v>
+        <v>2.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13901,14 +13886,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 5025-2023</t>
+          <t>A 60656-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44958.56039351852</v>
+        <v>45996.47914351852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13921,7 +13906,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13958,14 +13943,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 31974-2023</t>
+          <t>A 19052-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45107</v>
+        <v>45427.76670138889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13978,7 +13963,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.8</v>
+        <v>7.7</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -14015,14 +14000,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5957-2024</t>
+          <t>A 10892-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45336</v>
+        <v>44627.77988425926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14035,7 +14020,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -14072,14 +14057,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 8732-2026</t>
+          <t>A 29426-2022</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>46066.49796296296</v>
+        <v>44753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,8 +14076,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>6.1</v>
+        <v>14.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -14129,14 +14119,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 2253-2024</t>
+          <t>A 12416-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45310.30798611111</v>
+        <v>44998</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,8 +14138,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -14186,14 +14181,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 4870-2024</t>
+          <t>A 44048-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45329</v>
+        <v>45188.38348379629</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14206,7 +14201,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>8.4</v>
+        <v>2.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -14243,14 +14238,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 69847-2021</t>
+          <t>A 43242-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44532</v>
+        <v>44432</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14263,7 +14258,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14300,14 +14295,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 58514-2022</t>
+          <t>A 62905-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44902.40304398148</v>
+        <v>45272</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14320,7 +14315,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3.1</v>
+        <v>13.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14357,14 +14352,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 614-2026</t>
+          <t>A 21311-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46024</v>
+        <v>45440</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,8 +14371,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14414,14 +14414,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 71706-2021</t>
+          <t>A 37486-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44543.44349537037</v>
+        <v>44809.55424768518</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14471,14 +14471,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 39145-2021</t>
+          <t>A 46299-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44412</v>
+        <v>44847.75081018519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14528,14 +14528,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 47152-2023</t>
+          <t>A 5236-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45201</v>
+        <v>44956</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14585,14 +14585,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 53755-2024</t>
+          <t>A 62967-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45615.49748842593</v>
+        <v>46009</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14642,14 +14642,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 53138-2023</t>
+          <t>A 62941-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45229.34055555556</v>
+        <v>46009</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14699,14 +14699,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 16772-2024</t>
+          <t>A 56220-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45411</v>
+        <v>45240.78313657407</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14756,14 +14756,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 567-2026</t>
+          <t>A 53755-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46029.46965277778</v>
+        <v>45615.49748842593</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14813,14 +14813,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 39635-2023</t>
+          <t>A 972-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45167.52609953703</v>
+        <v>45665</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14870,14 +14870,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 66056-2021</t>
+          <t>A 59391-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44517.6359837963</v>
+        <v>45989</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14927,14 +14927,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 16574-2025</t>
+          <t>A 909-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45752.50203703704</v>
+        <v>45664</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14984,14 +14984,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 3065-2024</t>
+          <t>A 62955-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45316.40590277778</v>
+        <v>46009</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -15041,14 +15041,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 12082-2024</t>
+          <t>A 63063-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45377.54760416667</v>
+        <v>46009</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -15098,14 +15098,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 12084-2024</t>
+          <t>A 13895-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45377.55229166667</v>
+        <v>45391</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,8 +15117,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G244" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -15155,14 +15160,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 20954-2023</t>
+          <t>A 29724-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45061</v>
+        <v>45107</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15175,7 +15180,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -15212,14 +15217,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 17443-2025</t>
+          <t>A 56552-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45757.43275462963</v>
+        <v>44887</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,8 +15236,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15269,14 +15279,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 20369-2024</t>
+          <t>A 31974-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45435</v>
+        <v>45107</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15289,7 +15299,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15326,14 +15336,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 11601-2025</t>
+          <t>A 19802-2024</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45727</v>
+        <v>45432</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,8 +15355,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G248" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15383,14 +15398,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 4976-2024</t>
+          <t>A 16635-2024</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45329</v>
+        <v>45408.59462962963</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15418,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15440,14 +15455,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 12175-2024</t>
+          <t>A 22319-2021</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45377</v>
+        <v>44326.48232638889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15460,7 +15475,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15497,14 +15512,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 30527-2022</t>
+          <t>A 4273-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44762.44436342592</v>
+        <v>45685</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15517,7 +15532,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15554,14 +15569,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 22347-2023</t>
+          <t>A 614-2026</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45070.57208333333</v>
+        <v>46024</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15574,7 +15589,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15611,14 +15626,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 4603-2025</t>
+          <t>A 7922-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45687</v>
+        <v>44608.72004629629</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15630,13 +15645,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G253" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15673,14 +15683,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 4273-2025</t>
+          <t>A 1556-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45685</v>
+        <v>45670</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15693,7 +15703,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15730,14 +15740,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 56220-2023</t>
+          <t>A 8732-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45240.78313657407</v>
+        <v>46066.49796296296</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15750,7 +15760,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.7</v>
+        <v>6.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15787,14 +15797,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 56219-2023</t>
+          <t>A 12311-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45240.77920138889</v>
+        <v>45378.63476851852</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15807,7 +15817,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15844,14 +15854,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 6721-2025</t>
+          <t>A 33948-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45700</v>
+        <v>45124</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15863,13 +15873,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G257" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15906,14 +15911,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 17437-2025</t>
+          <t>A 567-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45757</v>
+        <v>46029.46965277778</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15926,7 +15931,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15963,14 +15968,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 5841-2022</t>
+          <t>A 13320-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44596.6127662037</v>
+        <v>45386.77172453704</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15983,7 +15988,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -16020,14 +16025,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 12000-2022</t>
+          <t>A 55227-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44635</v>
+        <v>45231</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16040,7 +16045,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -16077,14 +16082,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 40935-2022</t>
+          <t>A 25014-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44823</v>
+        <v>45461</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16096,13 +16101,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G261" t="n">
-        <v>5</v>
+        <v>12.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -16139,14 +16139,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 36646-2023</t>
+          <t>A 31964-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45153.55540509259</v>
+        <v>45107</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -16196,14 +16196,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 3779-2025</t>
+          <t>A 12082-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45681</v>
+        <v>45377.54760416667</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16215,13 +16215,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>BillerudKorsnäs AB</t>
-        </is>
-      </c>
       <c r="G263" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -16258,14 +16253,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 29724-2023</t>
+          <t>A 12084-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45107</v>
+        <v>45377.55229166667</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16278,7 +16273,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16315,14 +16310,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 8362-2025</t>
+          <t>A 4976-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45708</v>
+        <v>45329</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16335,7 +16330,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>7.7</v>
+        <v>5.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16372,14 +16367,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 972-2025</t>
+          <t>A 64304-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45665</v>
+        <v>45280</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16392,7 +16387,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16429,14 +16424,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 49300-2022</t>
+          <t>A 48553-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44861.47716435185</v>
+        <v>45208.40232638889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16449,7 +16444,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16486,14 +16481,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 16635-2024</t>
+          <t>A 26815-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45408.59462962963</v>
+        <v>45093.531875</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16506,7 +16501,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16543,14 +16538,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 37676-2023</t>
+          <t>A 16772-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45159</v>
+        <v>45411</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16563,7 +16558,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16600,14 +16595,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 53137-2023</t>
+          <t>A 25443-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45229.33768518519</v>
+        <v>45089</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16620,7 +16615,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16657,14 +16652,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 8788-2024</t>
+          <t>A 66056-2021</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45356</v>
+        <v>44517.6359837963</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16677,7 +16672,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16714,14 +16709,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 680-2024</t>
+          <t>A 23189-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45300</v>
+        <v>45450</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16733,8 +16728,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G272" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16771,14 +16771,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 46299-2022</t>
+          <t>A 7991-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>44847.75081018519</v>
+        <v>45350</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16791,7 +16791,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16828,14 +16828,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 62554-2022</t>
+          <t>A 22289-2021</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44924</v>
+        <v>44326</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16848,7 +16848,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16885,14 +16885,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 57236-2023</t>
+          <t>A 59542-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45245.54427083334</v>
+        <v>44907</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16905,7 +16905,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16942,14 +16942,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 57237-2023</t>
+          <t>A 19155-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45245</v>
+        <v>45769</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16962,7 +16962,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>18.2</v>
+        <v>1.9</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16999,14 +16999,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 5280-2022</t>
+          <t>A 52848-2021</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>44593</v>
+        <v>44467</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17018,13 +17018,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G277" t="n">
-        <v>37.1</v>
+        <v>3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -17061,14 +17056,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 29577-2024</t>
+          <t>A 8361-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45484</v>
+        <v>45708</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17080,13 +17075,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G278" t="n">
-        <v>10.1</v>
+        <v>2.3</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -17123,14 +17113,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 27443-2024</t>
+          <t>A 73310-2021</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45474</v>
+        <v>44547</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17143,7 +17133,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -17180,14 +17170,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 32959-2022</t>
+          <t>A 39635-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44784</v>
+        <v>45167.52609953703</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17200,7 +17190,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -17237,14 +17227,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 13320-2024</t>
+          <t>A 37339-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45386.77172453704</v>
+        <v>44806</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17257,7 +17247,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17294,14 +17284,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 38517-2024</t>
+          <t>A 56386-2022</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45546.56068287037</v>
+        <v>44890</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17314,7 +17304,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17351,14 +17341,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 19155-2025</t>
+          <t>A 71781-2021</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45769</v>
+        <v>44539</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17370,8 +17360,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G283" t="n">
-        <v>1.9</v>
+        <v>7</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17408,14 +17403,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 37119-2024</t>
+          <t>A 6713-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45539.53746527778</v>
+        <v>45700</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17427,8 +17422,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G284" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17465,14 +17465,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 56386-2022</t>
+          <t>A 8362-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44890</v>
+        <v>45708</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17485,7 +17485,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>4.2</v>
+        <v>7.7</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17522,14 +17522,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 19802-2024</t>
+          <t>A 30527-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45432</v>
+        <v>44762.44436342592</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17541,13 +17541,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G286" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17584,14 +17579,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 34580-2022</t>
+          <t>A 17573-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44795</v>
+        <v>45757.65053240741</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17604,7 +17599,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17641,14 +17636,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 19566-2023</t>
+          <t>A 17122-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45049</v>
+        <v>45412</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17661,7 +17656,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17698,14 +17693,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 7272-2022</t>
+          <t>A 9837-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44606.4540625</v>
+        <v>44984.85623842593</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17718,7 +17713,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17755,14 +17750,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 22822-2024</t>
+          <t>A 41878-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45448</v>
+        <v>45561</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17774,8 +17769,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G290" t="n">
-        <v>1.3</v>
+        <v>15.9</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17812,14 +17812,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 59542-2022</t>
+          <t>A 19753-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44907</v>
+        <v>45432</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17832,7 +17832,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17869,14 +17869,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 21402-2024</t>
+          <t>A 27443-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45441</v>
+        <v>45474</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17889,7 +17889,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17926,14 +17926,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 16092-2021</t>
+          <t>A 32959-2022</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44289</v>
+        <v>44784</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17983,14 +17983,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 57233-2023</t>
+          <t>A 30914-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45245.54103009259</v>
+        <v>45113</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18003,7 +18003,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -18040,14 +18040,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 71781-2021</t>
+          <t>A 20369-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44539</v>
+        <v>45435</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18059,13 +18059,8 @@
           <t>GRUMS</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr">
-        <is>
-          <t>Bergvik skog väst AB</t>
-        </is>
-      </c>
       <c r="G295" t="n">
-        <v>7</v>
+        <v>1.4</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -18102,14 +18097,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 31930-2024</t>
+          <t>A 7272-2022</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45510</v>
+        <v>44606.4540625</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18122,7 +18117,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -18159,14 +18154,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 73901-2021</t>
+          <t>A 26829-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44552</v>
+        <v>45093.54527777778</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18179,7 +18174,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -18216,14 +18211,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 5214-2025</t>
+          <t>A 38517-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45691</v>
+        <v>45546.56068287037</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18236,7 +18231,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -18273,14 +18268,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 26840-2023</t>
+          <t>A 16574-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45093.5540625</v>
+        <v>45752.50203703704</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18293,7 +18288,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18330,14 +18325,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 13820-2024</t>
+          <t>A 18184-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45390</v>
+        <v>45420</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18349,8 +18344,13 @@
           <t>GRUMS</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>Bergvik skog väst AB</t>
+        </is>
+      </c>
       <c r="G300" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18387,14 +18387,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 5011-2024</t>
+          <t>A 19524-2024</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45329</v>
+        <v>45429.6306712963</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18407,7 +18407,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18444,14 +18444,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A3